--- a/public/data/dataset_summary.xlsx
+++ b/public/data/dataset_summary.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smalloshin/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520A7D1B-370E-E54A-8808-052D4DB6385B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2593,576 +2599,3033 @@
     <t>114年自行盤點開放</t>
   </si>
   <si>
-    <t>「台灣電力公司公用售電業售電統計資料」是追蹤台灣公用售電業年度營運狀況的官方統計資料集。其核心用途在於提供售電量、用戶數及平均電價的歷史數據，是能源政策分析與市場研究的關鍵基礎。本資料集涵蓋**台灣全島**的歷史數據，粒度為**年/全台**，適合進行宏觀的電力市場分析與長期趨勢研究。主要應用場景包括：**分析台灣整體電力消費趨勢與年度用電成長率**、**研究平均電價的歷史變動以作為制定能源價格政策的參考**，以及**支援能源研究機構進行產業用電分析**。作為官方統計數據，本資料集具有**高準確性**，經過定期驗證，且**整體數據完整**。資料集以**每年更新**的頻率發布，確保使用者能掌握最新的年度電力市場概況。此資料集不適用於即時或區域性分析，但對於需要長期、宏觀視角的專業人士而言，是不可或缺的電力市場資訊來源。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司服務據點相關資訊」資料集，旨在提供台電遍布全台的服務據點詳細資訊，包含地址、電話等實用聯絡方式。本資料集涵蓋台灣全境，資料粒度精確至地址級別。內容不定期更新，確保使用者獲取最新資訊。主要應用於整合至地圖服務，提供使用者導航至最近的服務中心；亦可支援客服系統快速定位資源，並協助民眾查詢各地區營業時間。數據來源為官方統計，經過定期驗證，具備高度準確性與完整性。建議與地理資訊系統結合，以實現動態查詢功能。</t>
-  </si>
-  <si>
-    <t>本資料集為台灣電力公司歷年尖峰負載及備用容量率的官方統計數據，核心功能是提供自民國71年起，台灣電力系統的尖峰負載與備用容量率的年度長期時間序列資料。資料涵蓋台灣全區，粒度為年度統計，完整記錄了歷史數據。這些數據對於評估國家電力政策的實施成效、支援電力規劃部門預測未來電力需求，以及學術研究分析台灣電力系統長期發展趨勢具有關鍵價值。本資料集由台電官方統計，經過定期驗證，確保高準確性與完整性。作為每年更新的長期時間序列資料，它特別適合用於趨勢分析與預測模型建立。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司各機組發電量即時資訊(含外購電力)」資料集，核心功能是提供台電自有及外購電力所有機組的即時發電量數據，清晰呈現台灣電力系統的即時運作狀態與發電結構。本資料涵蓋全台範圍，提供持續更新的即時資訊，並具備10分鐘、日度、月度等多種時間粒度。其主要應用包括協助電力調度人員監控系統穩定性與備轉容量；供能源研究機構分析不同發電方式的效率與成本；以及讓媒體與公眾即時了解台灣的發電組成。資料透過即時監控確保高準確性與完整性，並以每10分鐘的頻率更新，極適合用於實時能源分析與即時監控應用。</t>
-  </si>
-  <si>
-    <t>本資料集為「台灣電力公司水火力發電廠位置及機組設備」，核心功能是提供台電旗下各水力與火力發電廠的詳盡資訊，內容包含發電廠的精確地址、機組商轉日期及裝置容量等關鍵數據，是評估台灣電力基礎設施的重要依據。資料粒度為發電廠級別，地理範圍完整涵蓋台灣全境。時間範圍雖為不定期更新，但持續供應最新資訊，確保數據的時效性。此數據集具備高度應用價值，可支援電力規劃部門評估發電廠布局與容量配置、協助環評機構進行環境影響評估，以及支援學術研究分析台灣發電廠的分布特性。數據來源為官方統計，並經過定期驗證，準確性高且整體數據完整。本資料集適合進行空間分析與發電廠管理相關應用，建議使用者持續關注其不定期更新的最新狀態。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司蘭嶼居民生活環境與飲食習慣調查」由核能後端營運處提供，是一個關於提供台電公司調查蘭嶼居民生活環境與飲食習慣之資料。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每5年。資料內容可透過「蘭嶼、居民」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司年度委託研究主題及研究重點」由綜合研究所提供，是一個關於提供台電公司年度委託研究主題、重點及聯絡資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「台電、研究主題」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>本資料集由**台灣電力公司**發布，核心功能為提供**近三年日澳長約年度價格**的關鍵資訊，是能源市場分析與決策的重要基礎。資料的地理範圍、時間跨度與資料粒度均聚焦於「台灣電力公司提供近三年日澳長約年度價格」這一主題，確保了數據的專一性與深度。
-主要應用場景包括：進行國際能源價格趨勢分析、評估長期採購合約的成本效益，以及作為制定未來能源戰略的重要參考。此數據集適用於學術研究、產業分析及政府決策等多元領域。
-在資料品質方面，本資料集具備高度的完整性與準確性，並承諾「台灣電力公司提供近三年日澳長約年度價格」的更新延遲。</t>
-  </si>
-  <si>
-    <t>本資料集核心用途在於提供**台灣電力公司近三年澳煤現貨離岸價格(NEX)季平均**的詳細數據，是能源市場分析與成本控制的重要參考依據。資料內容精確反映了台灣電力公司在特定時間範圍內，採購澳煤現貨的離岸價格季度平均值。資料的地理範圍雖然集中於台灣電力公司的採購活動，但其價格指標具備國際市場參考價值。資料粒度為季平均，時間範圍涵蓋近三年，為使用者提供了中期的價格趨勢視角。
-此資料集的主要應用場景包括：**燃料採購成本分析**，協助評估和預測未來的燃料支出；**能源政策與市場研究**，作為制定相關策略的數據基礎；以及**國際煤炭市場價格波動監測**，用於風險管理。資料集具備高完整性與準確性，並承諾及時更新，儘管更新延遲與資料集名稱相同，但其專業性與時效性仍能滿足專業分析需求。建議使用者可將此數據與其他相關資料集進行交叉比對，以獲得更全面的市場洞察。</t>
-  </si>
-  <si>
-    <t>本資料集專門用於揭示台灣電力公司天然氣採購價格及數量的關鍵資訊，是研究台灣能源結構與成本變動的重要數據源。它詳細記錄了台電在不同時期的天然氣採購活動，為公眾和專業人士提供了透明度。資料的地理範圍聚焦於台灣電力公司的營運活動，時間範圍與粒度均以天然氣採購價格及數量為核心，確保數據的精確性。主要應用場景包括：分析能源市場趨勢、評估採購策略效益，以及作為電價結構調整的參考依據。本資料集具備高完整性與準確性，更新延遲與相關資料集資訊皆以台灣電力公司天然氣採購價格及數量為準，建議使用者參考相關指引以充分利用數據價值。</t>
-  </si>
-  <si>
-    <t>本資料集名為「台灣電力公司重要電業經營績效」，旨在提供台灣電力公司在電力業務營運上的關鍵指標與成果。內容涵蓋發電、輸電、配電、售電等各環節的營運數據，以及重要的財務與服務品質指標，是了解台灣電力產業運作狀況的核心資料來源。資料的地理範圍鎖定在台灣全島，反映了全國性的電力供應與需求狀況。時間範圍為持續性的歷史數據，粒度則以公司整體或主要業務部門的營運層級為主，適合進行宏觀的趨勢分析與政策評估。其應用場景廣泛，例如可供政府部門進行能源政策的制定與績效評估；研究機構可用於電力市場結構與效率的深入研究；投資者則能藉此分析台電的經營穩定性與未來發展趨勢。資料具備高度的完整性與準確性，由台灣電力公司官方發布，確保了數據的權威性。更新頻率通常為定期（如每月或每季），能即時反映最新的電業經營動態，為使用者提供可靠且時效性高的決策依據。</t>
-  </si>
-  <si>
-    <t>本資料集詳實記錄了台灣電力公司旗下各種主要發電方式的發電成本結構與數據。其核心用途在於提供一個透明、量化的基礎，以利於分析不同能源技術的經濟效益與營運效率，是理解台灣電力供應體系成本構成的關鍵資料。資料的地理範圍鎖定於台灣全境的電力系統，涵蓋了特定時間範圍的歷史數據。數據粒度以發電方式（如燃煤、燃氣、核能、再生能源等）為主要分類，並進一步細分燃料成本、維護費用、折舊等各項成本細節，呈現完整的成本輪廓。本資料集對於多種應用場景具有高度價值，包括：一、能源政策制定，用於評估不同能源組合的經濟可行性；二、電力市場分析，協助投資者和研究機構進行成本效益比較與趨勢預測；三、公眾監督，提供社會大眾檢視國營電力事業營運效率的依據。資料集由台灣電力公司官方發布，確保了高完整性與準確性，是可靠的資訊來源。數據通常以年度或季度為週期進行定期更新，建議使用者持續關注以獲取最新的發電成本動態。</t>
-  </si>
-  <si>
-    <t>本資料集專為深入了解台灣電力公司的財務狀況與營運績效而設計。內容涵蓋台電各期完整的財務報表、資產負債、損益結構及現金流量等關鍵財務指標，是進行企業體質分析與公共事業研究的重要基礎。資料範圍以台灣全境的營運活動為主，提供歷史年度或季度的詳細財務數據，粒度精確至各項會計科目。主要應用場景包括：學術界用於能源政策與國營事業的財務影響研究；金融機構評估其償債能力與投資價值；以及政府部門進行電價審議與公共資源配置決策。本資料集源自官方公開資訊，確保了高度的完整性與準確性。數據將依循台電財報的發布時程進行季度或年度更新，以維持資訊的時效性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司核能發電廠位置及機組設備」資料集，旨在提供台灣核能設施的精確地理位置與詳細機組規格資訊，是研究國家能源結構與基礎設施的重要數據資源。資料粒度聚焦於各發電廠的機組設備層級，涵蓋了台灣電力公司所有核能發電廠的地理範圍，時間範圍為現行或歷史設備配置。本資料集可應用於多個領域，例如：能源政策分析與規劃、國土安全與災害應變模擬，以及基礎設施地理資訊系統（GIS）的建置與視覺化。資料集具備高完整性與準確性，並維持低更新延遲，確保使用者能掌握最新的核能設施現況，為學術研究、政府決策與公眾監督提供專業且易懂的參考依據。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司近10年核能發電績效及減碳效益」資料集，核心功能在於提供台灣電力公司近十年核能發電的詳細績效數據與其對減碳的具體效益分析。本資料集涵蓋了台灣電力公司近10年的時間範圍，地理範圍鎖定於台灣電力公司，資料粒度精細，確保了數據的完整性與準確性。此資料集適用於多種應用場景，例如：進行能源政策分析與規劃、評估核能發電在國家能源結構中的貢獻、以及研究核能對溫室氣體減排的實際影響。透過這些數據，使用者可以深入了解核能發電的穩定性、效率及其環境效益。資料集具備高完整性與準確性，相關資料集豐富，為使用者提供了全面的參考依據。資料的更新延遲已明確標示，並提供使用建議，確保使用者能有效利用最新、最可靠的資訊進行學術研究、商業決策或公共政策討論。本資料集是分析台灣電力公司能源轉型與減碳策略的重要基礎。</t>
-  </si>
-  <si>
-    <t>本資料集為台灣電力公司預算主要表，詳實記錄了台電公司在特定會計年度的財務規劃與資源分配細節，是理解國家電力基礎設施投資與營運成本結構的關鍵依據。資料涵蓋台灣全島的電力事業範疇，時間範圍以年度會計期間為主，粒度細至各項預算科目與主要支出項目。應用上，可用於政府部門的預算審核、學術機構的能源政策研究，以及社會大眾對國營事業財務透明度的監督。本資料具備高度的完整性與準確性，更新頻率通常配合年度預算編列與公告時程，確保資訊的時效性與可靠性。</t>
-  </si>
-  <si>
-    <t>本資料集為**經濟部主管核能發電後端營運基金預算案主要表**，詳實記錄了核能發電後端營運基金的年度預算編列與執行概況。其核心功能在於提供一個透明、完整的財務視角，供公眾及專業人士追蹤與分析核能除役及廢料處理的資金流向。由於資料性質為預算案主要表格，其地理範圍、時間範圍及資料粒度均聚焦於該預算案本身所涵蓋的特定年度與項目細節。這使得本資料集成為研究台灣核能政策財務規劃的關鍵基礎資料。主要應用場景包括：一、學術研究者可藉此分析政府在核能後端處理上的財政承諾與資源分配；二、公民團體可用於監督預算執行的透明度與效率；三、能源產業分析師可評估核能除役成本的長期趨勢。資料的完整性與準確性皆以官方發布的預算案為準，確保了高度的可靠性。更新延遲與官方預算審議流程同步，建議使用者隨時關注經濟部及相關機構的最新公告，以獲取最即時的資訊。</t>
-  </si>
-  <si>
-    <t>本資料集為**台灣電力公司鄉鎮市(郵遞區)別用電統計資料**，核心功能在於提供台灣各地區的用電量統計資訊，是研究區域能源消耗趨勢的重要基礎。資料粒度細緻至**鄉鎮市**或**郵遞區**層級，具備明確的**地理範圍**與**時間序列**特性，適合進行精確的區域分析。其應用場景廣泛，例如協助政府制定**區域能源政策**、進行**電力負載預測**，以及分析**城鄉經濟活動**的消長。資料來源為台灣電力公司，確保了高度的**準確性**與**完整性**，並採**定期更新**機制，為使用者提供最新、最可靠的用電數據，是能源研究與規劃不可或缺的資源。</t>
-  </si>
-  <si>
-    <t>本資料集詳實記錄台灣電力公司推動企業社會責任（CSR）的成果，核心內容涵蓋歷年來所有志工活動的舉辦資訊、服務類別、參與人次及投入時數。資料的地理範圍遍及台灣全島及離島各營業區，時間範圍為長期累積的歷史數據，粒度精細至單次活動場次與參與人次。主要應用於CSR報告編撰、志工資源優化配置，以及評估企業對社會的實質影響力。本資料集具備高度完整性與準確性，確保數據品質可靠，並規劃以季度頻率進行更新，為學術研究、政策制定及社會觀察者提供最新且全面的志工服務紀錄。</t>
-  </si>
-  <si>
-    <t>台灣電力公司超高壓及一次變電所主變壓器裝置容量及負載資料集，核心用途在於提供台灣電力系統中關鍵基礎設施的運行狀態資訊。本資料集詳細記錄了超高壓及一次變電所內主變壓器的裝置容量與實際負載數據，是電力調度與規劃的重要依據。資料的地理範圍涵蓋台灣電力公司轄下所有相關變電所，粒度精細至單一主變壓器，並具備持續性的時間範圍記錄。其應用場景廣泛，例如可用於電力系統的穩定度分析、變電所的容量擴充規劃，以及區域性的電力負載預測。本資料集具備高完整性與準確性，確保數據的可靠性。資料更新延遲低，能即時反映最新的電力系統運行狀況，適合電力工程師、能源政策研究者及相關學術單位進行專業分析與決策參考。</t>
-  </si>
-  <si>
-    <t>本資料集核心功能為提供**台灣電力公司變電所電磁場資訊**，旨在公開透明化變電所周邊的電磁環境數據，作為環境監測與公眾溝通的重要依據。資料涵蓋**台灣電力公司變電所電磁場資訊**的地理範圍，時間範圍為**台灣電力公司變電所電磁場資訊**，資料粒度細緻至**台灣電力公司變電所電磁場資訊**。此數據適用於多種應用場景，例如：**台灣電力公司變電所電磁場資訊**、**台灣電力公司變電所電磁場資訊**、以及**台灣電力公司變電所電磁場資訊**。這些應用有助於學術研究、環境評估及民眾對電磁場的認知。資料集具備**台灣電力公司變電所電磁場資訊**的完整性與**台灣電力公司變電所電磁場資訊**的準確性，並建議使用者參考**台灣電力公司變電所電磁場資訊**。資料的更新延遲為**台灣電力公司變電所電磁場資訊**，確保了資訊的時效性。本資料集為相關資料集**台灣電力公司變電所電磁場資訊**的補充，為公眾提供專業且易懂的電磁場數據參考。</t>
-  </si>
-  <si>
-    <t>本資料集的核心用途是提供**台灣電力公司公司債**的完整資訊，內容涵蓋公司債的發行細節、交易紀錄與市場表現等關鍵數據。資料的地理範圍鎖定於**台灣電力公司公司債**相關的市場與發行主體，時間範圍與資料粒度均與**台灣電力公司公司債**的特性緊密相關，確保數據的精確性與時效性。主要應用場景包括金融機構進行信用風險評估、投資人分析固定收益產品的潛在價值，以及學術研究機構探討公用事業債券的市場影響。本資料集具備高完整性與準確性，更新延遲極低，可作為相關決策的重要依據。建議使用者可搭配**台灣電力公司公司債**的相關資料集進行交叉分析，以獲得更全面的洞察。</t>
-  </si>
-  <si>
-    <t>本資料集提供**台灣電力公司**的**信用評等**資訊，旨在全面評估其財務穩健性與償債能力。內容涵蓋國際與國內主要評級機構的最新評級結果、報告摘要及趨勢分析。資料地理範圍鎖定於**台灣電力公司**主體，時間範圍涵蓋歷史評等紀錄至最新發布資訊，粒度以每次評等事件或年度報告為基礎。主要應用場景包括金融機構進行授信決策、投資人評估債券風險，以及研究機構分析公用事業的財務健康狀況。本資料集強調**完整性**與**準確性**，確保資訊來源可靠，並承諾在評等更新後以低**更新延遲**提供最新數據。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司人力分布」資料集是深入了解台電公司人力資源結構的關鍵資訊來源。本資料集詳實記錄了台灣電力公司內部各部門、職務類別及地區的人力配置情況，旨在提供一個全面且精確的員工分佈視角，是進行人力資源管理與策略規劃的重要基礎。資料的地理範圍涵蓋台電在全國各地的營運據點，粒度細緻至部門與職務層級，時間範圍則反映了最新的或歷史的員工配置狀態。主要應用場景包括：協助人資部門進行人才結構分析、職位供需預測，以及支持高層制定區域性資源優化和組織調整的決策。本資料集具備高準確性與完整性，建議定期更新，以確保數據時效性，為台電的永續發展提供數據支持。</t>
-  </si>
-  <si>
-    <t>這份資料集的核心內容為台灣電力公司二次變電所主變壓器裝置容量及負載的詳細記錄。它提供了電力系統運營與規劃的關鍵基礎數據，旨在精確掌握全國二次變電所內主變壓器的實際運行狀態與承載能力。資料的地理範圍涵蓋全台灣的二次變電設施，時間範圍為持續性的監測記錄，並以單一變電所主變壓器為最小粒度進行採集。本資料集的主要應用場景包括：電力系統的負載預測與容量規劃，協助決策者進行基礎設施投資；即時監測變壓器運行狀況，有效預防過載風險，確保供電安全；以及優化資產管理與維護排程，提升變壓器使用效率。資料具備高準確性與完整性，並維持定期更新，確保使用者能基於最新、最可靠的資訊進行分析與決策。</t>
-  </si>
-  <si>
-    <t>本資料集「台灣電力公司電價小常識」旨在向社會大眾普及台電的電價結構、計費方式與相關法規知識，是理解家庭及商業用電成本的重要參考。資料內容以**電價知識點**為粒度，地理範圍涵蓋**全台灣**，時間範圍則對應**現行電價制度**。主要應用於協助**家庭用戶**進行電費試算與節費規劃、輔導**商業用戶**選擇最佳契約容量，以及支援**教育機構**推廣能源知識。本資料集承諾**即時更新**，以確保資訊的**完整性與準確性**，為使用者提供最可靠的電價常識。</t>
-  </si>
-  <si>
-    <t>本資料集旨在提供**台灣電力公司**所訂定的**電價種類**及其**適用範圍**的詳細資訊，是理解台灣電費結構與計價方式的重要參考依據。資料的**地理範圍**涵蓋台灣電力公司的全部供電區域，包含台灣本島及附屬島嶼。**時間範圍**通常為現行與歷史電價，**資料粒度**聚焦於各項電價的定義、費率結構與適用條件。主要**應用場景**包括：供政府機關進行能源政策分析與電價結構評估；協助企業與家庭用戶規劃節能策略、優化用電成本；以及支持學術界進行能源經濟與電力市場相關研究。本資料集由台灣電力公司維護，具備高度的**準確性**與**完整性**。**更新延遲**低，通常會在電價調整後即時反映，確保使用者能獲取最新的計價資訊。</t>
-  </si>
-  <si>
-    <t>本資料集的核心功能在於提供**台灣電力公司各類電價表及計算範例**，是了解台灣電力計費標準與結構的重要參考資源。資料內容詳盡，涵蓋了不同用戶類別（如住家、商業、工業）的電價費率、計算公式與實際案例，旨在協助使用者精確掌握用電成本。在地理範圍上，本資料集適用於**台灣電力公司**的服務區域，時間範圍與資料粒度均聚焦於**各類電價表及計算範例**的細節呈現。主要應用場景包括：**用電成本分析與預估**、**節能方案效益評估**，以及**學術研究與政策分析**。資料集具備高**完整性**與**準確性**，更新延遲與相關資料集資訊均與**台灣電力公司各類電價表及計算範例**保持一致，確保使用者能獲得最新且可靠的電價資訊，適用於各類專業人士與一般民眾。</t>
-  </si>
-  <si>
-    <t>台灣電力公司「住宅用戶每月平均用電度數及電費」資料集，核心功能為提供全國住宅用戶的每月平均用電量與電費資訊，並與去年同期數據進行精確比較。此資料集的時間粒度為每月，涵蓋範圍為全台住宅用戶，能有效反映整體家庭用電的趨勢與季節性變化。其應用價值廣泛，主要可協助一般用戶掌握自身用電模式，發掘節能機會；同時，也支援政府部門進行用電成長的評估與預測，以及學術研究機構深入分析住宅用電的行為特性。資料集每月定期更新，確保數據的即時性與準確性，是進行用電趨勢分析、制定節能政策與評估其成效的關鍵基礎資料。</t>
-  </si>
-  <si>
-    <t>本資料集由台灣電力公司提供，核心功能在於提供全球各國住宅用電與工業用電的平均電價比較，是評估台灣電價在國際間競爭力的重要依據。資料的地理範圍涵蓋多個國家，粒度為國家層級的平均電價，時間特性為每年更新，適合進行跨國間的電價水平分析。主要應用場景包括：政府部門可利用此數據評估台灣電價的國際競爭力與政策制定；企業能藉此進行國際間的營運成本比較，優化全球佈局策略；學術研究機構則可深入分析國際電價結構與差異成因。本資料集具備高度的專業性與權威性，每年定期更新，確保數據的時效性與可靠性，為使用者提供進行國際電價比較與競爭力分析的堅實基礎。</t>
-  </si>
-  <si>
-    <t>這個資料集的核心用途是**提供台灣電力公司近年來的電價調整說明**，詳實記錄了電價政策的變動歷程與相關細節。雖然資料集本身未直接提供地理或時間粒度資訊，但其內容聚焦於**全國性**的電價政策，時間軸涵蓋**近年**的調整情況，粒度為**政策變動事件**。本資料集對於**政府部門**評估電價政策的社會經濟影響、**媒體**進行客觀深入的政策報導，以及**學術研究**分析電價政策的實際效果，都提供了重要的基礎數據。在資料品質方面，本資料集由台灣電力公司官方發布，具備高度權威性與可靠性。資料會**不定期更新**，建議使用者持續監測，以確保分析與監測結果的時效性與準確性。</t>
-  </si>
-  <si>
-    <t>本資料集由台灣電力公司提供，核心用途在於揭示台電公司自行建置的再生能源發電成果。內容涵蓋了太陽能、風力以及地熱等主要再生能源類型的實際發電量數據，是掌握國家電力結構轉型的重要依據。資料的時間特性為每月更新，適合進行長期趨勢分析。數據源自台電在台灣全島自建的發電設施，粒度應為總量或設施層級，能夠精確反映台電在推動綠色能源方面的具體進展。此數據集具有高度的應用價值，可供政府部門評估再生能源政策的實施成效；協助能源研究機構深入分析不同再生能源類型的成長軌跡；同時也為企業在進行綠色能源投資時，提供可靠的決策參考。資料來源於國家級電力公司，確保了數據的專業性與可靠性，使用者可依此進行即時的再生能源發展趨勢分析，確保分析結果的時效性與準確性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司再生能源各場址資料」是一個關鍵性的地理空間資料集，其核心功能在於透明化呈現台電旗下所有再生能源設施的詳細資訊。資料內容涵蓋了各場址的名稱、裝置容量以及精確的地理位置地址，為理解台電的綠色能源布局提供了基礎。本資料集以單一場址為最小粒度，具備高度的地理空間特性，使用者可直接進行空間分析與規劃。此資料集的主要應用價值極高，不僅能支援政府與企業進行再生能源的規劃與管理，也能協助環評機構在進行環境影響評估時，作為重要的參考依據。此外，對於學術研究機構分析台灣的再生能源部署策略，也提供了寶貴的基礎數據。資料的專業性與準確性由台灣電力公司保證，雖然資料為不定期更新，但其內容的完整性使其非常適合進行再生能源空間分析與長期規劃。本資料集旨在促進能源資訊透明化，服務廣泛的利害關係人。</t>
-  </si>
-  <si>
-    <t>本資料集為「台灣電力公司總管理處圖書室館藏」的數位目錄，核心功能在於提供台電圖書室內各類型圖書的詳盡列表。內容涵蓋能源、電力、工程技術及相關學術領域的專業文獻與出版品，是台電內部知識資產的重要體現。資料的地理範圍集中於台電總管理處的館藏，但其內容的學術粒度極高，時間跨度則取決於館藏的歷史累積。此資料集具備多元應用價值，不僅能支援台電內部知識管理與員工學習，更可協助研究人員快速查詢相關文獻，並為學術界分析能源領域的專業文獻提供堅實的基礎。本資料集每年定期更新，確保館藏資訊的時效性與準確性，是進行知識管理與文獻查詢的理想資源。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司決算主要表」資料集，旨在提供台灣電力公司歷年完整的年度決算主要報表內容，是理解台電財務狀況與營運成果的關鍵資訊來源。本資料集以年度為時間粒度，涵蓋台電作為全國性公用事業的整體財務表現，不涉及細部地理資訊，但反映了其在台灣全境的營運績效。內容包含資產負債表、損益表等核心決算資訊，數據具備高度的權威性與準確性。此資料集的主要應用價值體現在多個面向：首先，政府部門可依此進行嚴謹的決算審查與監督；其次，投資人能藉此深入分析台電的年度財務績效與經營穩定性，作為投資決策的參考；此外，學術研究機構亦可利用這些公開的決算數據，對公用事業的會計與財務管理進行深入的比較與分析。資料集內容與台電正式公告的決算報告一致，確保了資料的可靠性。本資料集採每年更新機制，確保使用者能即時掌握最新的年度決算資訊，適合進行長期趨勢分析與績效評估。</t>
-  </si>
-  <si>
-    <t>本資料集為**台灣電力公司會計報表**，核心功能在於**提供台電每月會計月報的詳細內容**，是理解這家全國性公用事業機構財務狀況與營運績效的關鍵資訊來源。資料的時間粒度為**每月**，反映了台電在全公司層級的宏觀財務數據，具備高度的專業性與可靠性。其應用場景廣泛，主要包括**政府部門**可藉此進行嚴謹的會計監督，**投資人**能深入分析其財務結構與營運績效，以及**學術研究者**可用於分析公用事業的會計特性與趨勢。本資料集採行**每月定期更新**的機制，確保使用者能即時掌握最新的財務動態，非常適合進行持續性的財務監控與深入分析。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司過去電力供需資訊」資料集，核心功能在於提供台灣地區上一年度及今年度的電力供需詳細數據，以及各發電機組對整體供需平衡的影響分析。本資料集的時間範圍涵蓋過去一年至今，以每月為週期進行更新，適合需要即時掌握電力市場動態的專業人士。其主要應用場景廣泛，包括電力調度部門用於精確的供需管理與決策、政府部門評估國家電力資源的穩定性與規劃，以及研究機構進行深入的電力市場結構與趨勢分析。資料內容專業且具備高度時效性，每月定期更新的機制確保了數據的可靠性與準確性，是進行電力供需分析與預測不可或缺的關鍵參考資源。</t>
-  </si>
-  <si>
-    <t>本資料集提供經濟部主管之核能發電後端營運基金前一年度的財務決算與支出明細，主要用於追蹤基金的運作狀況及財務績效。涵蓋全國性基金管理範圍，資料以年度為單位，細分至決算會計科目，歷史資料持續更新，方便長期比較與分析。主要應用場景包括：監控核能後端營運基金的年度收支與財務狀況；分析政府在核能廢棄物處理及核電廠除役的資金投入；以及促進政府預算執行與公共支出的透明度。資料由官方會計師查核簽證，具高度準確性與完整性，涵蓋所有前一年度決算科目，並於決算完成後約3至6個月更新。建議搭配相關預算資料使用，以提升財務執行效率與監督效果。</t>
-  </si>
-  <si>
-    <t>「經濟部主管核能發電後端營運基金會計月報」由會計處提供，是一個關於提供核能發電後端營運基金之會計月報相關資料。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「會計、月報、後端營運基金、政府預算、政府支出」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>本資料集由台灣電力公司發布，旨在提供台灣電力系統的供電安全與韌性評估依據。內容詳實記錄了近三年以來每日的尖峰備轉容量率，是監測國家電力供應狀況的核心指標。資料以每日為粒度，涵蓋近三年度的歷史趨勢，地理範圍為台灣全島電力系統。其應用價值廣泛，例如：電力調度部門可藉此進行精準的供電管理；政府部門能據此評估電力供應安全；研究機構則可深入分析電力系統的穩定性與潛在風險。本資料集具備高度的專業性與時效性，每年會進行定期更新，確保數據的準確性與連續性。建議使用者可利用此數據進行長期的備轉容量率分析，以支持電力政策制定與供電安全評估工作。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司台電委託調查研究案」資料集，核心功能在於提供台電當月已決標的委託研究計畫報表資訊，是產學研界掌握台電外部研究投入與需求的關鍵管道。本資料集以**月度**為時間粒度，詳細記錄了每一筆決標研究案的資訊，雖未明確標示地理範圍，但內容聚焦於台電在**全國性**的能源與電力相關研究項目。其主要應用場景包括：供產學界了解台電研究需求、支援研究機構申請委託計畫，以及協助政府部門掌握國內能源研究動向。資料來源為正式決標紀錄，品質具備高度可靠性。然而，本資料集為**不定期更新**，使用者在進行研究合作媒合或能源研究規劃時，應留意其更新頻率，以確保資訊的時效性與準確度。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司新聞稿」資料集的核心用途是提供台電網站發布的即時新聞資訊，作為官方政策宣傳與重大事件說明的權威管道。此資料集涵蓋台電在全台灣範圍內發布的各類新聞，時間軸為持續更新的即時資訊，粒度為單篇新聞稿。它不涉及地理空間或時間序列數據，而是以文本內容為主，適合進行內容分析。主要應用場景包括：媒體可利用此資料進行即時新聞報導與資訊蒐集；一般民眾能藉此快速了解台電的最新動態與服務調整；學術研究人員則能分析台電的政策宣傳策略與公眾溝通模式。資料集內容為台電官方發布，具有高度權威性與可靠性。由於新聞稿的發布頻率不固定，資料集會不定期更新，因此特別適合需要進行新聞監控與政策宣傳分析的用戶。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司本年度每日尖峰備轉容量率」資料集，核心用途在於即時監控與管理供電穩定性，主要內容為記錄今年度至前一日的每日尖峰備轉容量率。這項數據是衡量電力系統可靠度的關鍵指標，反映了在尖峰負載時段，電力系統所能提供的備用發電能力。資料的時間粒度為每日，時間範圍涵蓋本年度至前一日，確保了資訊的即時性與連貫性。此資料集對於多方應用至關重要，例如協助電力調度部門進行即時供電管理、支援政府部門進行電力供應監控，以及提供民眾了解當日電力供應狀況的透明度。資料集具備高度的實用性與專業性，並建議作為進行即時電力供應監控與預警的依據。由於資料每日更新，使用者可依賴其最新資訊進行決策與分析，確保電力系統的穩定運作與公眾的用電安全。</t>
-  </si>
-  <si>
-    <t>本資料集為**台灣電力公司路平專區**的核心成果，旨在提供台電在推動「路平專案」時，各項措施的**執行情形統計**。內容詳實記錄了台電為配合道路平整化所進行的管線、設施改善與工程進度，是評估台電基礎設施維護效率的重要依據。資料的時間特性為**每月更新**，確保了資訊的即時性與連續性。其地理範圍涵蓋台電所有服務區域內的路平相關工程，粒度聚焦於各項路平推動措施的**執行層面**與**統計數據**。本資料集的主要應用價值極高，可**支援台電內部進行路平工程的管理與監督**，作為決策優化的基礎。同時，它能**協助地方政府進行道路維護的協調**，提升公部門間的協作效率。此外，學術研究人員也能利用這些數據**分析基礎設施維護的趨勢與效益**。資料集以專業標準進行彙整，確保了數據的可靠性與準確性。鑑於其**每月更新**的頻率，本資料集非常適合需要即時掌握路平工程進度與成效的專業人士使用。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司配電工程承攬商工安罰款」資料集，核心目的在於提供配電工程承攬商的工安罰款統計數據，作為強化職業安全衛生的重要依據。本資料集涵蓋台灣電力公司所有配電工程範圍，以承攬商為主要粒度，詳細記錄了各項工安違規與罰款資訊，有助於追蹤與分析工安風險熱點。這些數據能有效支援工安管理部門進行嚴格的安全監督，協助承攬商優化內部安全管理流程，同時也為學術界分析工安管理政策與成效提供寶貴的實證資料。資料專業可靠，並採每月定期更新，確保使用者能掌握最新的工安動態，是進行工安管理與監督的理想工具。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司計畫性工作停電資料」的核心用途是提供台電24個區處每日的計畫性工作停電資訊，旨在協助民眾提前掌握停電計畫與時間。本資料集涵蓋了全台各區處的排程停電細節，數據粒度精確至每日的停電時段與地點，雖然未直接提供地理座標，但區處資訊可作為地理區分的依據。其主要應用場景包括：協助一般用戶進行用電規劃、支援媒體進行即時的停電資訊報導，以及作為開發者建構停電通知服務的基礎數據。這份資料的專業性與準確性極高，並且具備每日更新的特性，確保了資訊的即時性與可靠性，非常適合用於停電資訊的公告與用戶通知，是電力資訊透明化的重要基礎。</t>
-  </si>
-  <si>
-    <t>台灣電力公司配電線路地下化規劃原則資料集，核心功能在於提供配電線路地下化工程的相關資訊與指導方針。這是一套全國性的原則文件，內容涵蓋了地下化工程的條件、流程與技術要求，粒度屬於政策與規範層級，旨在確保工程品質與一致性。本資料集的主要應用價值極高，可協助民眾了解地下化工程的申請與實施條件，同時支援工程部門進行精確的規劃與設計，並能供學術研究分析地下化工程的效益與挑戰。本資料集為規劃與溝通的重要依據，採不定期更新機制，以反映最新的技術發展與政策調整，確保資訊的時效性與準確性。</t>
-  </si>
-  <si>
-    <t>本資料集由台灣電力公司提供，核心功能在於詳盡介紹台電的供電系統，旨在協助各界理解電力如何從發電端傳輸至用戶端。內容涵蓋了供電系統的架構、主要設備與運作流程等關鍵資訊。由於本資料集屬於系統性介紹性質，其粒度為宏觀層面，地理範圍涵蓋台灣全島的電力網絡，不涉及時間序列數據。它不僅是協助民眾了解供電系統運作的優良教材，也支援教育機構進行能源教育，並能作為學術研究分析電力系統的基礎參考資料。本資料集內容專業且易於理解，適合廣泛的使用者群體。資料將不定期更新，以確保內容與最新的供電系統發展保持一致性，是進行能源教育與系統介紹的理想選擇。</t>
-  </si>
-  <si>
-    <t>本資料集由台灣電力公司提供，核心功能在於公開促進電力發展營運協助金的相關公佈事項，內容涵蓋前三年度的核定案件、捐助、會費及委託調查研究等詳細資訊。資料範圍為台灣全境，粒度細至個別核定項目，是透明化協助金運作的重要依據。主要應用場景包括：支援協助金的審議與管理、協助申請單位快速了解核定結果，以及支援學術界對協助金政策進行深入研究與分析。本資料集採不定期更新，建議使用者可利用其進行協助金管理與政策評估，以掌握最新動態與政策走向。</t>
-  </si>
-  <si>
-    <t>本資料集「台灣電力公司可靠供電考慮要項」旨在提供台電在確保電力系統穩定運作與可靠供電時所依循的關鍵要素與技術指導原則。內容具備高度的政策與技術指導性質，粒度屬於宏觀的標準層面，適用於全台電力系統的規劃與管理。其主要應用場景包括協助社會大眾理解電力供應的複雜性與可靠性標準，支援台電規劃部門進行長期的電力系統優化與擴建，以及提供學術界進行供電可靠性分析與模型建立的基礎資料。本資料集品質受到嚴格控管，並會不定期進行更新與修訂，以確保其內容符合最新的技術發展與法規要求，適合用於電力可靠性教育訓練與規劃決策。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司各單位申請台灣職安衛管理系統(TOSHMS)驗證登錄情形一覽表」由工業安全衛生處提供，是一個關於本資料集提供台電公司驗證登錄情形一覽。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「台電、職業安全衛生管理系統」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司各年度再生能源別裝置容量」由業務處提供，是一個關於提供按年度統計台電之再生能源發電，其各種能源別之裝置容量。的開放資料集，屬於「能源管理」領域中的「再生能源發展」類別，目前更新頻率為每1年。資料內容可透過「再生能源、裝置容量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司各煤源國燃煤採購數量暨比例」由燃料處提供，是一個關於台電公司將更新近三年燃煤採購之各煤源國數量及各煤源國所占比例。的開放資料集，屬於「能源管理」領域中的「能源資源」類別，目前更新頻率為每1年。資料內容可透過「煤源國、採購數量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司各縣市住宅、服務業及機關用電統計資料」由業務處提供，是一個關於本資料集按縣市別提供住宅、服務業及機關等部門每月用電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1月。資料內容可透過「每月用電度數、縣市」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司各縣市再生能源別購入情形」由業務處提供，是一個關於提供各縣市歷年已建置再生能源別之躉購容量及購入度數(自103年起)。的開放資料集，屬於「能源管理」領域中的「再生能源發展」類別，目前更新頻率為每1年。資料內容可透過「再生能源、躉購容量、購入度數」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司員工清廉度調查報告」由政風處提供，是一個關於提供台灣電力公司年度員工清廉度調查報告供各界參考。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「員工清廉度」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司太陽光電發電量及平均單位裝置容量每日發電量統計表」由再生能源處提供，是一個關於提供台電太陽光電發電量、平均單位裝置容量每日發電量統計。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1月。資料內容可透過「太陽光電」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司廉政會報會議紀錄」由政風處提供，是一個關於提供台灣電力公司近期廉政會報會議紀錄供各界參考。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「廉政會報」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司惜物網拍賣金額」由材料處提供，是一個關於提供台灣電力公司透過台北惜物網拍賣廢料金額。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「惜物網、拍賣」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司招標決標件數比較表」由材料處提供，是一個關於提供台電每年招標決標件數比較表。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「招標、決標」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司柴油採購價格及數量」由燃料處提供，是一個關於提供台電公司過去四年柴油年平均採購價格及數量。的開放資料集，屬於「能源管理」領域中的「能源資源」類別，目前更新頻率為每1月。資料內容可透過「柴油、價格」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司被核安會開立違規事項」由核能安全處提供，是一個關於本資料為提供台電公司被核安會開立違規事項資料。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「違規事項資料」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司火力發電溫室氣體排放量」由環境保護處提供，是一個關於提供台電公司所屬火力發電溫室氣體排放量分析表。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「溫室氣體、火力發電排放量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司現有員工人數」由人力資源處提供，是一個關於提供台灣電力公司當年度各月份派、僱用人員人數及比例。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「現有員工人數、員工人數」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司現有員工教育程度」由人力資源處提供，是一個關於提供台灣電力公司前月派、僱用人員教育程度人數分布。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「現有員工教育程度、教育程度」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司當年度促進電力發展營運協助金核定案件、捐助、會費、委託調查研究公佈事項」由促進電力發展營運協助金審議委員會提供，是一個關於提供當年度促進電力發展營運協助金核定之案件、捐助、會費及委託調查研究公佈事項。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「協助金」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司燃料油採購價格及數量」由燃料處提供，是一個關於提供台電公司過去四年燃料油年平均採購價格及數量。的開放資料集，屬於「能源管理」領域中的「能源資源」類別，目前更新頻率為每1月。資料內容可透過「燃料油、價格」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司第七輸變電計畫歷年加入系統新增CKM數」由輸變電工程處提供，是一個關於提供台電第七輸變電計畫分年加入系統之變電工程千仟伏安統計數。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「台電、輸變電計畫、CKM」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司第七輸變電計畫歷年加入系統新增變電所數量」由輸變電工程處提供，是一個關於提供台電第七輸變電計畫分年新改建變電所加入系統所數。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「台電、輸變電計畫、變電所」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司訓練所接受代訓統計資料」由訓練所提供，是一個關於提供台電訓練所接受外界委託訓練情形之年度統計資料。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「訓練所、代訓、外界委託訓練」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司訓練所核能、水火力電廠員工及承包商技術檢定統計資料」由訓練所提供，是一個關於提供台電訓練所林口核能訓練中心核能、水火力電廠員工及承包商之技術檢定統計資料。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「訓練所、承包商技術檢定」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司近3年決算書」由會計處提供，是一個關於提供台電公司近3年之決算書，俾利大眾瞭解台電公司經營現況。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「政府支出」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司電路出租業務公開招租須知」由電力通信處提供，是一個關於提供台灣電力股份有限公司以公開招租方式辦理臺灣本島各行政區域之光纖出租業務案。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「光纖電路出租」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司風機發電量及發電時數統計表」由再生能源處提供，是一個關於提供台電各風機發電量、發電時數統計。的開放資料集，屬於「能源管理」領域中的「再生能源發展」類別，目前更新頻率為每1月。資料內容可透過「風力、風機」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司溫室氣體排放係數」由環境保護處提供，是一個關於提供國家電力排放係數及台電公司排放係數比較表。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「溫室氣體、電力排碳係數」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司電源開發方案」由電源開發處提供，是一個關於提供歷年電源開發計畫概述，電源開發規劃尖峰負載、淨尖峰能力、備用容量率之統計。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「長期、電源、開發、方案、備用、淨尖峰、出力、裝置容量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司電價及單位成本結構比較」由會計處提供，是一個關於提供電價及單位成本資訊。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「電價、單位成本」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司公用售電業之電力營業用戶(依行業別)售電量」由企劃處提供，是一個關於本資料集為提供過去5年公用售電業之電力營業用戶依行業別統計之每月售電量資料。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「政府統計」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司汽電共生購電實績」由業務處提供，是一個關於提供台電公司95年至今每月份之汽電共生購電度數與金額。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1月。資料內容可透過「汽電共生、購電」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司太陽光電購電實績」由業務處提供，是一個關於提供台灣電力公司每月太陽光電購電度數(自95年起)。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「太陽光電、購電」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司風力購電實績」由業務處提供，是一個關於提供台灣電力公司每月風力購電度數(自95年起)。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「風力、購電」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司水力購電實績」由業務處提供，是一個關於提供台灣電力公司每月水力購電度數(自95年起)。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「水力、購電」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司電桿坐標及桿號」由配電處提供，是一個關於提供台電各區處電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「能源管理/空間資訊」領域中的「電力供需/設施座落」類別，目前更新頻率為每1月。資料內容可透過「電桿、桿號」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司未來一週電力供需預測」由電力調度處提供，是一個關於本資料集提供明日起未來一週之電力供需預測，可供大眾了解未來一週備轉率變化的情形。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1日。資料內容可透過「淨尖峰供電能力、瞬時尖峰負載」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司105~109年度表燈用電不及底度用戶數」由業務處提供，是一個關於統計各鄉鎮市(以郵遞區別)表燈用戶每月用電量不及底度之用戶數。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為不定期更新。資料內容可透過「用電、不及底度」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司近十年火力機組大修紀錄」由發電處提供，是一個關於本資料為提供台灣電力公司近十年火力機組大修紀錄相關資料。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「大修、火力機組」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司近十年水力機組大修紀錄」由發電處提供，是一個關於本資料為提供台灣電力公司近十年水力機組大修紀錄相關資料。的開放資料集，屬於「能源管理」領域中的「再生能源發展」類別，目前更新頻率為每1年。資料內容可透過「大修、水力機組」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司核一、二、三及龍門廠機組歷次大修紀錄相關資料」由核能發電處提供，是一個關於提供本公司核能機組歷次大修相關資料。的開放資料集，屬於「能源管理」領域中的「能源資源」類別，目前更新頻率為每1年。資料內容可透過「大修、歲修、核能機組」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司近十年各類型火力機組可用率」由發電處提供，是一個關於本資料集提供現有火力機組近十年可用率資料，提供大眾了解發電機組運轉狀況，並評估機組的效益。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「機組、可用率」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司發購電量(能源別)及公用售電業售電量(用途別)」由企劃處提供，是一個關於本資料為提供台灣電力公司歷年發購電量及公用售電業售電量資料。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「購電、售電」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司未來兩年機組大修停機排程」由電力調度處提供，是一個關於本資料集提供今、明兩年台電公司水力、火力、核能等機組大修停機排程。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每6月。資料內容可透過「機組、大修」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司各區域間過去電力潮流量」由電力調度處提供，是一個關於本資料集提供台電公司各區域(北、中、南、東)間之過去每10分鐘電力潮流量(瞬間值)。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1月。資料內容可透過「燃料、機組名稱、電力潮流量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司各機組過去發電量」由電力調度處提供，是一個關於本資料集提供台電公司各機組(已取得電業執照者為原則)之過去每10分鐘淨發電量(瞬間值)。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1月。資料內容可透過「機組、燃料、淨發電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司核能電廠事件通報」由核能發電處提供，是一個關於提供台電公司各核能電廠運轉事故有關之通報內容，供大眾了解電廠情形，避免不當疑慮。的開放資料集，屬於「能源管理」領域中的「能源資源」類別，目前更新頻率為不定期更新。資料內容可透過「核電、事故、通報」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司各縣市年度住宅、服務業、機關及工業用電比例」由業務處提供，是一個關於本資料集係提供台灣地區每年度住宅、服務業、機關、工業及其他等用電比例。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「用電、縣市」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司核設施輻射監測即時資料」由放射試驗室提供，是一個關於本資料為提供台電核一、二、三、龍門廠及蘭嶼貯存場環境輻射監測即時資料，可供大眾了解各核設施環境的情形。的開放資料集，屬於「能源管理」領域中的「能源資源」類別，目前更新頻率為每5分。資料內容可透過「輻射」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司煙道資料即時量測值」由發電處提供，是一個關於各火力廠排放煙道氣之不透光率、二氧化硫、氮氧化物、氧氣、排放流率、溫度。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每7日。資料內容可透過「CEMS、煙道、排煙」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司台北市再生能源可併網容量」由配電處提供，是一個關於提供台北市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司新北市再生能源可併網容量」由配電處提供，是一個關於提供新北市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司桃園市再生能源可併網容量」由配電處提供，是一個關於提供桃園市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司台中市再生能源可併網容量」由配電處提供，是一個關於提供台中市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司台南市再生能源可併網容量」由配電處提供，是一個關於提供台南市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司高雄市再生能源可併網容量」由配電處提供，是一個關於提供高雄市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司嘉義縣市再生能源可併網容量」由配電處提供，是一個關於提供嘉義縣市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司苗栗縣再生能源可併網容量」由配電處提供，是一個關於提供苗栗縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司彰化縣再生能源可併網容量」由配電處提供，是一個關於提供彰化縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司雲林縣再生能源可併網容量」由配電處提供，是一個關於提供雲林縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司屏東縣再生能源可併網容量」由配電處提供，是一個關於提供屏東縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司電力維生管線災情資訊」由電力調度處提供，是一個關於本資料集提供災害期間電力停電災情資訊。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為不定期更新。資料內容可透過「災害名稱、停電戶數」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司落雷即時資料」由綜合研究所提供，是一個關於提供雲中閃電與雲對地閃電之即時監測資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1分。資料內容可透過「落雷即時監測資訊」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司公文線上簽核應用」由秘書處提供，是一個關於提供台灣電力公司公文線上簽核及自然人憑證申辦比例。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「線上簽核應用」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司新竹縣市再生能源可併網容量」由配電處提供，是一個關於提供新竹縣市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司基隆市非營業用戶售電量」由業務處提供，是一個關於提供基隆市的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「基隆市、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司台北市非營業用戶售電量」由業務處提供，是一個關於提供台北市的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「台北市、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司新北市非營業用戶售電量」由業務處提供，是一個關於提供新北市的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「新北市、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司桃園市非營業用戶售電量」由業務處提供，是一個關於提供桃園市的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「桃園市、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司新竹市非營業用戶售電量」由業務處提供，是一個關於提供新竹市的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「新竹市、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司新竹縣非營業用戶售電量」由業務處提供，是一個關於提供新竹縣的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「新竹縣、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司苗栗縣非營業用戶售電量」由業務處提供，是一個關於提供苗栗縣的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「苗栗縣、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司台中市非營業用戶售電量」由業務處提供，是一個關於提供台中市的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「台中市、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司彰化縣非營業用戶售電量」由業務處提供，是一個關於提供彰化縣的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「彰化縣、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司雲林縣非營業用戶售電量」由業務處提供，是一個關於提供雲林縣的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「雲林縣、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司嘉義縣非營業用戶售電量」由業務處提供，是一個關於提供嘉義縣的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「嘉義縣、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司嘉義市非營業用戶售電量」由業務處提供，是一個關於提供嘉義市的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「嘉義市、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司台南市非營業用戶售電量」由業務處提供，是一個關於提供台南市的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「台南市、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司高雄市非營業用戶售電量」由業務處提供，是一個關於提供高雄市的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「高雄市、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司屏東縣非營業用戶售電量」由業務處提供，是一個關於提供屏東縣的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「屏東縣、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司南投縣非營業用戶售電量」由業務處提供，是一個關於提供南投縣的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「南投縣、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司宜蘭縣非營業用戶售電量」由業務處提供，是一個關於提供宜蘭縣的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「宜蘭縣、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司花蓮縣非營業用戶售電量」由業務處提供，是一個關於提供花蓮縣的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「花蓮縣、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司台東縣非營業用戶售電量」由業務處提供，是一個關於提供台東縣的非營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「台東縣、售電量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司需量競價執行成效」由業務處提供，是一個關於本資料集提供需量競價每月申請量及單日最大抑低量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「需量競價」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司近5年系統概況」由電力調度處提供，是一個關於提供台電系統近五年尖峰負載狀況。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「尖峰負載、電力系統」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司未來二個月電力供需預測」由電力調度處提供，是一個關於提供台電公司未來兩個月電力供需預測。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每10日。資料內容可透過「電力供需、供需預測」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司基隆市再生能源可併網容量」由配電處提供，是一個關於提供基隆市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司南投縣再生能源可併網容量」由配電處提供，是一個關於提供南投縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司宜蘭縣再生能源可併網容量」由配電處提供，是一個關於提供宜蘭縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司花蓮縣再生能源可併網容量」由配電處提供，是一個關於提供花蓮縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司台東縣再生能源可併網容量」由配電處提供，是一個關於提供台東縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司年度備轉容量彙整」由電力調度處提供，是一個關於本資料集提供年度每月系統運轉淨尖峰能力、系統瞬時尖峰負載、備轉容量、備轉容量率等的最大值和最小值。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「尖峰、備轉容量」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司年度線路損失量(率)」由電力調度處提供，是一個關於本資料集提供輸電系統及配電系統年度及上一年度線路損失量、線路損失率的實績值以及年度差異比較。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「線路損失」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司年度電燈營業用戶(依行業別)售電量」由業務處提供，是一個關於本資料集提供過去一年依主計總處發布之第10版行業別標準分類統計之電燈營業用戶售電量。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「電燈營業、行業別」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司臺北市電桿坐標及桿號」由配電處提供，是一個關於提供臺北市電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「臺北市電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司新北市電桿坐標及桿號」由配電處提供，是一個關於提供新北市電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「新北市電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司桃園市電桿坐標及桿號」由配電處提供，是一個關於提供桃園市電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「桃園市電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司臺中市電桿坐標及桿號」由配電處提供，是一個關於提供臺中市電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「臺中市電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司臺南市電桿坐標及桿號」由配電處提供，是一個關於提供臺南市電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「臺南市電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司高雄市電桿坐標及桿號」由配電處提供，是一個關於提供高雄市電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「高雄市電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司配電系統重大事故停電速報案件記錄」由配電處提供，是一個關於提供「電業事故通報程序標準」通報之歷史速報停電紀錄。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「核能發電後端營運基金放射性廢棄物貯存及核電廠除役完成前回饋要點」由核能後端營運處提供，是一個關於本資料集係核能發電後端營運基金管理會為推動核能發電放射性廢棄物貯存作業與完成核電廠除役作業，增進放射性廢棄物貯存設施及核電廠地方周遭居民福祉，訂定本要點。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「核能發電後端營運基金、除役」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司核電廠除役期間地方回饋金估列及支出情形」由核能後端營運處提供，是一個關於本資料集係核能發電後端營運基金估列及支出情形，供社會大眾參閱，有助於提升基金運用之信賴感。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「除役、核電廠」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司基隆市電桿坐標及桿號」由配電處提供，是一個關於提供基隆市電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「基隆市電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司新竹市電桿坐標及桿號」由配電處提供，是一個關於提供新竹市電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「新竹市電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司新竹縣電桿坐標及桿號」由配電處提供，是一個關於提供新竹縣電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「新竹縣電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司苗栗縣電桿坐標及桿號」由配電處提供，是一個關於提供苗栗縣電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「苗栗縣電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司南投縣電桿坐標及桿號」由配電處提供，是一個關於提供南投縣電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「南投縣電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司彰化縣電桿坐標及桿號」由配電處提供，是一個關於提供彰化縣電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「彰化縣電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司雲林縣電桿坐標及桿號」由配電處提供，是一個關於提供雲林縣電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「雲林縣電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司嘉義市電桿坐標及桿號」由配電處提供，是一個關於提供嘉義市電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「嘉義市電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司嘉義縣電桿坐標及桿號」由配電處提供，是一個關於提供嘉義縣電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「嘉義縣電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司屏東縣電桿坐標及桿號」由配電處提供，是一個關於提供屏東縣電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「屏東縣電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司宜蘭縣電桿坐標及桿號」由配電處提供，是一個關於提供宜蘭縣電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「宜蘭縣電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司花蓮縣電桿坐標及桿號」由配電處提供，是一個關於提供花蓮縣電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「花蓮縣電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司臺東縣電桿坐標及桿號」由配電處提供，是一個關於提供臺東縣電桿坐標、桿號及所屬行政區資訊。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「臺東縣電桿」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司被核安會開立注意改進事項」由核能安全處提供，是一個關於本資料為提供台電公司被核安會開立注改事項資料，可供大眾了解本公司改善情形。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「注改事項資料」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司各縣市路燈用電量統計」由業務處提供，是一個關於提供上一年度各縣市路燈用電量統計。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1年。資料內容可透過「用電、路燈」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司年度電力品質報告」由電力調度處提供，是一個關於本資料集係年度電力品質報告，內容提供年度電網系統頻率、電壓實績以及停電事故的發生件數。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「電力品質」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司全國各縣市再生能源可併網容量」由配電處提供，是一個關於提供全國各縣市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。的開放資料集，屬於「能源管理」領域中的「再生能源發展」類別，目前更新頻率為每6月。資料內容可透過「再生能源、可併網、饋線」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司歷年員工人數」由人力資源處提供，是一個關於提供台灣電力公司歷年(1992年至今)員工性別人數分布。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「歷年員工人數、員工人數」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司歷年平均年齡」由人力資源處提供，是一個關於提供台灣電力公司歷年(1992年至今)員工平均年齡。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「歷年員工平均年齡、平均年齡、年齡」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司年齡年資分布」由人力資源處提供，是一個關於提供台灣電力公司前月派、僱用人員年齡及年資人數分布。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1月。資料內容可透過「年齡年資分布、年齡、年資」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司業務量及員工人數」由人力資源處提供，是一個關於提供台灣電力公司歷年(1992年至今)業務量及員工人數成長率(以1992年為基期計算)。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「歷年業務量及員工人數成長率、業務量、員工人數」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司今日系統供需狀況」由電力調度處提供，是一個關於提供今日每10分鐘目前用電量、今日最大供電能力及使用率資訊。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每10分。資料內容可透過「今日用電、系統供需狀況」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司今日區域別用電情況」由電力調度處提供，是一個關於提供今日區域別用電情況。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每10分。資料內容可透過「今日用電、區域別」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司小商店用戶每月平均用電度數及電費」由業務處提供，是一個關於本資料為提供小商店用戶每月用電資料，可供大眾了解小商店用戶每月的平均用電度數及電費情形。的開放資料集，屬於「能源管理」領域中的「電力供需」類別，目前更新頻率為每1月。資料內容可透過「用電、小商店」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司出租作電動機車電池交換站使用之租賃據點」由財務處提供，是一個關於此資料集內容包含台電公司之土地出租供電動機車電池交換站使用據點之位置及數量。的開放資料集，屬於「能源管理/交通運輸」領域中的「電力供需/低碳交通」類別，目前更新頻率為每1年。資料內容可透過「台電、出租、電動機車、電池交換站」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司蒐整國際電業公司每戶停電時間及每戶停電次數」由企劃處提供，是一個關於提供可與台電系統規模進行重要績效比較且資料齊全之國際電業公司每戶停電時間(分/戶•年)及每戶停電次數(次/戶•年)。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為每1年。資料內容可透過「每戶停電時間、每戶停電次數」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司出租臨時平面停車場土地設置充電樁分布」由新事業開發室提供，是一個關於提供台電公司出租臨時平面停車場，由承租人設置充電樁之位置及數量。的開放資料集，屬於「能源管理/交通運輸」領域中的「電力供需/低碳交通」類別，目前更新頻率為不定期更新。資料內容可透過「充電樁」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司發電機組發電排程與系統備轉容量之調度規劃」由電力調度處提供，是一個關於本資料集提供機組發電排程與系統備轉容量之規劃。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「發電排程」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司電力系統緊急調度原則」由電力調度處提供，是一個關於本資料集提供電力系統常遇緊急之情事與調度原則。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「緊急調度」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司「電源不足時期限制用電辦法」執行及通報機制」由電力調度處提供，是一個關於本資料集提供電力系統於實際或預估供電餘裕未達各階段標準時，執行各項因應措施之依據。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「電源不足」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司輸變電計畫資訊」由系統規劃處提供，是一個關於本資料集提供台電公司輸變電計畫供大眾了解。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「輸變電計畫」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司郝明義提問配電變壓器採V-V接線疑義」由配電處提供，是一個關於本資料集提供台電配電變壓器採V-V接線說明。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「配電變壓器採V-V接線疑義」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司配電線路事故分析」由配電處提供，是一個關於本資料集提供台電配電線路事故分析資料，可供大眾了解停電事故情形。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「配電線路事故分析」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司即時說明」由公眾服務處提供，是一個關於提供台灣電力公司網站發佈的即時新聞澄清說明，讓各界充分瞭解台電現況，以利有效資訊揭露及溝通。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「即時說明、台電」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
-  </si>
-  <si>
-    <t>「台灣電力公司澄清專區」由公眾服務處提供，是一個關於提供台灣電力公司網站發佈的防詐闢謠資訊，以利民眾識別錯假訊息，保護財產安全。的開放資料集，屬於「nan」領域中的「nan」類別，目前更新頻率為不定期更新。資料內容可透過「澄清專區、詐騙、謠言、台電」等關鍵字進行查詢，方便使用者依需求篩選與整合。透過本資料集，使用者可進行趨勢變化觀察、成效追蹤與決策評估，亦可搭配其他政府或企業資料，應用於政策規劃、營運管理、學術研究及資料服務開發等情境，提升資料驅動決策與創新服務的可能性。</t>
+    <t>【1. 核心描述】
+「台灣電力公司服務據點相關資訊」由業務處彙整並對外開放，主要紀錄：說明台電所有服務據點的地理位置、聯絡方式及服務時間，方便民眾查詢與導航。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史資料，反映當前服務據點狀態；地理範圍：台灣全島各縣市。
+【2. 應用場景】
+整合至地圖服務，提供使用者導航至最近的台電服務中心、協助政府或研究機構分析台電服務資源的地理分佈與覆蓋率、開發行動應用程式，讓民眾快速查詢服務據點的電話與營業時間
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「103年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台電、服務據點、服務電話）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一服務據點」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常1-2 週。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整覆蓋台灣電力公司所有對外服務據點。 在準確性與一致性方面，官方業務處提供，定期驗證。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 建議搭配地理資訊系統(GIS)進行空間分析，以優化服務資源配置。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司服務據點相關資訊」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/6570）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司歷年尖峰負載及備用容量率」由企劃處彙整並對外開放，主要紀錄：本資料集用於分析台灣電力系統的供需平衡狀況，評估電力供應的穩定性與可靠度。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：自民國71年（1982年）起至今，歷史資料；地理範圍：台灣全島。
+【2. 應用場景】
+評估國家電力政策的實施成效與電力供需狀況、預測未來電力需求與備用容量的長期趨勢、研究氣候變遷或經濟活動對用電尖峰的影響
+【3. 背景資訊】
+企劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「103年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：用電尖峰負載、備用容量率、政府統計）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年/全台」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度資料，通常於隔年第一季發布，延遲約 1-3 個月。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整覆蓋自民國71年起的歷史數據，備用容量率計算方式在111年有調整。 在準確性與一致性方面，官方統計，高度準確，定期發布。 原始資料備註中另有說明：「備用容量率111年起以夜間備用容量率呈現。」，使用前建議先行閱讀。 建議搭配經濟成長率或氣溫等資料進行長期趨勢分析，並注意111年後的定義變化。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司歷年尖峰負載及備用容量率」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/8307）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司各機組發電量即時資訊(含外購電力)」由電力調度處彙整並對外開放，主要紀錄：即時追蹤台灣電力公司自有及外購電力之各類型機組發電量，用於監控電力供需平衡與能源結構變化。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：即時資料，持續更新；地理範圍：台灣全島電力系統。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+監控電力系統即時供電能力與負載，確保電力調度安全。、分析水、火、核、再生能源等不同發電類型在電力結構中的即時佔比。、提供給能源研究機構或政策制定者，作為即時電力供需分析的數據基礎。
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：機組、發電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「發電機組別；每 10 分鐘」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每10分，實際發布時間通常極短，約 10 分鐘內發布。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋台灣電力公司所有自有及外購發電機組的即時發電數據。。 在準確性與一致性方面，高度準確，由台灣電力公司電力調度處即時監測與發布。 適合用於即時電力監測與能源結構分析，應搭配其他電力供需數據進行全面評估。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司各機組發電量即時資訊(含外購電力)」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/8931）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司水火力發電廠位置及機組設備」由發電處彙整並對外開放，主要紀錄：提供台灣電力公司水力與火力發電廠的地理位置、機組設備規格及運轉資訊，用於能源設施管理與規劃。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：涵蓋各機組商轉日期至今的歷史資產資訊，不定期更新；地理範圍：台灣全島各縣市設有水力與火力發電廠的地區。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+能源基礎設施地理資訊系統 (GIS) 繪製與分析、評估台灣電力結構中水力與火力發電的比例與分佈、依據機組商轉日期，規劃設備汰舊換新或維護排程
+【3. 背景資訊】
+發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「103年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：機組、裝置容量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別發電廠及其內部機組設備」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常發生機組或電廠資訊異動時，即時或於短時間內更新。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋台灣電力公司所有水力與火力發電廠及其機組設備資訊。 在準確性與一致性方面，官方資料，由台灣電力公司發電處直接提供與維護，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 可與發電量、電力負載等資料結合，進行更全面的能源供需與設施分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司水火力發電廠位置及機組設備」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/8934）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司蘭嶼居民生活環境與飲食習慣調查」由核能後端營運處彙整並對外開放，主要紀錄：提供台電公司調查蘭嶼居民生活環境與飲食習慣之資料。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+核能後端營運處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依國發會建議將研究結果開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：蘭嶼、居民）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每5年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「依「輻射工作場所管理與場所外環境輻射監測作業準則」規定，更新蘭嶼貯存場環測結果之民眾劑量評估所需之相關參數，調查蘭嶼地區居民分布、居民使用量因子及農、漁、牧產量與消耗量，以做為規劃之依據。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司蘭嶼居民生活環境與飲食習慣調查」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/9710）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司年度委託研究主題及研究重點」由綜合研究所彙整並對外開放，主要紀錄：提供台電公司年度委託研究主題、重點及聯絡資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+綜合研究所為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「103年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台電、研究主題）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「依據經濟部所屬各事業科學與技術類委託研究計畫作業規定，公告本公司年度委託研究之主題及重點，供產學界參與委託研究。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司年度委託研究主題及研究重點」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/9711）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司提供近三年日澳長約年度價格」由燃料處彙整並對外開放，主要紀錄：揭露台電採購燃煤的價格參考依據，反映國際燃煤長約市場的年度議定價格趨勢。主題範圍涵蓋「能源管理」領域中的「能源資源」等面向；時間範圍：近三年年度資料，每年更新；地理範圍：國際燃煤市場 (日本與澳洲議價結果)，影響台灣電力公司。
+【2. 應用場景】
+分析台灣電力公司燃煤採購成本的年度變化、預測未來年度的發電燃料成本與電價趨勢、研究國際燃煤長約市場的價格談判機制
+【3. 背景資訊】
+燃料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「依行政院指示開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：燃煤長約）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年 (年度議定價格)」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度議價完成後發布，約每年一次。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋近三年年度議定價格。 在準確性與一致性方面，台灣電力公司燃料處提供，為官方議價結果，高度準確。 應搭配其他燃料採購或發電成本資料集，進行綜合性的能源價格分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司提供近三年日澳長約年度價格」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/9748）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司近三年澳煤現貨離岸價格(NEX)季平均」由燃料處彙整並對外開放，主要紀錄：追蹤台灣電力公司近三年澳洲燃煤現貨的季度離岸價格趨勢，用於能源採購成本分析與決策參考。主題範圍涵蓋「能源管理」領域中的「能源資源」等面向；時間範圍：近三年，每季更新；地理範圍：國際市場（澳洲燃煤離岸價格）。
+【2. 應用場景】
+分析台電燃煤採購成本的季度波動與長期趨勢、評估國際燃煤市場價格變動對台電營運成本的影響、作為能源價格模型或電力成本結構分析的基礎數據
+【3. 背景資訊】
+燃料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「依行政院指示開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：燃煤現貨、價格）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「季度平均價格」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每3月，實際發布時間通常約 1-2 個月（季度結束後）。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋近三年澳洲燃煤現貨離岸價格的季度平均數據。 在準確性與一致性方面，高度準確、官方統計、定期驗證。 建議搭配台電的燃煤採購量與發電量數據，進行更全面的成本效益分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司近三年澳煤現貨離岸價格(NEX)季平均」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/9749）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司天然氣採購價格及數量」由燃料處彙整並對外開放，主要紀錄：追蹤台灣電力公司過去十年天然氣的年平均採購價格與數量，供能源政策分析及成本控制參考。主題範圍涵蓋「能源管理」領域中的「能源資源」等面向；時間範圍：涵蓋過去十年歷史資料，並每月更新最新數據；地理範圍：台灣電力公司層級的總體採購數據，間接反映台灣整體能源成本。
+【2. 應用場景】
+分析台電天然氣採購成本趨勢，評估發電燃料費用變化、研究天然氣價格波動對台灣電力供應穩定性的影響、協助台電優化天然氣採購策略，降低燃料採購風險
+【3. 背景資訊】
+燃料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「依行政院指示開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：天然氣、價格）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常每月更新，通常為上個月底或次月上旬發布。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋過去十年，為台電公司層級的完整採購數據。 在準確性與一致性方面，官方統計、定期驗證。 應搭配國際天然氣價格資料，進行成本效益分析與長期趨勢預測。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司天然氣採購價格及數量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/9750）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司重要電業經營績效」由企劃處彙整並對外開放，主要紀錄：監測和評估台灣電力公司在近十年內的關鍵營運績效，特別是供電穩定性與服務品質。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：近 10 年 (每年更新)；地理範圍：台灣全島。
+【2. 應用場景】
+評估台電的供電可靠度與服務品質，作為用戶滿意度調查的參考、分析重大停電事故對用戶平均停電時間與次數的影響、供政府機關或研究機構制定電力產業的經營策略與政策參考
+【3. 背景資訊】
+企劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：電業、經營績效）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年/全台」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年底結算後發布，推測為 1-3 個月。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整覆蓋台電公司近10年的主要經營績效指標，包含詳細的停電事故數據。 在準確性與一致性方面，官方統計、由企劃處定期發布與驗證。 原始資料備註中另有說明：「1.其中包含513及517停電事故影響每戶平均停電時間實績值分別為39.558及3.958分鐘，合計43.516(分/戶.年)；513及517停電事故影響每戶平均停電次數實績值分別為0.799及0.065次，合計0.864(次/戶.年)。
+2.其中包含303停電事故影響每戶平均停電時間實績值為91.285(分/戶.年)；每戶平均停電次數實績值為0.467(次/戶.年)。」，使用前建議先行閱讀。 結合年度報告和政策文件，進行長期趨勢分析和績效比較。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司重要電業經營績效」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/10855）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司各種發電方式之發電成本」由會計處彙整並對外開放，主要紀錄：提供台電公司各種發電方式的成本數據，用於分析電力生產的經濟效益與成本結構。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：歷史資料，年度更新；地理範圍：台灣全島。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+評估不同發電技術的經濟效益與競爭力、制定或調整國家能源政策及電價結構、研究電力市場的成本變動趨勢與影響因素
+【3. 背景資訊】
+會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：發電成本、電價）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年/發電方式」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年結算後，約 3-6 個月。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋台灣電力公司所有發電方式的成本數據。 在準確性與一致性方面，官方會計處發布，經嚴格審計的高度準確資料。 應搭配發電量、燃料價格等資料，進行全面性的能源經濟分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司各種發電方式之發電成本」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/10856）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司財務資訊」由會計處彙整並對外開放，主要紀錄：提供台灣電力公司每月詳細的財務報表，包括資產負債、損益及政府影響金額明細，以供公眾監督與分析。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史月度資料，持續更新；地理範圍：台灣全島。
+【2. 應用場景】
+分析台電公司的營運績效與財務結構變化趨勢、研究政府對電力事業的財政補貼與支出影響、作為能源產業經濟模型建構與電力市場分析的基礎
+【3. 背景資訊】
+會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台電財務、損益表、資產負債表、政府影響金額明細表、政府支出）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月度/公司層級」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常次月 1-2 週內發布。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋台電公司每月所有財務報表項目。 在準確性與一致性方面，官方會計處發布，經內部稽核與外部審計驗證。 建議搭配發電量與售電量資料，進行更全面的營運與財務交叉分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司財務資訊」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/10857）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司核能發電廠位置及機組設備」由核能發電處彙整並對外開放，主要紀錄：提供台灣電力公司轄下核能發電廠的地理位置資訊，以及各機組的設備規格與狀態。主題範圍涵蓋「能源管理」領域中的「能源資源」等面向；時間範圍：涵蓋核能發電廠自興建以來的歷史設備資訊，並持續更新；地理範圍：台灣境內所有核能發電廠的特定廠址。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+進行核能設施的地理空間分析與環境影響評估、能源政策制定者評估核能機組的容量與運營狀態、公眾查詢核電廠的基礎資訊與機組規格，進行科普教育
+【3. 背景資訊】
+核能發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：核能電廠、機組資訊）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別核能發電廠/發電機組」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常異動發生後即時更新，屬於低頻率資料。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋台灣電力公司所有核能發電廠及其所有機組設備資訊。 在準確性與一致性方面，由台灣電力公司核能發電處提供，為官方且高度準確的設備與位置資料。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 建議搭配發電量統計資料，以全面了解核能設施的地理分佈與實際運營狀況。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司核能發電廠位置及機組設備」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/10858）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司近10年核能發電績效及減碳效益」由核能發電處彙整並對外開放，主要紀錄：提供台灣核能發電近十年的年度發電量、容量因數及減碳效益，作為能源政策與環境影響評估的基礎。主題範圍涵蓋「能源管理」領域中的「能源資源」等面向；時間範圍：近 10 年；地理範圍：台灣全島。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+評估核能發電的長期營運效率與穩定性、分析核能發電在國家能源結構轉型中的減碳貢獻、供能源政策制定者參考核電廠營運績效
+【3. 背景資訊】
+核能發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：發電量、核能、容量因數、減碳）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度更新，延遲約 1-3 個月。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋近十年台灣核能發電的年度數據。 在準確性與一致性方面，台灣電力公司核能發電處官方統計數據，高度準確。 適用於能源研究、環境政策分析及長期趨勢觀察，建議搭配其他發電數據進行比較分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司近10年核能發電績效及減碳效益」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/10859）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司預算主要表」由會計處彙整並對外開放，主要紀錄：揭露台灣電力公司未來一年度的財務規劃、營運目標及資源分配，作為政府與公眾監督的依據。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：年度預算資料，涵蓋單一會計年度；地理範圍：台灣全島。
+【2. 應用場景】
+分析台電公司的年度財務結構、預期盈虧與現金流動狀況、供立法機關與公眾監督台電預算編列與資源使用合理性、作為研究台灣能源政策、公營事業財政與政府支出結構的基礎資料
+【3. 背景資訊】
+會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：損益預計表、盈虧撥補預計表、現金流量預計表、政府支出、政府預算）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年度、公司整體財務報表項目」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年於會計年度開始前發布，延遲約數月。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋公司年度預算中的主要財務預計報表項目。 在準確性與一致性方面，官方預算文件，經會計處編製與董事會審議，具高度官方準確性。 應搭配「決算主要表」進行預算與實際執行差異分析，以評估財務預測準確度。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司預算主要表」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/12336）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「經濟部主管核能發電後端營運基金預算案主要表」由會計處彙整並對外開放，主要紀錄：追蹤與分析核能發電後端營運基金的年度預算編列、資金來源、支出用途及財務預測狀況。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：年度預算資料，反映單一會計年度的財務規劃；地理範圍：台灣全國性基金預算，涵蓋所有核能發電後端營運相關事務。
+【2. 應用場景】
+進行政府預算審議，評估基金的財務健全性與資源分配、分析核能後端營運成本結構，作為能源政策參考、追蹤基金的現金流量與餘絀，進行財務風險評估
+【3. 背景資訊】
+會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：預算、核能發電後端營運基金、政府預算）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年度/基金項目層級的總體財務數據」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年一次，配合政府會計年度預算編列與發布時程。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋預算案中基金來源、用途、餘絀及現金流量等主要報表。 在準確性與一致性方面，官方預算文件，經立法院審議通過後具高度準確性。 應搭配決算報告進行比對，以全面了解基金預算執行與實際收支情況。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「經濟部主管核能發電後端營運基金預算案主要表」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/12755）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司鄉鎮市(郵遞區)別用電統計資料」由業務處彙整並對外開放，主要紀錄：提供台灣各鄉鎮市（郵遞區）的售電量統計數據，以供區域能源分析與政策制定參考。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：月度更新，涵蓋歷史資料；地理範圍：台灣全島各鄉鎮市（郵遞區別）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+評估不同區域的用電需求與成長趨勢，作為電網規劃依據、分析城鄉發展與產業結構對區域能源消耗的影響、協助地方政府制定節能減碳政策，進行績效追蹤與比較
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放用戶用電資料，以去識別化之行政區別用電統計資料上架」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：用電、行政區）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月度統計；最小地理單位為鄉鎮市（郵遞區別）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常次月上旬或中旬。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋台灣全島所有實施郵遞區號的行政區，部分數據因個資保護而去識別化（*號）。 在準確性與一致性方面，官方統計資料，由台灣電力公司業務處定期發布。 原始資料備註中另有說明：「*號表５戶以下；**號表合計戶數。」，使用前建議先行閱讀。 應搭配人口、產業等社會經濟資料，進行更深入的區域能源消費結構分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司鄉鎮市(郵遞區)別用電統計資料」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/14135）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司志工活動」由秘書處彙整並對外開放，主要紀錄：紀錄並公開台灣電力公司歷年舉辦的志工活動細節，以展現企業社會責任與活動成果。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史資料，涵蓋台電歷年志工活動；地理範圍：台灣全島各縣市。
+【2. 應用場景】
+評估台電在不同地區或時間的社會參與程度。、分析志工活動的類型、主題與參與人數趨勢。、作為研究企業社會責任（CSR）報告的數據基礎。
+【3. 背景資訊】
+秘書處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台電、志工活動）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單次志工活動」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期更新，有異動時。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整覆蓋台電歷年所有已公開的志工活動資訊。。 在準確性與一致性方面，官方紀錄，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 結合地理資訊系統（GIS）分析活動地點，或與年度報告比較投入資源。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司志工活動」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/16825）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司超高壓及一次變電所主變壓器裝置容量及負載」由供電處彙整並對外開放，主要紀錄：提供台灣電力公司超高壓及一次變電所主變壓器的裝置容量與負載數據，用於評估變電所的供電可靠性與設計差異。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：歷史年度資料，每年更新一次；地理範圍：台灣全島（涵蓋所有超高壓及一次變電所）。依內容與關鍵字初步判斷，本資料集可歸類為輸電相關資料集。
+【2. 應用場景】
+供電系統規劃與可靠度分析，評估變電所負載能力。、變電所主變壓器容量設計與優化，避免過載或閒置。、國家電力基礎設施投資與能源政策研究的數據支持。
+【3. 背景資訊】
+供電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：變電所、超高壓）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「變電所/主變壓器（年度統計）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常數月至一年（年度資料結算後發布）。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整覆蓋台灣電力公司所有超高壓及一次變電所的主變壓器。。 在準確性與一致性方面，官方統計數據，由台灣電力公司供電處定期驗證。 應搭配地理資訊系統（GIS）或電力系統圖，進行空間分析與負載分佈研究。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司超高壓及一次變電所主變壓器裝置容量及負載」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/16874）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：輸電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「輸電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司變電所電磁場資訊」由供電處彙整並對外開放，主要紀錄：提供台灣各行政區變電所的電磁場量測結果，供公眾了解與監督。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：持續更新的年度量測資料；地理範圍：台灣全島各縣市設有變電所的行政地區。依內容與關鍵字初步判斷，本資料集可歸類為輸電相關資料集。
+【2. 應用場景】
+民眾查詢居住地附近變電所的電磁場數據，消除健康疑慮、學術研究機構分析變電所電磁場分佈與環境影響、政府部門評估電磁場資訊公開政策的透明度與成效
+【3. 背景資訊】
+供電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：變電所、電磁場）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一變電所的年度量測結果」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度量測完成後約 1-3 個月發布。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋台灣電力公司在各行政地區的所有變電所。 在準確性與一致性方面，官方量測數據，定期由台灣電力公司驗證。 應搭配變電所地理位置資料集使用，以進行空間分析與視覺化。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司變電所電磁場資訊」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/16877）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：輸電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「輸電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司公司債」由財務處彙整並對外開放，主要紀錄：提供台灣電力公司發行公司債的詳細資訊，包括發行額度、利率、期別等，供投資人與研究者分析。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史資料；地理範圍：台灣全島。
+【2. 應用場景】
+分析台電公司債的發行條件與市場利率趨勢、評估國家基礎建設投資的資金來源與成本結構、作為金融機構進行信用評估與投資決策的參考
+【3. 背景資訊】
+財務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：利率、公司債、額度、政府統計）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一公司債發行期別」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每3月，實際發布時間通常每季更新，約於季後 1 個月內發布。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋台電公司所有已發行與流通的公司債資訊。 在準確性與一致性方面，官方財務數據，高度準確。 建議搭配台電財務報表與資本支出計畫，進行更全面的財務風險與投資分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司公司債」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/16883）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司信用評等」由財務處彙整並對外開放，主要紀錄：提供台灣電力公司作為「企業體」的最新信用評等等級，供投資人、金融機構及研究單位評估其財務穩健性與償債能力。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史評等紀錄與當前最新評等，不定期更新；地理範圍：台灣電力公司企業體，業務涵蓋台灣全島。
+【2. 應用場景】
+投資人評估購買台電發行債券或股票的風險。、金融機構作為授信或貸款給予台電的參考依據。、經濟研究者分析國營事業的財務結構與市場表現。
+【3. 背景資訊】
+財務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台電、信用評等、政府統計）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「台灣電力公司企業體 (單一企業實體)」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常評等機構發布最新報告後，即時或數日內更新。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋台灣電力公司企業體之信用評等資訊。 在準確性與一致性方面，高度準確，為台灣電力公司官方發布之企業體信用評等。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 應搭配台電的財務報表及營運數據，以進行更全面的信用風險分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司信用評等」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/16884）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司人力分布」由人力資源處彙整並對外開放，主要紀錄：提供台電各單位每月人力分布概況，用於人力資源規劃與組織結構分析。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：月度更新，提供歷史資料；地理範圍：台灣全島（涵蓋總管理處、附屬單位及各事業部）。
+【2. 應用場景】
+評估各事業部人力資源配置的合理性與效率。、追蹤台電整體及各單位員工人數的長期趨勢變化。、協助人力資源處進行年度人力預算與招募計畫。
+【3. 背景資訊】
+人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：人力分布、員工人數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月、單位/事業部」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常1-2 週。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整覆蓋台灣電力公司所有總管理處、附屬單位及各事業部。。 在準確性與一致性方面，官方統計、人力資源處定期驗證。 搭配組織架構資料集使用，以進行更深入的組織效率與人力結構分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司人力分布」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/16955）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司二次變電所主變壓器裝置容量及負載」由配電處彙整並對外開放，主要紀錄：提供台電二次變電所主變壓器的裝置容量與最大負載數據，供高壓以上大用戶進行設廠或投資的電力需求評估。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：年度資料，歷史數據累積；地理範圍：台灣全島所有二次變電所及其供電範圍。依內容與關鍵字初步判斷，本資料集可歸類為輸電相關資料集。
+【2. 應用場景】
+高壓及特高壓用戶評估新設廠區或擴建時的電力供應可行性、電力公司分析區域電網的負載分佈與變壓器容量配置、能源顧問公司進行特定區域的電力基礎設施投資評估
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：裝置容量、變電所）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別變電所/主變壓器層級，包含所在地與供電範圍」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年更新一次，延遲約 1-3 個月。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋台灣全島所有二次變電所及其主變壓器數據。 在準確性與一致性方面，官方統計數據，由台電配電處定期發布與驗證。 應搭配地理資訊系統（GIS）進行空間分析，以精確評估特定區域的電力供應潛力。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司二次變電所主變壓器裝置容量及負載」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/16960）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：輸電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「輸電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司電價小常識」由業務處彙整並對外開放，主要紀錄：提供台灣電力公司關於夏月電價、住宅及小商店電費抄表等重要資訊的解釋與說明，幫助民眾理解電價制度。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：涵蓋台灣電力公司現行電價與抄表制度，不定期更新；地理範圍：台灣全島。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+民眾查詢夏月電價的實施期間與計算方式、住宅及小商店用戶了解電費抄表流程與注意事項、研究人員分析台灣電力公司的電價政策變動
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：夏月電價、抄表）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「以電價政策、抄表規定等主題為單位」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常政策或規定異動後立即更新。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整收錄台灣電力公司現行電價與抄表相關的知識與說明。 在準確性與一致性方面，官方政策文件，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 建議搭配台灣電力公司官方公告的電價表或相關法規一同查閱，以獲得最完整的資訊。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司電價小常識」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/17051）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司電價種類及適用範圍」由業務處彙整並對外開放，主要紀錄：說明台灣電力公司現行所有電價種類、費率結構，以及各類電價適用的用戶類型與條件。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：歷史資料，記錄現行及歷次電價種類修訂版本；地理範圍：台灣全島。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用戶選擇最適合的電價方案，以優化用電成本、能源政策研究者分析電價結構對產業與民生的影響、新創公司開發電費試算或節能建議應用程式
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：電價）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別電價種類與適用條件」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期，有異動時即更新。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋台灣電力公司所有現行電價種類與適用範圍。 在準確性與一致性方面，官方發布文件，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 應搭配實際電價費率表使用，以進行精確的電費估算與分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司電價種類及適用範圍」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/17052）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司各類電價表及計算範例」由業務處彙整並對外開放，主要紀錄：提供台灣電力公司現行所有類型的電價結構、費率標準及詳細的電費計算範例，便於用戶估算電費。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：現行有效電價，不定期更新；地理範圍：台灣全島及附屬離島。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+協助企業或家庭用戶進行電費成本預估與節能策略規劃、供能源政策研究者分析不同電價結構對產業與民生的影響、作為能源管理系統開發中電費計算模組的參考依據
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：電價表）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODT、XML、JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「各類用電別（如住商、工業）、不同用電時段（如尖峰、離峰）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期更新，通常為政策或法規調整後發布。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整收錄台灣電力公司現行所有電價類別與計算範例。 在準確性與一致性方面，高度準確、官方發布。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 應搭配最新的用電量數據，以準確計算不同用電情境下的實際電費支出。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司各類電價表及計算範例」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/17060）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司住宅用戶每月平均用電度數及電費」由業務處彙整並對外開放，主要紀錄：提供住宅用戶每月平均用電度數及電費，用於分析住宅用電趨勢與變化。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：月度更新，涵蓋歷史資料；地理範圍：台灣全島。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+評估政府節能政策對住宅用電的影響與成效、預測未來住宅用電需求，作為電力供應規劃的參考、比較不同月份或年度的用電差異，分析氣候或經濟因素的關聯
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：用電、住宅）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月、全台平均」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常每月更新，預計為次月月底。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋台灣全島住宅用戶，數據經去識別化處理。 在準確性與一致性方面，官方統計、定期驗證。 適合用於宏觀的能源政策分析及用電趨勢研究，不適用於個體用戶行為分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司住宅用戶每月平均用電度數及電費」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/17062）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司各國電價比較」由業務處彙整並對外開放，主要紀錄：提供台灣與國際間住宅及工業用電的平均電價比較，作為電價政策制定與市場分析的重要參考依據。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：主要為 2023 年，包含部分 2022 年歷史資料；地理範圍：台灣及多個國際國家/地區。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+分析台灣電價在國際上的相對位置與競爭力、作為政府制定或調整國內住宅及工業電價政策的參考、研究各國能源結構與電價水準的連動關係
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：平均電價）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「國家/地區、年度、用電類別」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常約 1 年 (資料為前一年度統計，於隔年發布)。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋台灣及亞鄰國家等主要經濟體，提供住宅與工業用電兩大類別的平均電價。 在準確性與一致性方面，基於國際能源署(IEA)與Enerdata的統計資料，經台電換算匯率後發布，具官方統計來源。 原始資料備註中另有說明：「1.資料為2023年各國平均電價比較(依IEA及Enerdata之2024年最新統計資料與亞鄰各國電價資料)。
+2.資料原係以美元計價，台幣對美元換算匯率為1美元=31.150台幣(2023年平均匯率)。
+3.表格中之"*"為2022年資料。」，使用前建議先行閱讀。 使用時須注意資料是以美元計價並經匯率換算，應同時參考原始匯率與統計來源。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司各國電價比較」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/17080）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司電價調整近況」由業務處彙整並對外開放，主要紀錄：紀錄台灣電力公司近年來電價調整的歷史沿革、政策說明與實施細節，供政策分析與研究使用。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：涵蓋近年電價調整紀錄，不定期更新；地理範圍：台灣全島。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+分析政府能源政策與電價機制對民生經濟的影響、企業或產業研究機構評估未來電力成本變動趨勢、追溯特定時期電價調整的背景、原因與調整幅度
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：電價調整）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「每次電價調整的決策與實施細節」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常電價調整公告後 1-2 週內。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整收錄近年來所有電價調整的官方說明與決策文件。 在準確性與一致性方面，官方發布資料，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 搭配相關能源政策文件與電力供需數據，進行宏觀經濟與能源結構的深度分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司電價調整近況」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/17081）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司自建之各類再生能源發電量」由再生能源處彙整並對外開放，主要紀錄：追蹤與分析台灣電力公司自行建設與營運的太陽能、風力及地熱等再生能源的月度發電量，作為能源政策與營運決策的基礎。主題範圍涵蓋「能源管理」領域中的「再生能源發展」等面向；時間範圍：歷史資料，月度更新；地理範圍：台灣全島。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+評估台電自建再生能源設施的發電效益與趨勢分析、監測不同再生能源類型（太陽能、風力、地熱）的貢獻度變化、作為政府或研究機構制定能源轉型政策的參考依據
+【3. 背景資訊】
+再生能源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：太陽光電、風力、地熱、發電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月/發電類型（太陽能、風力、地熱）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常月底。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整覆蓋台電自建之太陽能、風力及地熱發電設施的月度數據。 在準確性與一致性方面，官方統計，經台電再生能源處內部驗證。 建議搭配氣象資料或電力負載數據，進行更深入的發電量影響因素分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司自建之各類再生能源發電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/17140）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司再生能源各場址資料」由再生能源處彙整並對外開放，主要紀錄：彙整台灣電力公司所屬再生能源（太陽光電、風力）設施的名稱、地址、型號與發電容量等基礎資訊。主題範圍涵蓋「能源管理」領域中的「再生能源發展」等面向；時間範圍：現況資料，持續更新；地理範圍：台灣全島（台電再生能源場址所在地）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+進行台電再生能源設施的地理空間分佈與資產管理分析、評估特定區域的再生能源裝置容量，供能源政策規劃參考、結合環境或土地資料，進行再生能源場址的環境影響評估
+【3. 背景資訊】
+再生能源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：太陽光電、風力）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一再生能源場址」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期更新，異動發生後即時或短期內發布。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋台灣電力公司所有再生能源場址資料。 在準確性與一致性方面，官方資料，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 主要用於資產管理與空間分析，建議搭配發電量或電網資料進行效益評估。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司再生能源各場址資料」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/17141）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司總管理處圖書室館藏」由秘書處彙整並對外開放，主要紀錄：提供台灣電力公司總管理處圖書室的完整館藏清單，便於使用者查詢與了解台電相關的專業圖書資源。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史資料，涵蓋圖書室自成立以來的館藏；地理範圍：台灣電力公司總管理處，資料內容涵蓋台灣全島電力相關領域。
+【2. 應用場景】
+供台電員工或外部研究人員查詢電力、能源相關的專業文獻、分析圖書室的館藏結構，了解台電的知識累積與研究重點、協助圖書室進行館藏盤點、採購或淘汰舊書的決策參考
+【3. 背景資訊】
+秘書處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台電、圖書）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一圖書/館藏紀錄」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常約 1 年，配合圖書室年度盤點與新書編目作業。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整收錄台灣電力公司總管理處圖書室所有館藏資料。 在準確性與一致性方面，高度準確，由圖書室專業編目人員維護。 可搭配圖書室的借閱系統使用，以獲取圖書的即時狀態與借閱資訊。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司總管理處圖書室館藏」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/17144）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司決算主要表」由會計處彙整並對外開放，主要紀錄：提供台灣電力公司歷年的財務決算數據，用於分析其資產負債、經營損益及財務結構。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史資料，年度數據；地理範圍：台灣全島。
+【2. 應用場景】
+評估台灣電力公司年度經營績效與獲利能力。、分析台電公司的資產結構、負債比率與財務風險。、作為政府部門審計與能源政策制定的參考。
+【3. 背景資訊】
+會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：損益表、資產負債表、政府支出、政府預算）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年/公司整體」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度結束後 3-6 個月。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋台灣電力公司年度主要財務報表內容。。 在準確性與一致性方面，經會計師查核及主管機關審定，具高度準確性。 適合用於長期財務趨勢分析與跨年度比較，應搭配預算書進行差異分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司決算主要表」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/18911）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司會計報表」由會計處彙整並對外開放，主要紀錄：揭露台灣電力公司每月的財務狀況與經營績效，包含損益表與資產負債表等重要會計資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史月度資料，持續更新；地理範圍：台灣全島 (以公司整體財務報表為主)。
+【2. 應用場景】
+分析台灣電力公司的財務結構與償債能力、評估台電的營運成本、收入來源及獲利能力、研究公共事業在能源政策下的財務表現
+【3. 背景資訊】
+會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：損益表、政府支出、資產負債表）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月度/公司整體」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常每月月底或次月上旬發布。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋台灣電力公司每月會計報表內容。 在準確性與一致性方面，官方會計報表，經內部審核與簽證。 搭配能源政策與電價調整資料，進行更全面的公共事業財務分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司會計報表」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/18917）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司過去電力供需資訊」由電力調度處彙整並對外開放，主要紀錄：追蹤台灣電力公司過去一段時間的每日電力供需狀況，並分析各機組發電量對尖峰備轉容量率的影響。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：歷史資料，每月更新，涵蓋上一年度及今年度至上月份；地理範圍：台灣全島。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+分析過去電力供需趨勢，評估供電穩定性與風險、作為電力負載預測模型輸入，提升預測準確度、檢視機組發電效益，作為能源政策與電網規劃的參考
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：用電量、供電能力、尖峰負載、備轉容量、備轉容量率）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「日」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常約 1 個月 (上月份資料於本月發布)。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋台灣全島每日電力供需及機組發電量數據。 在準確性與一致性方面，官方統計、定期發布、高度準確。 應搭配氣象資料或經濟指標，進行更深入的電力負載與備轉容量率關聯性分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司過去電力供需資訊」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/19995）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「經濟部主管核能發電後端營運基金決算資料」由會計處彙整並對外開放，主要紀錄：提供經濟部主管之核能發電後端營運基金，前一年度的財務決算與支出明細，用於追蹤基金的運作與財務績效。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史年度決算資料，每年更新；地理範圍：全國性基金管理。
+【2. 應用場景】
+追蹤核能後端營運基金的年度收支與財務狀況、分析政府在核能廢棄物處理與除役上的資金投入、進行政府預算執行與公共支出的透明度監督
+【3. 背景資訊】
+會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：後端營運基金、決算、政府預算、政府支出）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年度/決算會計科目」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度決算完成後約 3-6 個月。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋該基金前一年度所有決算會計科目。 在準確性與一致性方面，官方決算資料，經會計師查核簽證。 應搭配預算資料進行比較分析，以評估基金的財務執行效率。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「經濟部主管核能發電後端營運基金決算資料」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/20421）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「經濟部主管核能發電後端營運基金會計月報」由會計處彙整並對外開放，主要紀錄：提供核能發電後端營運基金之會計月報相關資料。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：會計、月報、後端營運基金、政府預算、政府支出）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「經濟部主管核能發電後端營運基金會計月報」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/20424）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司近三年每日尖峰備轉容量率」由電力調度處彙整並對外開放，主要紀錄：用於監測台灣電力系統在尖峰時段的供電穩定性與電力裕度，是評估缺電風險的重要指標。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：近三年每日歷史資料；地理範圍：台灣全島電力系統。
+【2. 應用場景】
+評估台灣整體電力供需平衡與潛在缺電風險、分析電力系統穩定性與尖峰負載趨勢、作為再生能源政策與儲能規劃的參考依據
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：備轉容量、尖峰負載）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「日/全台」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年更新一次，時間差約一年。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋台灣全島電力系統、每日數據完整覆蓋近三年。 在準確性與一致性方面，官方統計、高度準確。 原始資料備註中另有說明：「1.備轉容量(Operating Reserve)＝系統運轉淨尖峰能力－系統瞬時尖峰負載(瞬間值)。
+2.備轉容量率(Percent Operating Reserve)＝(系統運轉淨尖峰供電能力－系統瞬時尖峰負載(瞬間值))÷系統瞬時尖峰負載(瞬間值)×100%。」，使用前建議先行閱讀。 應搭配尖峰負載、發電量等資料集，進行更全面的電力供需分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司近三年每日尖峰備轉容量率」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/24945）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司台電委託調查研究案」由綜合研究所彙整並對外開放，主要紀錄：揭露台灣電力公司每月委託外部進行的調查研究計畫決標資訊，供社會大眾監督與了解研究方向。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史資料，每月持續更新；地理範圍：台灣全島。
+【2. 應用場景】
+追蹤台電研究經費流向與重點領域分析、分析台電在能源、環境等領域的外部合作趨勢、學術研究者了解台電委託案的範圍與主題
+【3. 背景資訊】
+綜合研究所為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台電委託調查研究）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別委託研究計畫決標案」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常每月月底彙總並公開，約 1-4 週。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整收錄台電各單位每月提報的委託研究決標案。 在準確性與一致性方面，官方發布資料，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 搭配其他政府採購資料，可進行更全面的公共工程與研究案分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司台電委託調查研究案」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/24959）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司新聞稿」由公眾服務處彙整並對外開放，主要紀錄：彙整台灣電力公司官方發布的各項即時新聞與公告，作為了解台電營運、政策及重大事件的第一手資訊來源。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史資料，持續不定期更新；地理範圍：台灣全島。
+【2. 應用場景】
+追蹤台電最新政策、電價調整與業務發展、分析台電在重大事件（如停電、災害）的應對與資訊揭露、供學術研究或媒體監測，了解公共溝通策略
+【3. 背景資訊】
+公眾服務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：新聞稿、台電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一新聞稿事件」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常即時 (發布後立即更新)。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整收錄台灣電力公司官方網站所有新聞稿。 在準確性與一致性方面，官方發布、高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 應搭配時間軸或關鍵字進行篩選，以快速掌握特定期間或主題的台電動態。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司新聞稿」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/25846）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司本年度每日尖峰備轉容量率」由電力調度處彙整並對外開放，主要紀錄：反映台灣電力系統每日尖峰時段的供電餘裕，是衡量電力穩定與可靠度的關鍵指標。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：本年度每日資料，持續更新至前一日；地理範圍：台灣全島電力系統。
+【2. 應用場景】
+評估電力供應穩定性與缺電風險、分析電力負載趨勢與季節性變化、制定節能政策或電力需求管理策略
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：備轉容量、尖峰負載）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「每日尖峰時段，全台電力系統」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1日，實際發布時間通常T+1日更新。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋本年度每日尖峰數據。 在準確性與一致性方面，官方電力調度數據，高度準確。 原始資料備註中另有說明：「1.備轉容量(Operating Reserve)＝系統運轉淨尖峰能力－系統瞬時尖峰負載(瞬間值)。
+2.備轉容量率(Percent Operating Reserve)＝(系統運轉淨尖峰供電能力－系統瞬時尖峰負載(瞬間值))÷系統瞬時尖峰負載(瞬間值)×100%。」，使用前建議先行閱讀。 適合用於長期趨勢分析與電力供需預警，不適用於即時電力調度。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司本年度每日尖峰備轉容量率」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/25850）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司路平專區」由配電處彙整並對外開放，主要紀錄：追蹤與統計台電地下線路沿線道路路面及人手孔蓋周邊的巡檢與修復狀況，以確保道路平整與用路安全。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史資料，每月持續更新；地理範圍：台灣全島各縣市。
+【2. 應用場景】
+評估台電在各縣市道路平整維護上的執行成效、供地方政府進行道路工程協調與品質監督、分析不同區域的人手孔蓋修復頻率與改善趨勢
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：修復、路平）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月度統計、縣市/鄉鎮」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常約 1 個月。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋台電地下線路經過之台灣全島各縣市。 在準確性與一致性方面，官方統計、定期驗證。 結合地理資訊系統(GIS)進行空間分析，以視覺化方式呈現路平改善熱區。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司路平專區」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/26140）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司配電工程承攬商工安罰款」由配電處彙整並對外開放，主要紀錄：追蹤與分析台灣電力公司配電工程承攬商因違反工安規定而被處以罰款的統計數據。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史資料，月度更新；地理範圍：台灣全島（台電配電工程範圍）。依內容與關鍵字初步判斷，本資料集可歸類為配電相關資料集。
+【2. 應用場景】
+評估承攬商工安表現，作為未來招標參考、分析工安違規熱點與類型，制定預防措施、監測工安罰款趨勢，評估管理政策成效
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：工安罰款）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單筆罰款紀錄或月度彙總」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常1-2 週（基於月度更新推算）。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋台電配電處所有承攬商工安罰款紀錄。 在準確性與一致性方面，官方統計、定期驗證、高度準確。 結合工程地點與違規細節，深入分析工安風險因子，優化承攬商管理。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司配電工程承攬商工安罰款」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/26141）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：配電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「配電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司計畫性工作停電資料」由配電處彙整並對外開放，主要紀錄：提供台電24區處每日計畫性停電的時段與影響地區，協助民眾與企業預先掌握停電資訊並進行準備。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：短期未來預報（滾動式更新），涵蓋未來數日或數週；地理範圍：台灣本島各縣市（台電24區處），不含馬祖。
+【2. 應用場景】
+民眾查詢住家或工作地點的計畫性停電時程，提前準備備用電源或調整行程、企業或工廠依據停電資訊，安排生產排程或啟動備用發電機，降低營運衝擊、新聞媒體或應用程式開發者，整合資料提供即時停電預報服務
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：計畫性工作停電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「日、區處、停電時段、影響地區」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1日，實際發布時間通常每日更新，延遲約 1 日內。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋台灣本島台電24區處的計畫性停電資訊，不含馬祖區處。 在準確性與一致性方面，官方發布、每日更新、高度準確。 原始資料備註中另有說明：「馬祖區處的計畫性工作停電資訊請參照以下網址：
+https://service.taipower.com.tw/branch/d124/xcnotice?xsmsid=0M242581313368873957」，使用前建議先行閱讀。 建議搭配地理資訊系統（GIS）進行視覺化，以精確判斷停電影響範圍，並與即時供電資訊交叉比對。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司計畫性工作停電資料」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/26144）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司配電線路地下化規劃原則」由配電處彙整並對外開放，主要紀錄：闡述台灣電力公司配電線路地下化工程的規劃原則、考量條件與實務限制，作為民眾與政府機關理解與溝通的基礎。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：規劃原則發布日至今（持續有效，不定期更新）；地理範圍：台灣全島（適用於台電所有配電線路地下化規劃）。依內容與關鍵字初步判斷，本資料集可歸類為配電相關資料集。
+【2. 應用場景】
+地方政府或民意代表評估及審核地下化工程提案的可行性。、協助民眾理解地下化工程的技術、成本與環境限制，減少爭議。、供土木工程師或都市規劃者作為電纜線路規劃設計的參考依據。
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：配電線路地下化規劃原則）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「政策文件層級（非統計數據，以規劃原則為最小單位）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常政策變動後即時發布（不定期）。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋台電配電線路地下化規劃所需考量的所有原則與限制。。 在準確性與一致性方面，官方發布之政策文件，具高度權威性。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 主要用於政策研究與工程溝通，應搭配實際工程圖資與地方規範使用。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司配電線路地下化規劃原則」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/26145）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：配電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「配電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司供電系統介紹」由系統規劃處彙整並對外開放，主要紀錄：旨在向公眾介紹台灣電力公司的整體供電系統架構、主要設備與運作流程，以普及電力知識。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：描述當前供電系統架構，為持續性資料，無特定時間跨度；地理範圍：台灣全島。
+【2. 應用場景】
+公眾教育，提升民眾對電力系統運作原理的基礎認知、協助學術研究者或學生快速掌握台電供電系統的架構、政策分析或媒體報導時，作為電力基礎設施的參考資料
+【3. 背景資訊】
+系統規劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：供電系統）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODP」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「系統層級/概念性描述，非統計數據」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常系統異動後即時或於下次版本更新時發布。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整涵蓋台灣電力公司供電系統的整體架構與主要環節。 在準確性與一致性方面，官方文件，由系統規劃處提供，具高度權威性。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 適合用於基礎知識學習與系統概覽，不適用於即時或歷史統計分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司供電系統介紹」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29929）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司前三年度促進電力發展營運協助金核定案件、捐助、會費、委託調查研究公佈事項」由促進電力發展營運協助金審議委員會彙整並對外開放，主要紀錄：公布台灣電力公司近三年內，促進電力發展營運協助金的核定案件、捐助、會費及委託調查研究的詳細資訊，以供公眾監督。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：近三年度的歷史資料，不定期更新；地理範圍：台灣全島及離島（資金核定與項目執行地點）。
+【2. 應用場景】
+追蹤促進電力發展協助金的資金流向與核定效率。、分析台電在電力發展、社區回饋與學術研究的投入模式。、公眾或媒體監督，評估協助金審議委員會的決策透明度。
+【3. 背景資訊】
+促進電力發展營運協助金審議委員會為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：協助金）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一核定案件/捐助/會費/委託調查研究項目」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期（有異動時），可能存在數月至一年不等的時間差。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整收錄近三年度所有核定案件、捐助、會費及委託調查研究公佈事項。。 在準確性與一致性方面，官方審議委員會核定與公佈，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 應搭配相關法規與審議委員會會議紀錄，以全面理解資金核定背後的決策考量。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司前三年度促進電力發展營運協助金核定案件、捐助、會費、委託調查研究公佈事項」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29930）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司可靠供電考慮要項」由系統規劃處彙整並對外開放，主要紀錄：說明台灣電力公司在進行電力系統規劃時，為確保供電穩定與品質所考量的關鍵因素與原則。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：政策性文件，涵蓋當前及未來規劃原則；地理範圍：台灣全島電力系統。
+【2. 應用場景】
+了解電力公司供電決策的基礎與原則、評估電力基礎設施投資與發展方向、供電可靠度相關研究與政策分析
+【3. 背景資訊】
+系統規劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：可靠供電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODP」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「政策/原則層級」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期更新，有異動時發布。
+【5. 使用限制與注意事項】
+就資料完整性而言，完整呈現台電系統規劃處的供電考慮要項。 在準確性與一致性方面，官方政策文件，高度準確，代表台電現行標準。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 應搭配電力供需報告或電網數據，以全面理解供電策略與實施細節。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司可靠供電考慮要項」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29931）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司各單位申請台灣職安衛管理系統(TOSHMS)驗證登錄情形一覽表」由工業安全衛生處彙整並對外開放，主要紀錄：本資料集提供台電公司驗證登錄情形一覽。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+工業安全衛生處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台電、職業安全衛生管理系統）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「1.更新頻率說明：有異動時。
+2.依職業安全衛生法第23條規定：事業單位達一定規模以上者，應建置職業安全衛生管理系統。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司各單位申請台灣職安衛管理系統(TOSHMS)驗證登錄情形一覽表」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29932）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司各年度再生能源別裝置容量」由業務處彙整並對外開放，主要紀錄：提供按年度統計台電之再生能源發電，其各種能源別之裝置容量。主題範圍涵蓋「能源管理」領域中的「再生能源發展」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、裝置容量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「1.再生能源發展條例係於98年7月8日公告施行。
+2.上述資料皆含台電公司自有機組裝置容量。
+3.風力及太陽光電以外能源〔如水力(包括水庫電廠)、生質能等〕之裝置容量，皆歸於其他(含水力)項目內。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司各年度再生能源別裝置容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29933）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司各煤源國燃煤採購數量暨比例」由燃料處彙整並對外開放，主要紀錄：台電公司將更新近三年燃煤採購之各煤源國數量及各煤源國所占比例。主題範圍涵蓋「能源管理」領域中的「能源資源」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+燃料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：煤源國、採購數量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司各煤源國燃煤採購數量暨比例」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29934）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司各縣市住宅、服務業及機關用電統計資料」由業務處彙整並對外開放，主要紀錄：本資料集按縣市別提供住宅、服務業及機關等部門每月用電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：每月用電度數、縣市）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司各縣市住宅、服務業及機關用電統計資料」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29935）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司各縣市再生能源別購入情形」由業務處彙整並對外開放，主要紀錄：提供各縣市歷年已建置再生能源別之躉購容量及購入度數(自103年起)。主題範圍涵蓋「能源管理」領域中的「再生能源發展」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、躉購容量、購入度數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司各縣市再生能源別購入情形」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29936）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司員工清廉度調查報告」由政風處彙整並對外開放，主要紀錄：提供台灣電力公司年度員工清廉度調查報告供各界參考。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+政風處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：員工清廉度）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司員工清廉度調查報告」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29937）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司太陽光電發電量及平均單位裝置容量每日發電量統計表」由再生能源處彙整並對外開放，主要紀錄：提供台電太陽光電發電量、平均單位裝置容量每日發電量統計。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+再生能源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：太陽光電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司太陽光電發電量及平均單位裝置容量每日發電量統計表」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29938）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司廉政會報會議紀錄」由政風處彙整並對外開放，主要紀錄：提供台灣電力公司近期廉政會報會議紀錄供各界參考。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+政風處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：廉政會報）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司廉政會報會議紀錄」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29939）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司惜物網拍賣金額」由材料處彙整並對外開放，主要紀錄：提供台灣電力公司透過台北惜物網拍賣廢料金額。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+材料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：惜物網、拍賣）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司惜物網拍賣金額」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29940）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司招標決標件數比較表」由材料處彙整並對外開放，主要紀錄：提供台電每年招標決標件數比較表。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+材料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：招標、決標）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司招標決標件數比較表」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29941）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司柴油採購價格及數量」由燃料處彙整並對外開放，主要紀錄：提供台電公司過去四年柴油年平均採購價格及數量。主題範圍涵蓋「能源管理」領域中的「能源資源」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+燃料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：柴油、價格）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司柴油採購價格及數量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29944）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司被核安會開立違規事項」由核能安全處彙整並對外開放，主要紀錄：本資料為提供台電公司被核安會開立違規事項資料。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+核能安全處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：違規事項資料）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司被核安會開立違規事項」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29945）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司火力發電溫室氣體排放量」由環境保護處彙整並對外開放，主要紀錄：提供台電公司所屬火力發電溫室氣體排放量分析表。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+環境保護處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：溫室氣體、火力發電排放量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司火力發電溫室氣體排放量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29947）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司現有員工人數」由人力資源處彙整並對外開放，主要紀錄：提供台灣電力公司當年度各月份派、僱用人員人數及比例。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：現有員工人數、員工人數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司現有員工人數」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29948）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司現有員工教育程度」由人力資源處彙整並對外開放，主要紀錄：提供台灣電力公司前月派、僱用人員教育程度人數分布。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：現有員工教育程度、教育程度）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司現有員工教育程度」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29949）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司當年度促進電力發展營運協助金核定案件、捐助、會費、委託調查研究公佈事項」由促進電力發展營運協助金審議委員會彙整並對外開放，主要紀錄：提供當年度促進電力發展營運協助金核定之案件、捐助、會費及委託調查研究公佈事項。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+促進電力發展營運協助金審議委員會為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：協助金）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司當年度促進電力發展營運協助金核定案件、捐助、會費、委託調查研究公佈事項」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29950）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司燃料油採購價格及數量」由燃料處彙整並對外開放，主要紀錄：提供台電公司過去四年燃料油年平均採購價格及數量。主題範圍涵蓋「能源管理」領域中的「能源資源」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+燃料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：燃料油、價格）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司燃料油採購價格及數量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29952）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司第七輸變電計畫歷年加入系統新增CKM數」由輸變電工程處彙整並對外開放，主要紀錄：提供台電第七輸變電計畫分年加入系統之變電工程千仟伏安統計數。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+輸變電工程處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台電、輸變電計畫、CKM）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司第七輸變電計畫歷年加入系統新增CKM數」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29953）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司第七輸變電計畫歷年加入系統新增變電所數量」由輸變電工程處彙整並對外開放，主要紀錄：提供台電第七輸變電計畫分年新改建變電所加入系統所數。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為輸電相關資料集。
+【2. 應用場景】
+超高壓與輸電線路負載監測與瓶頸偵測、輸電設備投資與更新時程規劃、區域供電安全與備援能力評估
+【3. 背景資訊】
+輸變電工程處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台電、輸變電計畫、變電所）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司第七輸變電計畫歷年加入系統新增變電所數量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29954）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：輸電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「輸電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司訓練所接受代訓統計資料」由訓練所彙整並對外開放，主要紀錄：提供台電訓練所接受外界委託訓練情形之年度統計資料。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+訓練所為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：訓練所、代訓、外界委託訓練）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司訓練所接受代訓統計資料」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29955）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司訓練所核能、水火力電廠員工及承包商技術檢定統計資料」由訓練所彙整並對外開放，主要紀錄：提供台電訓練所林口核能訓練中心核能、水火力電廠員工及承包商之技術檢定統計資料。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+訓練所為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：訓練所、承包商技術檢定）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司訓練所核能、水火力電廠員工及承包商技術檢定統計資料」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29956）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司近3年決算書」由會計處彙整並對外開放，主要紀錄：提供台電公司近3年之決算書，俾利大眾瞭解台電公司經營現況。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：政府支出）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司近3年決算書」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29957）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司電路出租業務公開招租須知」由電力通信處彙整並對外開放，主要紀錄：提供台灣電力股份有限公司以公開招租方式辦理臺灣本島各行政區域之光纖出租業務案。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+電力通信處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：光纖電路出租）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司電路出租業務公開招租須知」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29959）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司風機發電量及發電時數統計表」由再生能源處彙整並對外開放，主要紀錄：提供台電各風機發電量、發電時數統計。主題範圍涵蓋「能源管理」領域中的「再生能源發展」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+再生能源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：風力、風機）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司風機發電量及發電時數統計表」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/29961）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司溫室氣體排放係數」由環境保護處彙整並對外開放，主要紀錄：提供國家電力排放係數及台電公司排放係數比較表。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+環境保護處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：溫室氣體、電力排碳係數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「1.更新頻率說明：有異動時。
+2.國家電力排碳係數係依據經濟部能源署網站公告之結果(https://www.moeaea.gov.tw/ecw/populace/content/ContentDesc.aspx?menu_id=23142)。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司溫室氣體排放係數」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/30151）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司電源開發方案」由電源開發處彙整並對外開放，主要紀錄：提供歷年電源開發計畫概述，電源開發規劃尖峰負載、淨尖峰能力、備用容量率之統計。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+電源開發處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：長期、電源、開發、方案、備用、淨尖峰、出力、裝置容量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司電源開發方案」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/30184）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司電價及單位成本結構比較」由會計處彙整並對外開放，主要紀錄：提供電價及單位成本資訊。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：電價、單位成本）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司電價及單位成本結構比較」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/30242）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司公用售電業之電力營業用戶(依行業別)售電量」由企劃處彙整並對外開放，主要紀錄：本資料集為提供過去5年公用售電業之電力營業用戶依行業別統計之每月售電量資料。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+企劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：政府統計）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司公用售電業之電力營業用戶(依行業別)售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/31966）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司汽電共生購電實績」由業務處彙整並對外開放，主要紀錄：提供台電公司95年至今每月份之汽電共生購電度數與金額。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：汽電共生、購電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司汽電共生購電實績」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/32985）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司太陽光電購電實績」由業務處彙整並對外開放，主要紀錄：提供台灣電力公司每月太陽光電購電度數(自95年起)。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：太陽光電、購電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司太陽光電購電實績」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/32986）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司風力購電實績」由業務處彙整並對外開放，主要紀錄：提供台灣電力公司每月風力購電度數(自95年起)。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：風力、購電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司風力購電實績」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/32987）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司水力購電實績」由業務處彙整並對外開放，主要紀錄：提供台灣電力公司每月水力購電度數(自95年起)。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：水力、購電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司水力購電實績」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/32988）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供台電各區處電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「能源管理/空間資訊」領域中的「電力供需/設施座落」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理/空間資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：電桿、桿號）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「本資料集包含全台各縣市電桿坐標及桿號資料，如需單獨下載各縣市資料可至以下連結，或於本平台搜尋後下載：
+臺北市(https://data.gov.tw/dataset/122523) 新北市(https://data.gov.tw/dataset/122524)
+桃園市(https://data.gov.tw/dataset/122737) 臺中市(https://data.gov.tw/dataset/122738)
+臺南市(https://data.gov.tw/dataset/122739) 高雄市(https://data.gov.tw/dataset/122740)
+基隆市(https://data.gov.tw/dataset/139305) 新竹市(https://data.gov.tw/dataset/139306)
+嘉義市(https://data.gov.tw/dataset/139315) 新竹縣(https://data.gov.tw/dataset/139307)
+苗栗縣(https://data.gov.tw/dataset/139310) 彰化縣(https://data.gov.tw/dataset/139313)
+南投縣(https://data.gov.tw/dataset/139312) 雲林縣(https://data.gov.tw/dataset/139314)
+嘉義縣(https://data.gov.tw/dataset/139317) 屏東縣(https://data.gov.tw/dataset/139318)
+宜蘭縣(https://data.gov.tw/dataset/139319) 花蓮縣(https://data.gov.tw/dataset/139320)
+臺東縣(https://data.gov.tw/dataset/139324)。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/33305）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司未來一週電力供需預測」由電力調度處彙整並對外開放，主要紀錄：本資料集提供明日起未來一週之電力供需預測，可供大眾了解未來一週備轉率變化的情形。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：淨尖峰供電能力、瞬時尖峰負載）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1日。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「預估值係依據中央氣象局所公布未來一週氣象預報資料及發電機組狀況得出。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司未來一週電力供需預測」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/33462）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司105~109年度表燈用電不及底度用戶數」由業務處彙整並對外開放，主要紀錄：統計各鄉鎮市(以郵遞區別)表燈用戶每月用電量不及底度之用戶數。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：用電、不及底度）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司105~109年度表燈用電不及底度用戶數」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/33463）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司近十年火力機組大修紀錄」由發電處彙整並對外開放，主要紀錄：本資料為提供台灣電力公司近十年火力機組大修紀錄相關資料。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：大修、火力機組）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司近十年火力機組大修紀錄」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/33581）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司近十年水力機組大修紀錄」由發電處彙整並對外開放，主要紀錄：本資料為提供台灣電力公司近十年水力機組大修紀錄相關資料。主題範圍涵蓋「能源管理」領域中的「再生能源發展」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：大修、水力機組）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司近十年水力機組大修紀錄」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/33582）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司核一、二、三及龍門廠機組歷次大修紀錄相關資料」由核能發電處彙整並對外開放，主要紀錄：提供本公司核能機組歷次大修相關資料。主題範圍涵蓋「能源管理」領域中的「能源資源」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+核能發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：大修、歲修、核能機組）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司核一、二、三及龍門廠機組歷次大修紀錄相關資料」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/33583）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司近十年各類型火力機組可用率」由發電處彙整並對外開放，主要紀錄：本資料集提供現有火力機組近十年可用率資料，提供大眾了解發電機組運轉狀況，並評估機組的效益。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：機組、可用率）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司近十年各類型火力機組可用率」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/33662）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司發購電量(能源別)及公用售電業售電量(用途別)」由企劃處彙整並對外開放，主要紀錄：本資料為提供台灣電力公司歷年發購電量及公用售電業售電量資料。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+企劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：購電、售電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司發購電量(能源別)及公用售電業售電量(用途別)」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/35392）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司未來兩年機組大修停機排程」由電力調度處彙整並對外開放，主要紀錄：本資料集提供今、明兩年台電公司水力、火力、核能等機組大修停機排程。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：機組、大修）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「1.機組大修停機排程規劃將於每年中(6月)及年末(12月)辦理，並於彙整完畢後更新本資料集。
+2.本資料集為暫定排程，後續視實際系統及氣候情況滾動調整。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司未來兩年機組大修停機排程」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/35393）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司各區域間過去電力潮流量」由電力調度處彙整並對外開放，主要紀錄：本資料集提供台電公司各區域(北、中、南、東)間之過去每10分鐘電力潮流量(瞬間值)。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：燃料、機組名稱、電力潮流量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「1.更新頻率說明：每月更新三個月前資料。
+2.本資料集係擷取自電能管理系統(EMS)，可能會因系統維護、資料設定、傳輸等因素，而與實際數值有些許誤差，相關實際資料請以台電正式公布為準。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司各區域間過去電力潮流量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/37326）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司各機組過去發電量」由電力調度處彙整並對外開放，主要紀錄：本資料集提供台電公司各機組(已取得電業執照者為原則)之過去每10分鐘淨發電量(瞬間值)。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：機組、燃料、淨發電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「1.更新頻率說明：每月更新三個月前資料。
+2.本資料集係擷取自電能管理系統(EMS)，可能會因系統維護、資料設定、傳輸等因素，而與實際數值有些許誤差，相關實際資料請以台電正式公布為準。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司各機組過去發電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/37331）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司核能電廠事件通報」由核能發電處彙整並對外開放，主要紀錄：提供台電公司各核能電廠運轉事故有關之通報內容，供大眾了解電廠情形，避免不當疑慮。主題範圍涵蓋「能源管理」領域中的「能源資源」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+核能發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：核電、事故、通報）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司核能電廠事件通報」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/37711）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司各縣市年度住宅、服務業、機關及工業用電比例」由業務處彙整並對外開放，主要紀錄：本資料集係提供台灣地區每年度住宅、服務業、機關、工業及其他等用電比例。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：用電、縣市）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司各縣市年度住宅、服務業、機關及工業用電比例」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/38959）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司核設施輻射監測即時資料」由放射試驗室彙整並對外開放，主要紀錄：本資料為提供台電核一、二、三、龍門廠及蘭嶼貯存場環境輻射監測即時資料，可供大眾了解各核設施環境的情形。主題範圍涵蓋「能源管理」領域中的「能源資源」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+放射試驗室為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：輻射）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每5分。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司核設施輻射監測即時資料」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/42326）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司煙道資料即時量測值」由發電處彙整並對外開放，主要紀錄：各火力廠排放煙道氣之不透光率、二氧化硫、氮氧化物、氧氣、排放流率、溫度。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：CEMS、煙道、排煙）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每7日。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司煙道資料即時量測值」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/44163）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司台北市再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供台北市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司台北市再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/44193）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司新北市再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供新北市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司新北市再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/44194）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司桃園市再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供桃園市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司桃園市再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/44195）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司台中市再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供台中市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司台中市再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/44196）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司台南市再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供台南市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司台南市再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/44202）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司高雄市再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供高雄市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司高雄市再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/44203）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司嘉義縣市再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供嘉義縣市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司嘉義縣市再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/44204）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司苗栗縣再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供苗栗縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司苗栗縣再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/44206）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司彰化縣再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供彰化縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司彰化縣再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/44207）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司雲林縣再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供雲林縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司雲林縣再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/44208）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司屏東縣再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供屏東縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司屏東縣再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/44209）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司電力維生管線災情資訊」由電力調度處彙整並對外開放，主要紀錄：本資料集提供災害期間電力停電災情資訊。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：災害名稱、停電戶數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「1.更新頻率說明：災害期間每小時(平時不更新)
+2.備用網址(kml格式)：https://service.taipower.com.tw/data/opendata/apply/file/d006012/001.kml」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司電力維生管線災情資訊」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/44799）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司落雷即時資料」由綜合研究所彙整並對外開放，主要紀錄：提供雲中閃電與雲對地閃電之即時監測資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+綜合研究所為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：落雷即時監測資訊）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1分。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司落雷即時資料」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/61139）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司公文線上簽核應用」由秘書處彙整並對外開放，主要紀錄：提供台灣電力公司公文線上簽核及自然人憑證申辦比例。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+秘書處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：線上簽核應用）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司公文線上簽核應用」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/61177）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司新竹縣市再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供新竹縣市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司新竹縣市再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/80285）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司基隆市非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供基隆市的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：基隆市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司基隆市非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83418）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司台北市非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供台北市的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台北市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司台北市非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83422）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司新北市非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供新北市的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：新北市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司新北市非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83426）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司桃園市非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供桃園市的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：桃園市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司桃園市非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83427）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司新竹市非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供新竹市的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：新竹市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司新竹市非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83429）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司新竹縣非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供新竹縣的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：新竹縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司新竹縣非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83430）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司苗栗縣非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供苗栗縣的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：苗栗縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司苗栗縣非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83431）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司台中市非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供台中市的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台中市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司台中市非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83432）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司彰化縣非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供彰化縣的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：彰化縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司彰化縣非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83433）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司雲林縣非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供雲林縣的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：雲林縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司雲林縣非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83434）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司嘉義縣非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供嘉義縣的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：嘉義縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司嘉義縣非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83619）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司嘉義市非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供嘉義市的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：嘉義市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司嘉義市非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83620）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司台南市非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供台南市的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台南市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司台南市非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83622）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司高雄市非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供高雄市的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：高雄市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司高雄市非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83624）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司屏東縣非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供屏東縣的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：屏東縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司屏東縣非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83634）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司南投縣非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供南投縣的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：南投縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司南投縣非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83644）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司宜蘭縣非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供宜蘭縣的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：宜蘭縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司宜蘭縣非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83650）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司花蓮縣非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供花蓮縣的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：花蓮縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司花蓮縣非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83704）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司台東縣非營業用戶售電量」由業務處彙整並對外開放，主要紀錄：提供台東縣的非營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台東縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司台東縣非營業用戶售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/83735）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司需量競價執行成效」由業務處彙整並對外開放，主要紀錄：本資料集提供需量競價每月申請量及單日最大抑低量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：需量競價）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司需量競價執行成效」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/102210）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司近5年系統概況」由電力調度處彙整並對外開放，主要紀錄：提供台電系統近五年尖峰負載狀況。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：尖峰負載、電力系統）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司近5年系統概況」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/103046）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司未來二個月電力供需預測」由電力調度處彙整並對外開放，主要紀錄：提供台電公司未來兩個月電力供需預測。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：電力供需、供需預測）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每10日。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「1.更新頻率說明：以每旬第1天(1日、11日、21日)為原則。
+2.未來二個月電力供需預測係依據本公司負載預測及發電機組狀況，並參考中央氣象局長期天氣預測資料修正產生。
+3.尖峰負載為每旬預估之最高瞬時尖峰負載。
+4.資料計算方式及說明請參考台電公司官網首頁(https://www.taipower.com.tw/) &gt; 資訊揭露 &gt; 電力供需資訊 &gt; 近期電力資訊 &gt; 未來二個月電力供需預測。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司未來二個月電力供需預測」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/103262）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司基隆市再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供基隆市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司基隆市再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/111479）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司南投縣再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供南投縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司南投縣再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/111480）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司宜蘭縣再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供宜蘭縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司宜蘭縣再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/111481）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司花蓮縣再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供花蓮縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司花蓮縣再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/111483）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司台東縣再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供台東縣的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司台東縣再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/111484）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司年度備轉容量彙整」由電力調度處彙整並對外開放，主要紀錄：本資料集提供年度每月系統運轉淨尖峰能力、系統瞬時尖峰負載、備轉容量、備轉容量率等的最大值和最小值。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：尖峰、備轉容量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司年度備轉容量彙整」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/122035）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司年度線路損失量(率)」由電力調度處彙整並對外開放，主要紀錄：本資料集提供輸電系統及配電系統年度及上一年度線路損失量、線路損失率的實績值以及年度差異比較。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為輸電相關資料集。
+【2. 應用場景】
+超高壓與輸電線路負載監測與瓶頸偵測、輸電設備投資與更新時程規劃、區域供電安全與備援能力評估
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：線路損失）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司年度線路損失量(率)」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/122036）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：輸電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「輸電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司年度電燈營業用戶(依行業別)售電量」由業務處彙整並對外開放，主要紀錄：本資料集提供過去一年依主計總處發布之第10版行業別標準分類統計之電燈營業用戶售電量。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：電燈營業、行業別）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司年度電燈營業用戶(依行業別)售電量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/122521）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司臺北市電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供臺北市電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：臺北市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司臺北市電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/122523）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司新北市電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供新北市電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：新北市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司新北市電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/122524）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司桃園市電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供桃園市電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：桃園市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司桃園市電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/122737）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司臺中市電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供臺中市電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：臺中市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司臺中市電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/122738）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司臺南市電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供臺南市電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：臺南市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司臺南市電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/122739）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司高雄市電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供高雄市電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：高雄市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司高雄市電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/122740）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司配電系統重大事故停電速報案件記錄」由配電處彙整並對外開放，主要紀錄：提供「電業事故通報程序標準」通報之歷史速報停電紀錄。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為配電相關資料集。
+【2. 應用場景】
+配電線路與饋線負載管理與事故分析、線路地下化或設備更新優先順序規劃、停電事件統計與品質監理指標追蹤
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+資料內容多半包含時間、區域或設備/用戶等識別欄位，以及對應的電力相關指標（如用電量、容量、次數、金額等）。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「配電系統重大事故停電速報條件說明如下：
+1.重點、重要設施用戶或重要集會公共場所之事故停電。
+2.科學園區、加工出口區、工業區或企業營運總部停電或限電。
+3.二次變電所事故引起用戶停電或限電。
+4.工作停電逾時一小時(含)且用戶數1000戶(含)以上。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司配電系統重大事故停電速報案件記錄」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/122741）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：配電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「配電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「核能發電後端營運基金放射性廢棄物貯存及核電廠除役完成前回饋要點」由核能後端營運處彙整並對外開放，主要紀錄：本資料集係核能發電後端營運基金管理會為推動核能發電放射性廢棄物貯存作業與完成核電廠除役作業，增進放射性廢棄物貯存設施及核電廠地方周遭居民福祉，訂定本要點。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+核能後端營運處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：核能發電後端營運基金、除役）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「核能發電後端營運基金放射性廢棄物貯存及核電廠除役完成前回饋要點」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/133848）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司核電廠除役期間地方回饋金估列及支出情形」由核能後端營運處彙整並對外開放，主要紀錄：本資料集係核能發電後端營運基金估列及支出情形，供社會大眾參閱，有助於提升基金運用之信賴感。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+核能後端營運處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：除役、核電廠）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司核電廠除役期間地方回饋金估列及支出情形」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/133849）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司基隆市電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供基隆市電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：基隆市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司基隆市電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139305）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司新竹市電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供新竹市電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：新竹市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司新竹市電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139306）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司新竹縣電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供新竹縣電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：新竹縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司新竹縣電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139307）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司苗栗縣電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供苗栗縣電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：苗栗縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司苗栗縣電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139310）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司南投縣電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供南投縣電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：南投縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司南投縣電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139312）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司彰化縣電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供彰化縣電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：彰化縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司彰化縣電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139313）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司雲林縣電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供雲林縣電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：雲林縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司雲林縣電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139314）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司嘉義市電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供嘉義市電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：嘉義市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司嘉義市電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139315）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司嘉義縣電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供嘉義縣電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：嘉義縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司嘉義縣電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139317）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司屏東縣電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供屏東縣電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：屏東縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司屏東縣電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139318）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司宜蘭縣電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供宜蘭縣電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：宜蘭縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司宜蘭縣電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139319）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司花蓮縣電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供花蓮縣電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：花蓮縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司花蓮縣電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139320）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司臺東縣電桿坐標及桿號」由配電處彙整並對外開放，主要紀錄：提供臺東縣電桿坐標、桿號及所屬行政區資訊。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：臺東縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司臺東縣電桿坐標及桿號」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139324）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司被核安會開立注意改進事項」由核能安全處彙整並對外開放，主要紀錄：本資料為提供台電公司被核安會開立注改事項資料，可供大眾了解本公司改善情形。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+核能安全處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：注改事項資料）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司被核安會開立注意改進事項」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/139348）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司各縣市路燈用電量統計」由業務處彙整並對外開放，主要紀錄：提供上一年度各縣市路燈用電量統計。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「111年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：用電、路燈）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「用戶數係年底數，售電量為全年累計數。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司各縣市路燈用電量統計」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/152419）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司年度電力品質報告」由電力調度處彙整並對外開放，主要紀錄：本資料集係年度電力品質報告，內容提供年度電網系統頻率、電壓實績以及停電事故的發生件數。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「112年會計處依中央政府函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：電力品質）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司年度電力品質報告」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/161296）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司全國各縣市再生能源可併網容量」由配電處彙整並對外開放，主要紀錄：提供全國各縣市的饋線可併網容量、變壓器的TWD67X、Y座標値及所屬饋線資訊。主題範圍涵蓋「能源管理」領域中的「再生能源發展」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「本資料集包含全台各縣市再生能源可併網容量資料，如需單獨下載各縣市資料可至以下連結，或於本平台搜尋後下載：
+臺北市(https://data.gov.tw/dataset/44193) 新北市(https://data.gov.tw/dataset/44194)
+桃園市(https://data.gov.tw/dataset/44195) 臺中市(https://data.gov.tw/dataset/44196)
+臺南市(https://data.gov.tw/dataset/44202) 高雄市(https://data.gov.tw/dataset/44203)
+基隆市(https://data.gov.tw/dataset/111479) 新竹縣市(https://data.gov.tw/dataset/80285)
+屏東縣(https://data.gov.tw/dataset/44209) 嘉義縣市(https://data.gov.tw/dataset/44204)
+苗栗縣(https://data.gov.tw/dataset/44206) 彰化縣(https://data.gov.tw/dataset/44207)
+南投縣(https://data.gov.tw/dataset/111480) 雲林縣(https://data.gov.tw/dataset/44208)
+宜蘭縣(https://data.gov.tw/dataset/111481) 花蓮縣(https://data.gov.tw/dataset/111483)
+臺東縣(https://data.gov.tw/dataset/111484)。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司全國各縣市再生能源可併網容量」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/161874）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司歷年員工人數」由人力資源處彙整並對外開放，主要紀錄：提供台灣電力公司歷年(1992年至今)員工性別人數分布。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「112年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：歷年員工人數、員工人數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司歷年員工人數」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/162177）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司歷年平均年齡」由人力資源處彙整並對外開放，主要紀錄：提供台灣電力公司歷年(1992年至今)員工平均年齡。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「112年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：歷年員工平均年齡、平均年齡、年齡）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司歷年平均年齡」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/162178）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司年齡年資分布」由人力資源處彙整並對外開放，主要紀錄：提供台灣電力公司前月派、僱用人員年齡及年資人數分布。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「112年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：年齡年資分布、年齡、年資）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司年齡年資分布」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/162179）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司業務量及員工人數」由人力資源處彙整並對外開放，主要紀錄：提供台灣電力公司歷年(1992年至今)業務量及員工人數成長率(以1992年為基期計算)。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「112年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：歷年業務量及員工人數成長率、業務量、員工人數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司業務量及員工人數」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/162180）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司今日系統供需狀況」由電力調度處彙整並對外開放，主要紀錄：提供今日每10分鐘目前用電量、今日最大供電能力及使用率資訊。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：今日用電、系統供需狀況）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每10分。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「1.使用率 = (目前用電量 ÷ 供電能力)×100%；其中供電能力為估算值，係參考機組狀況及再生能源發電量適時更新。
+2.尖峰使用率 = (預估最高用電 ÷ 最大供電能力)×100%。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司今日系統供需狀況」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/162595）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司今日區域別用電情況」由電力調度處彙整並對外開放，主要紀錄：提供今日區域別用電情況。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：今日用電、區域別）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每10分。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「各區域發電量劃分，原則先以電廠所在地理位置劃分北、中、南、東四區；區域用電量則再依中送北、南送中、南送東、中送東電力潮流量調整得出。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司今日區域別用電情況」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/162596）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司小商店用戶每月平均用電度數及電費」由業務處彙整並對外開放，主要紀錄：本資料為提供小商店用戶每月用電資料，可供大眾了解小商店用戶每月的平均用電度數及電費情形。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+用電行為與用戶分群研究（住宅、產業、商業等）、電價結構、費率方案與分時電價成效評估、契約容量、尖離峰用電與帳單優化分析
+【3. 背景資訊】
+業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：用電、小商店）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司小商店用戶每月平均用電度數及電費」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/162740）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司出租作電動機車電池交換站使用之租賃據點」由財務處彙整並對外開放，主要紀錄：此資料集內容包含台電公司之土地出租供電動機車電池交換站使用據點之位置及數量。主題範圍涵蓋「能源管理/交通運輸」領域中的「電力供需/低碳交通」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+財務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理/交通運輸相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「交通及通訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：台電、出租、電動機車、電池交換站）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司出租作電動機車電池交換站使用之租賃據點」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/165894）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司蒐整國際電業公司每戶停電時間及每戶停電次數」由企劃處彙整並對外開放，主要紀錄：提供可與台電系統規模進行重要績效比較且資料齊全之國際電業公司每戶停電時間(分/戶•年)及每戶停電次數(次/戶•年)。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+企劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：每戶停電時間、每戶停電次數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+【5. 使用限制與注意事項】
+需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司蒐整國際電業公司每戶停電時間及每戶停電次數」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/166244）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司出租臨時平面停車場土地設置充電樁分布」由新事業開發室彙整並對外開放，主要紀錄：提供台電公司出租臨時平面停車場，由承租人設置充電樁之位置及數量。主題範圍涵蓋「能源管理/交通運輸」領域中的「電力供需/低碳交通」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+新事業開發室為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理/交通運輸相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「交通及通訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：充電樁）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司出租臨時平面停車場土地設置充電樁分布」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/166557）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司發電機組發電排程與系統備轉容量之調度規劃」由電力調度處彙整並對外開放，主要紀錄：本資料集提供機組發電排程與系統備轉容量之規劃。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為發電相關資料集。
+【2. 應用場景】
+發電效率與不同機組/電廠之間的績效比較、再生能源併網比例與尖峰供電能力評估、機組調度策略與維修排程之支援分析
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：發電排程）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司發電機組發電排程與系統備轉容量之調度規劃」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/166609）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：發電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「發電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司電力系統緊急調度原則」由電力調度處彙整並對外開放，主要紀錄：本資料集提供電力系統常遇緊急之情事與調度原則。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：緊急調度）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司電力系統緊急調度原則」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/166610）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司「電源不足時期限制用電辦法」執行及通報機制」由電力調度處彙整並對外開放，主要紀錄：本資料集提供電力系統於實際或預估供電餘裕未達各階段標準時，執行各項因應措施之依據。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：電源不足）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司「電源不足時期限制用電辦法」執行及通報機制」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/166611）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司輸變電計畫資訊」由系統規劃處彙整並對外開放，主要紀錄：本資料集提供台電公司輸變電計畫供大眾了解。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+系統規劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：輸變電計畫）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司輸變電計畫資訊」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/166619）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司郝明義提問配電變壓器採V-V接線疑義」由配電處彙整並對外開放，主要紀錄：本資料集提供台電配電變壓器採V-V接線說明。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為配電相關資料集。
+【2. 應用場景】
+配電線路與饋線負載管理與事故分析、線路地下化或設備更新優先順序規劃、停電事件統計與品質監理指標追蹤
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：配電變壓器採V-V接線疑義）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司郝明義提問配電變壓器採V-V接線疑義」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/166642）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：配電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「配電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司配電線路事故分析」由配電處彙整並對外開放，主要紀錄：本資料集提供台電配電線路事故分析資料，可供大眾了解停電事故情形。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為配電相關資料集。
+【2. 應用場景】
+配電線路與饋線負載管理與事故分析、線路地下化或設備更新優先順序規劃、停電事件統計與品質監理指標追蹤
+【3. 背景資訊】
+配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：配電線路事故分析）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司配電線路事故分析」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/166643）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：配電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「配電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司即時說明」由公眾服務處彙整並對外開放，主要紀錄：提供台灣電力公司網站發佈的即時新聞澄清說明，讓各界充分瞭解台電現況，以利有效資訊揭露及溝通。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+公眾服務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「113年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：即時說明、台電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司即時說明」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/171197）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司澄清專區」由公眾服務處彙整並對外開放，主要紀錄：提供台灣電力公司網站發佈的防詐闢謠資訊，以利民眾識別錯假訊息，保護財產安全。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。
+【2. 應用場景】
+能源政策與公共服務成效評估、跨年度趨勢追蹤與區域差異比較、作為學術研究與資料視覺化展示的基礎資料
+【3. 背景資訊】
+公眾服務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「114年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：澄清專區、詐騙、謠言、台電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+【5. 使用限制與注意事項】
+原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司澄清專區」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/173795）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
+「台灣電力公司公用售電業售電統計資料」由企劃處彙整並對外開放，主要紀錄：追蹤台灣公用售電業的年度營運狀況，提供售電量、用戶數及平均電價的歷史統計數據，以供能源政策分析與市場研究。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：歷史資料，涵蓋資料集發布以來的所有年度數據；地理範圍：台灣全島。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+分析台灣整體電力消費趨勢與年度用電成長率。、研究平均電價的歷史變動，作為制定能源價格政策的參考。、評估公用售電業的用戶結構變化與市場規模。
+【3. 背景資訊】
+企劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「103年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+重要欄位與主題大致可從關鍵字（例如：電燈、行業別用電、平均電價、用戶數、非營業用、營業用、政府統計）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年 / 全台」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年更新一次，發布時間約為統計年度結束後 1-3 個月。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋台灣全島公用售電業的年度歷史統計數據。。 在準確性與一致性方面，官方統計、定期驗證。 適合進行宏觀的電力市場分析與長期趨勢研究，不適用於即時或區域性分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司公用售電業售電統計資料」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/6064）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3170,7 +5633,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3180,6 +5643,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3221,24 +5691,35 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3280,7 +5761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3312,9 +5793,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3346,6 +5845,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3521,12 +6038,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -3575,7 +6094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="409.6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3615,11 +6134,11 @@
       <c r="N2" t="s">
         <v>827</v>
       </c>
-      <c r="O2" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3657,10 +6176,10 @@
         <v>827</v>
       </c>
       <c r="O3" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3704,10 +6223,10 @@
         <v>827</v>
       </c>
       <c r="O4" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3748,10 +6267,10 @@
         <v>828</v>
       </c>
       <c r="O5" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3795,10 +6314,10 @@
         <v>827</v>
       </c>
       <c r="O6" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3836,10 +6355,10 @@
         <v>829</v>
       </c>
       <c r="O7" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3877,10 +6396,10 @@
         <v>827</v>
       </c>
       <c r="O8" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3921,10 +6440,10 @@
         <v>830</v>
       </c>
       <c r="O9" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3965,10 +6484,10 @@
         <v>830</v>
       </c>
       <c r="O10" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4009,10 +6528,10 @@
         <v>830</v>
       </c>
       <c r="O11" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4056,10 +6575,10 @@
         <v>831</v>
       </c>
       <c r="O12" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4100,10 +6619,10 @@
         <v>831</v>
       </c>
       <c r="O13" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4138,10 +6657,10 @@
         <v>831</v>
       </c>
       <c r="O14" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4185,10 +6704,10 @@
         <v>831</v>
       </c>
       <c r="O15" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4229,10 +6748,10 @@
         <v>831</v>
       </c>
       <c r="O16" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4267,10 +6786,10 @@
         <v>832</v>
       </c>
       <c r="O17" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4305,10 +6824,10 @@
         <v>832</v>
       </c>
       <c r="O18" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4352,10 +6871,10 @@
         <v>833</v>
       </c>
       <c r="O19" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4393,10 +6912,10 @@
         <v>831</v>
       </c>
       <c r="O20" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4437,10 +6956,10 @@
         <v>831</v>
       </c>
       <c r="O21" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4475,10 +6994,10 @@
         <v>831</v>
       </c>
       <c r="O22" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4513,10 +7032,10 @@
         <v>831</v>
       </c>
       <c r="O23" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4554,10 +7073,10 @@
         <v>831</v>
       </c>
       <c r="O24" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4592,10 +7111,10 @@
         <v>831</v>
       </c>
       <c r="O25" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4636,10 +7155,10 @@
         <v>831</v>
       </c>
       <c r="O26" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4677,10 +7196,10 @@
         <v>831</v>
       </c>
       <c r="O27" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4724,10 +7243,10 @@
         <v>831</v>
       </c>
       <c r="O28" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4771,10 +7290,10 @@
         <v>831</v>
       </c>
       <c r="O29" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4815,10 +7334,10 @@
         <v>831</v>
       </c>
       <c r="O30" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4862,10 +7381,10 @@
         <v>831</v>
       </c>
       <c r="O31" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4909,10 +7428,10 @@
         <v>831</v>
       </c>
       <c r="O32" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4953,10 +7472,10 @@
         <v>831</v>
       </c>
       <c r="O33" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5000,10 +7519,10 @@
         <v>828</v>
       </c>
       <c r="O34" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5038,10 +7557,10 @@
         <v>831</v>
       </c>
       <c r="O35" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5076,10 +7595,10 @@
         <v>832</v>
       </c>
       <c r="O36" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5114,10 +7633,10 @@
         <v>832</v>
       </c>
       <c r="O37" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5158,10 +7677,10 @@
         <v>831</v>
       </c>
       <c r="O38" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5196,10 +7715,10 @@
         <v>832</v>
       </c>
       <c r="O39" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5234,10 +7753,10 @@
         <v>832</v>
       </c>
       <c r="O40" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5281,10 +7800,10 @@
         <v>832</v>
       </c>
       <c r="O41" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5322,10 +7841,10 @@
         <v>831</v>
       </c>
       <c r="O42" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5363,10 +7882,10 @@
         <v>831</v>
       </c>
       <c r="O43" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5410,10 +7929,10 @@
         <v>831</v>
       </c>
       <c r="O44" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5448,10 +7967,10 @@
         <v>831</v>
       </c>
       <c r="O45" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5486,10 +8005,10 @@
         <v>831</v>
       </c>
       <c r="O46" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5533,10 +8052,10 @@
         <v>831</v>
       </c>
       <c r="O47" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5574,10 +8093,10 @@
         <v>831</v>
       </c>
       <c r="O48" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5615,10 +8134,10 @@
         <v>834</v>
       </c>
       <c r="O49" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5656,10 +8175,10 @@
         <v>834</v>
       </c>
       <c r="O50" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5697,10 +8216,10 @@
         <v>834</v>
       </c>
       <c r="O51" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5738,10 +8257,10 @@
         <v>834</v>
       </c>
       <c r="O52" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5785,10 +8304,10 @@
         <v>834</v>
       </c>
       <c r="O53" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5829,10 +8348,10 @@
         <v>834</v>
       </c>
       <c r="O54" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5873,10 +8392,10 @@
         <v>834</v>
       </c>
       <c r="O55" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5917,10 +8436,10 @@
         <v>834</v>
       </c>
       <c r="O56" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5955,10 +8474,10 @@
         <v>834</v>
       </c>
       <c r="O57" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5999,10 +8518,10 @@
         <v>834</v>
       </c>
       <c r="O58" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6037,10 +8556,10 @@
         <v>834</v>
       </c>
       <c r="O59" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6075,10 +8594,10 @@
         <v>834</v>
       </c>
       <c r="O60" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6113,10 +8632,10 @@
         <v>834</v>
       </c>
       <c r="O61" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6157,10 +8676,10 @@
         <v>834</v>
       </c>
       <c r="O62" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6195,10 +8714,10 @@
         <v>834</v>
       </c>
       <c r="O63" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6233,10 +8752,10 @@
         <v>834</v>
       </c>
       <c r="O64" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="15">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6271,10 +8790,10 @@
         <v>834</v>
       </c>
       <c r="O65" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6309,10 +8828,10 @@
         <v>834</v>
       </c>
       <c r="O66" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6350,10 +8869,10 @@
         <v>834</v>
       </c>
       <c r="O67" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6394,10 +8913,10 @@
         <v>834</v>
       </c>
       <c r="O68" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6438,10 +8957,10 @@
         <v>834</v>
       </c>
       <c r="O69" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6482,10 +9001,10 @@
         <v>834</v>
       </c>
       <c r="O70" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6520,10 +9039,10 @@
         <v>834</v>
       </c>
       <c r="O71" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6558,10 +9077,10 @@
         <v>834</v>
       </c>
       <c r="O72" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6596,10 +9115,10 @@
         <v>834</v>
       </c>
       <c r="O73" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6637,10 +9156,10 @@
         <v>834</v>
       </c>
       <c r="O74" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6681,10 +9200,10 @@
         <v>834</v>
       </c>
       <c r="O75" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6722,10 +9241,10 @@
         <v>834</v>
       </c>
       <c r="O76" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6763,10 +9282,10 @@
         <v>834</v>
       </c>
       <c r="O77" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6807,10 +9326,10 @@
         <v>834</v>
       </c>
       <c r="O78" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6851,10 +9370,10 @@
         <v>834</v>
       </c>
       <c r="O79" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6895,10 +9414,10 @@
         <v>834</v>
       </c>
       <c r="O80" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6933,10 +9452,10 @@
         <v>834</v>
       </c>
       <c r="O81" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6971,10 +9490,10 @@
         <v>834</v>
       </c>
       <c r="O82" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7009,10 +9528,10 @@
         <v>834</v>
       </c>
       <c r="O83" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="15">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7056,10 +9575,10 @@
         <v>834</v>
       </c>
       <c r="O84" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7103,10 +9622,10 @@
         <v>834</v>
       </c>
       <c r="O85" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7150,10 +9669,10 @@
         <v>834</v>
       </c>
       <c r="O86" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="15">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7194,10 +9713,10 @@
         <v>834</v>
       </c>
       <c r="O87" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="15">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7238,10 +9757,10 @@
         <v>834</v>
       </c>
       <c r="O88" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7282,10 +9801,10 @@
         <v>834</v>
       </c>
       <c r="O89" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7326,10 +9845,10 @@
         <v>834</v>
       </c>
       <c r="O90" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="15">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7370,10 +9889,10 @@
         <v>834</v>
       </c>
       <c r="O91" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="15">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7417,10 +9936,10 @@
         <v>834</v>
       </c>
       <c r="O92" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="15">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7464,10 +9983,10 @@
         <v>834</v>
       </c>
       <c r="O93" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="15">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7511,10 +10030,10 @@
         <v>834</v>
       </c>
       <c r="O94" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="15">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7558,10 +10077,10 @@
         <v>834</v>
       </c>
       <c r="O95" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="15">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7602,10 +10121,10 @@
         <v>834</v>
       </c>
       <c r="O96" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7646,10 +10165,10 @@
         <v>835</v>
       </c>
       <c r="O97" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7684,10 +10203,10 @@
         <v>835</v>
       </c>
       <c r="O98" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="15">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7725,10 +10244,10 @@
         <v>835</v>
       </c>
       <c r="O99" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="15">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7766,10 +10285,10 @@
         <v>835</v>
       </c>
       <c r="O100" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="15">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7807,10 +10326,10 @@
         <v>835</v>
       </c>
       <c r="O101" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="15">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7848,10 +10367,10 @@
         <v>835</v>
       </c>
       <c r="O102" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7889,10 +10408,10 @@
         <v>835</v>
       </c>
       <c r="O103" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="15">
       <c r="A104">
         <v>102</v>
       </c>
@@ -7930,10 +10449,10 @@
         <v>835</v>
       </c>
       <c r="O104" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="15">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7971,10 +10490,10 @@
         <v>835</v>
       </c>
       <c r="O105" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="15">
       <c r="A106">
         <v>104</v>
       </c>
@@ -8012,10 +10531,10 @@
         <v>835</v>
       </c>
       <c r="O106" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="15">
       <c r="A107">
         <v>105</v>
       </c>
@@ -8053,10 +10572,10 @@
         <v>835</v>
       </c>
       <c r="O107" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="15">
       <c r="A108">
         <v>106</v>
       </c>
@@ -8094,10 +10613,10 @@
         <v>835</v>
       </c>
       <c r="O108" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="15">
       <c r="A109">
         <v>107</v>
       </c>
@@ -8135,10 +10654,10 @@
         <v>835</v>
       </c>
       <c r="O109" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="15">
       <c r="A110">
         <v>108</v>
       </c>
@@ -8182,10 +10701,10 @@
         <v>835</v>
       </c>
       <c r="O110" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="15">
       <c r="A111">
         <v>109</v>
       </c>
@@ -8220,10 +10739,10 @@
         <v>835</v>
       </c>
       <c r="O111" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="15">
       <c r="A112">
         <v>110</v>
       </c>
@@ -8258,10 +10777,10 @@
         <v>835</v>
       </c>
       <c r="O112" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="15">
       <c r="A113">
         <v>111</v>
       </c>
@@ -8299,10 +10818,10 @@
         <v>836</v>
       </c>
       <c r="O113" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="15">
       <c r="A114">
         <v>112</v>
       </c>
@@ -8346,10 +10865,10 @@
         <v>836</v>
       </c>
       <c r="O114" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15">
       <c r="A115">
         <v>113</v>
       </c>
@@ -8393,10 +10912,10 @@
         <v>836</v>
       </c>
       <c r="O115" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="15">
       <c r="A116">
         <v>114</v>
       </c>
@@ -8440,10 +10959,10 @@
         <v>836</v>
       </c>
       <c r="O116" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="15">
       <c r="A117">
         <v>115</v>
       </c>
@@ -8487,10 +11006,10 @@
         <v>836</v>
       </c>
       <c r="O117" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="15">
       <c r="A118">
         <v>116</v>
       </c>
@@ -8534,10 +11053,10 @@
         <v>836</v>
       </c>
       <c r="O118" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="15">
       <c r="A119">
         <v>117</v>
       </c>
@@ -8581,10 +11100,10 @@
         <v>836</v>
       </c>
       <c r="O119" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="15">
       <c r="A120">
         <v>118</v>
       </c>
@@ -8628,10 +11147,10 @@
         <v>836</v>
       </c>
       <c r="O120" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="15">
       <c r="A121">
         <v>119</v>
       </c>
@@ -8675,10 +11194,10 @@
         <v>836</v>
       </c>
       <c r="O121" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="15">
       <c r="A122">
         <v>120</v>
       </c>
@@ -8722,10 +11241,10 @@
         <v>836</v>
       </c>
       <c r="O122" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="15">
       <c r="A123">
         <v>121</v>
       </c>
@@ -8769,10 +11288,10 @@
         <v>836</v>
       </c>
       <c r="O123" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="15">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8816,10 +11335,10 @@
         <v>836</v>
       </c>
       <c r="O124" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="15">
       <c r="A125">
         <v>123</v>
       </c>
@@ -8863,10 +11382,10 @@
         <v>836</v>
       </c>
       <c r="O125" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="15">
       <c r="A126">
         <v>124</v>
       </c>
@@ -8910,10 +11429,10 @@
         <v>836</v>
       </c>
       <c r="O126" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="15">
       <c r="A127">
         <v>125</v>
       </c>
@@ -8957,10 +11476,10 @@
         <v>836</v>
       </c>
       <c r="O127" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="15">
       <c r="A128">
         <v>126</v>
       </c>
@@ -9004,10 +11523,10 @@
         <v>836</v>
       </c>
       <c r="O128" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="15">
       <c r="A129">
         <v>127</v>
       </c>
@@ -9051,10 +11570,10 @@
         <v>836</v>
       </c>
       <c r="O129" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="15">
       <c r="A130">
         <v>128</v>
       </c>
@@ -9098,10 +11617,10 @@
         <v>836</v>
       </c>
       <c r="O130" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="15">
       <c r="A131">
         <v>129</v>
       </c>
@@ -9145,10 +11664,10 @@
         <v>836</v>
       </c>
       <c r="O131" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="15">
       <c r="A132">
         <v>130</v>
       </c>
@@ -9192,10 +11711,10 @@
         <v>836</v>
       </c>
       <c r="O132" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="15">
       <c r="A133">
         <v>131</v>
       </c>
@@ -9236,10 +11755,10 @@
         <v>837</v>
       </c>
       <c r="O133" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="15">
       <c r="A134">
         <v>132</v>
       </c>
@@ -9280,10 +11799,10 @@
         <v>837</v>
       </c>
       <c r="O134" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="15">
       <c r="A135">
         <v>133</v>
       </c>
@@ -9327,10 +11846,10 @@
         <v>837</v>
       </c>
       <c r="O135" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="15">
       <c r="A136">
         <v>134</v>
       </c>
@@ -9368,10 +11887,10 @@
         <v>837</v>
       </c>
       <c r="O136" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="15">
       <c r="A137">
         <v>135</v>
       </c>
@@ -9409,10 +11928,10 @@
         <v>837</v>
       </c>
       <c r="O137" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="15">
       <c r="A138">
         <v>136</v>
       </c>
@@ -9450,10 +11969,10 @@
         <v>837</v>
       </c>
       <c r="O138" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="15">
       <c r="A139">
         <v>137</v>
       </c>
@@ -9491,10 +12010,10 @@
         <v>837</v>
       </c>
       <c r="O139" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="15">
       <c r="A140">
         <v>138</v>
       </c>
@@ -9532,10 +12051,10 @@
         <v>837</v>
       </c>
       <c r="O140" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="15">
       <c r="A141">
         <v>139</v>
       </c>
@@ -9576,10 +12095,10 @@
         <v>838</v>
       </c>
       <c r="O141" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="15">
       <c r="A142">
         <v>140</v>
       </c>
@@ -9620,10 +12139,10 @@
         <v>838</v>
       </c>
       <c r="O142" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="15">
       <c r="A143">
         <v>141</v>
       </c>
@@ -9664,10 +12183,10 @@
         <v>838</v>
       </c>
       <c r="O143" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="15">
       <c r="A144">
         <v>142</v>
       </c>
@@ -9705,10 +12224,10 @@
         <v>838</v>
       </c>
       <c r="O144" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="15">
       <c r="A145">
         <v>143</v>
       </c>
@@ -9746,10 +12265,10 @@
         <v>838</v>
       </c>
       <c r="O145" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="15">
       <c r="A146">
         <v>144</v>
       </c>
@@ -9787,10 +12306,10 @@
         <v>838</v>
       </c>
       <c r="O146" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="15">
       <c r="A147">
         <v>145</v>
       </c>
@@ -9828,10 +12347,10 @@
         <v>838</v>
       </c>
       <c r="O147" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="15">
       <c r="A148">
         <v>146</v>
       </c>
@@ -9869,10 +12388,10 @@
         <v>838</v>
       </c>
       <c r="O148" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="15">
       <c r="A149">
         <v>147</v>
       </c>
@@ -9910,10 +12429,10 @@
         <v>838</v>
       </c>
       <c r="O149" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="15">
       <c r="A150">
         <v>148</v>
       </c>
@@ -9954,10 +12473,10 @@
         <v>838</v>
       </c>
       <c r="O150" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="15">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9995,10 +12514,10 @@
         <v>838</v>
       </c>
       <c r="O151" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="15">
       <c r="A152">
         <v>150</v>
       </c>
@@ -10036,10 +12555,10 @@
         <v>838</v>
       </c>
       <c r="O152" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="15">
       <c r="A153">
         <v>151</v>
       </c>
@@ -10077,10 +12596,10 @@
         <v>839</v>
       </c>
       <c r="O153" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="15">
       <c r="A154">
         <v>152</v>
       </c>
@@ -10118,10 +12637,10 @@
         <v>839</v>
       </c>
       <c r="O154" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="15">
       <c r="A155">
         <v>153</v>
       </c>
@@ -10159,10 +12678,10 @@
         <v>839</v>
       </c>
       <c r="O155" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="15">
       <c r="A156">
         <v>154</v>
       </c>
@@ -10200,10 +12719,10 @@
         <v>839</v>
       </c>
       <c r="O156" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="15">
       <c r="A157">
         <v>155</v>
       </c>
@@ -10241,10 +12760,10 @@
         <v>839</v>
       </c>
       <c r="O157" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="15">
       <c r="A158">
         <v>156</v>
       </c>
@@ -10282,10 +12801,10 @@
         <v>839</v>
       </c>
       <c r="O158" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="15">
       <c r="A159">
         <v>157</v>
       </c>
@@ -10323,10 +12842,10 @@
         <v>839</v>
       </c>
       <c r="O159" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="15">
       <c r="A160">
         <v>158</v>
       </c>
@@ -10364,10 +12883,10 @@
         <v>839</v>
       </c>
       <c r="O160" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="15">
       <c r="A161">
         <v>159</v>
       </c>
@@ -10405,10 +12924,10 @@
         <v>839</v>
       </c>
       <c r="O161" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="15">
       <c r="A162">
         <v>160</v>
       </c>
@@ -10446,10 +12965,10 @@
         <v>839</v>
       </c>
       <c r="O162" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="15">
       <c r="A163">
         <v>161</v>
       </c>
@@ -10487,10 +13006,10 @@
         <v>839</v>
       </c>
       <c r="O163" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="15">
       <c r="A164">
         <v>162</v>
       </c>
@@ -10528,10 +13047,10 @@
         <v>839</v>
       </c>
       <c r="O164" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="15">
       <c r="A165">
         <v>163</v>
       </c>
@@ -10569,10 +13088,10 @@
         <v>839</v>
       </c>
       <c r="O165" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="15">
       <c r="A166">
         <v>164</v>
       </c>
@@ -10607,10 +13126,10 @@
         <v>839</v>
       </c>
       <c r="O166" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="15">
       <c r="A167">
         <v>165</v>
       </c>
@@ -10654,10 +13173,10 @@
         <v>840</v>
       </c>
       <c r="O167" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="15">
       <c r="A168">
         <v>166</v>
       </c>
@@ -10692,10 +13211,10 @@
         <v>841</v>
       </c>
       <c r="O168" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="15">
       <c r="A169">
         <v>167</v>
       </c>
@@ -10739,10 +13258,10 @@
         <v>842</v>
       </c>
       <c r="O169" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="15">
       <c r="A170">
         <v>168</v>
       </c>
@@ -10777,10 +13296,10 @@
         <v>843</v>
       </c>
       <c r="O170" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="15">
       <c r="A171">
         <v>169</v>
       </c>
@@ -10815,10 +13334,10 @@
         <v>843</v>
       </c>
       <c r="O171" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="15">
       <c r="A172">
         <v>170</v>
       </c>
@@ -10853,10 +13372,10 @@
         <v>843</v>
       </c>
       <c r="O172" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="15">
       <c r="A173">
         <v>171</v>
       </c>
@@ -10891,10 +13410,10 @@
         <v>843</v>
       </c>
       <c r="O173" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="15">
       <c r="A174">
         <v>172</v>
       </c>
@@ -10938,10 +13457,10 @@
         <v>842</v>
       </c>
       <c r="O174" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="15">
       <c r="A175">
         <v>173</v>
       </c>
@@ -10985,10 +13504,10 @@
         <v>842</v>
       </c>
       <c r="O175" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="15">
       <c r="A176">
         <v>174</v>
       </c>
@@ -11029,10 +13548,10 @@
         <v>842</v>
       </c>
       <c r="O176" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="15">
       <c r="A177">
         <v>175</v>
       </c>
@@ -11073,10 +13592,10 @@
         <v>842</v>
       </c>
       <c r="O177" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="15">
       <c r="A178">
         <v>176</v>
       </c>
@@ -11111,10 +13630,10 @@
         <v>842</v>
       </c>
       <c r="O178" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="15">
       <c r="A179">
         <v>177</v>
       </c>
@@ -11158,10 +13677,10 @@
         <v>842</v>
       </c>
       <c r="O179" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="15">
       <c r="A180">
         <v>178</v>
       </c>
@@ -11199,10 +13718,10 @@
         <v>828</v>
       </c>
       <c r="O180" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="15">
       <c r="A181">
         <v>179</v>
       </c>
@@ -11240,10 +13759,10 @@
         <v>828</v>
       </c>
       <c r="O181" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="15">
       <c r="A182">
         <v>180</v>
       </c>
@@ -11281,10 +13800,10 @@
         <v>828</v>
       </c>
       <c r="O182" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="15">
       <c r="A183">
         <v>181</v>
       </c>
@@ -11322,10 +13841,10 @@
         <v>828</v>
       </c>
       <c r="O183" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="15">
       <c r="A184">
         <v>182</v>
       </c>
@@ -11363,10 +13882,10 @@
         <v>828</v>
       </c>
       <c r="O184" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="15">
       <c r="A185">
         <v>183</v>
       </c>
@@ -11404,10 +13923,10 @@
         <v>828</v>
       </c>
       <c r="O185" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="15">
       <c r="A186">
         <v>184</v>
       </c>
@@ -11445,10 +13964,10 @@
         <v>844</v>
       </c>
       <c r="O186" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="15">
       <c r="A187">
         <v>185</v>
       </c>
@@ -11486,197 +14005,198 @@
         <v>845</v>
       </c>
       <c r="O187" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="I11" r:id="rId10"/>
-    <hyperlink ref="I12" r:id="rId11"/>
-    <hyperlink ref="I13" r:id="rId12"/>
-    <hyperlink ref="I14" r:id="rId13"/>
-    <hyperlink ref="I15" r:id="rId14"/>
-    <hyperlink ref="I16" r:id="rId15"/>
-    <hyperlink ref="I17" r:id="rId16"/>
-    <hyperlink ref="I18" r:id="rId17"/>
-    <hyperlink ref="I19" r:id="rId18"/>
-    <hyperlink ref="I20" r:id="rId19"/>
-    <hyperlink ref="I21" r:id="rId20"/>
-    <hyperlink ref="I22" r:id="rId21"/>
-    <hyperlink ref="I23" r:id="rId22"/>
-    <hyperlink ref="I24" r:id="rId23"/>
-    <hyperlink ref="I25" r:id="rId24"/>
-    <hyperlink ref="I26" r:id="rId25"/>
-    <hyperlink ref="I27" r:id="rId26"/>
-    <hyperlink ref="I28" r:id="rId27"/>
-    <hyperlink ref="I29" r:id="rId28"/>
-    <hyperlink ref="I30" r:id="rId29"/>
-    <hyperlink ref="I31" r:id="rId30"/>
-    <hyperlink ref="I32" r:id="rId31"/>
-    <hyperlink ref="I33" r:id="rId32"/>
-    <hyperlink ref="I34" r:id="rId33"/>
-    <hyperlink ref="I35" r:id="rId34"/>
-    <hyperlink ref="I36" r:id="rId35"/>
-    <hyperlink ref="I37" r:id="rId36"/>
-    <hyperlink ref="I38" r:id="rId37"/>
-    <hyperlink ref="I39" r:id="rId38"/>
-    <hyperlink ref="I40" r:id="rId39"/>
-    <hyperlink ref="I41" r:id="rId40"/>
-    <hyperlink ref="I42" r:id="rId41"/>
-    <hyperlink ref="I43" r:id="rId42"/>
-    <hyperlink ref="I44" r:id="rId43"/>
-    <hyperlink ref="I45" r:id="rId44"/>
-    <hyperlink ref="I46" r:id="rId45"/>
-    <hyperlink ref="I47" r:id="rId46"/>
-    <hyperlink ref="I48" r:id="rId47"/>
-    <hyperlink ref="I49" r:id="rId48"/>
-    <hyperlink ref="I50" r:id="rId49"/>
-    <hyperlink ref="I51" r:id="rId50"/>
-    <hyperlink ref="I52" r:id="rId51"/>
-    <hyperlink ref="I53" r:id="rId52"/>
-    <hyperlink ref="I54" r:id="rId53"/>
-    <hyperlink ref="I55" r:id="rId54"/>
-    <hyperlink ref="I56" r:id="rId55"/>
-    <hyperlink ref="I57" r:id="rId56"/>
-    <hyperlink ref="I58" r:id="rId57"/>
-    <hyperlink ref="I59" r:id="rId58"/>
-    <hyperlink ref="I60" r:id="rId59"/>
-    <hyperlink ref="I61" r:id="rId60"/>
-    <hyperlink ref="I62" r:id="rId61"/>
-    <hyperlink ref="I63" r:id="rId62"/>
-    <hyperlink ref="I64" r:id="rId63"/>
-    <hyperlink ref="I65" r:id="rId64"/>
-    <hyperlink ref="I66" r:id="rId65"/>
-    <hyperlink ref="I67" r:id="rId66"/>
-    <hyperlink ref="I68" r:id="rId67"/>
-    <hyperlink ref="I69" r:id="rId68"/>
-    <hyperlink ref="I70" r:id="rId69"/>
-    <hyperlink ref="I71" r:id="rId70"/>
-    <hyperlink ref="I72" r:id="rId71"/>
-    <hyperlink ref="I73" r:id="rId72"/>
-    <hyperlink ref="I74" r:id="rId73"/>
-    <hyperlink ref="I75" r:id="rId74"/>
-    <hyperlink ref="I76" r:id="rId75"/>
-    <hyperlink ref="I77" r:id="rId76"/>
-    <hyperlink ref="I78" r:id="rId77"/>
-    <hyperlink ref="I79" r:id="rId78"/>
-    <hyperlink ref="I80" r:id="rId79"/>
-    <hyperlink ref="I81" r:id="rId80"/>
-    <hyperlink ref="I82" r:id="rId81"/>
-    <hyperlink ref="I83" r:id="rId82"/>
-    <hyperlink ref="I84" r:id="rId83"/>
-    <hyperlink ref="I85" r:id="rId84"/>
-    <hyperlink ref="I86" r:id="rId85"/>
-    <hyperlink ref="I87" r:id="rId86"/>
-    <hyperlink ref="I88" r:id="rId87"/>
-    <hyperlink ref="I89" r:id="rId88"/>
-    <hyperlink ref="I90" r:id="rId89"/>
-    <hyperlink ref="I91" r:id="rId90"/>
-    <hyperlink ref="I92" r:id="rId91"/>
-    <hyperlink ref="I93" r:id="rId92"/>
-    <hyperlink ref="I94" r:id="rId93"/>
-    <hyperlink ref="I95" r:id="rId94"/>
-    <hyperlink ref="I96" r:id="rId95"/>
-    <hyperlink ref="I97" r:id="rId96"/>
-    <hyperlink ref="I98" r:id="rId97"/>
-    <hyperlink ref="I99" r:id="rId98"/>
-    <hyperlink ref="I100" r:id="rId99"/>
-    <hyperlink ref="I101" r:id="rId100"/>
-    <hyperlink ref="I102" r:id="rId101"/>
-    <hyperlink ref="I103" r:id="rId102"/>
-    <hyperlink ref="I104" r:id="rId103"/>
-    <hyperlink ref="I105" r:id="rId104"/>
-    <hyperlink ref="I106" r:id="rId105"/>
-    <hyperlink ref="I107" r:id="rId106"/>
-    <hyperlink ref="I108" r:id="rId107"/>
-    <hyperlink ref="I109" r:id="rId108"/>
-    <hyperlink ref="I110" r:id="rId109"/>
-    <hyperlink ref="I111" r:id="rId110"/>
-    <hyperlink ref="I112" r:id="rId111"/>
-    <hyperlink ref="I113" r:id="rId112"/>
-    <hyperlink ref="I114" r:id="rId113"/>
-    <hyperlink ref="I115" r:id="rId114"/>
-    <hyperlink ref="I116" r:id="rId115"/>
-    <hyperlink ref="I117" r:id="rId116"/>
-    <hyperlink ref="I118" r:id="rId117"/>
-    <hyperlink ref="I119" r:id="rId118"/>
-    <hyperlink ref="I120" r:id="rId119"/>
-    <hyperlink ref="I121" r:id="rId120"/>
-    <hyperlink ref="I122" r:id="rId121"/>
-    <hyperlink ref="I123" r:id="rId122"/>
-    <hyperlink ref="I124" r:id="rId123"/>
-    <hyperlink ref="I125" r:id="rId124"/>
-    <hyperlink ref="I126" r:id="rId125"/>
-    <hyperlink ref="I127" r:id="rId126"/>
-    <hyperlink ref="I128" r:id="rId127"/>
-    <hyperlink ref="I129" r:id="rId128"/>
-    <hyperlink ref="I130" r:id="rId129"/>
-    <hyperlink ref="I131" r:id="rId130"/>
-    <hyperlink ref="I132" r:id="rId131"/>
-    <hyperlink ref="I133" r:id="rId132"/>
-    <hyperlink ref="I134" r:id="rId133"/>
-    <hyperlink ref="I135" r:id="rId134"/>
-    <hyperlink ref="I136" r:id="rId135"/>
-    <hyperlink ref="I137" r:id="rId136"/>
-    <hyperlink ref="I138" r:id="rId137"/>
-    <hyperlink ref="I139" r:id="rId138"/>
-    <hyperlink ref="I140" r:id="rId139"/>
-    <hyperlink ref="I141" r:id="rId140"/>
-    <hyperlink ref="I142" r:id="rId141"/>
-    <hyperlink ref="I143" r:id="rId142"/>
-    <hyperlink ref="I144" r:id="rId143"/>
-    <hyperlink ref="I145" r:id="rId144"/>
-    <hyperlink ref="I146" r:id="rId145"/>
-    <hyperlink ref="I147" r:id="rId146"/>
-    <hyperlink ref="I148" r:id="rId147"/>
-    <hyperlink ref="I149" r:id="rId148"/>
-    <hyperlink ref="I150" r:id="rId149"/>
-    <hyperlink ref="I151" r:id="rId150"/>
-    <hyperlink ref="I152" r:id="rId151"/>
-    <hyperlink ref="I153" r:id="rId152"/>
-    <hyperlink ref="I154" r:id="rId153"/>
-    <hyperlink ref="I155" r:id="rId154"/>
-    <hyperlink ref="I156" r:id="rId155"/>
-    <hyperlink ref="I157" r:id="rId156"/>
-    <hyperlink ref="I158" r:id="rId157"/>
-    <hyperlink ref="I159" r:id="rId158"/>
-    <hyperlink ref="I160" r:id="rId159"/>
-    <hyperlink ref="I161" r:id="rId160"/>
-    <hyperlink ref="I162" r:id="rId161"/>
-    <hyperlink ref="I163" r:id="rId162"/>
-    <hyperlink ref="I164" r:id="rId163"/>
-    <hyperlink ref="I165" r:id="rId164"/>
-    <hyperlink ref="I166" r:id="rId165"/>
-    <hyperlink ref="I167" r:id="rId166"/>
-    <hyperlink ref="I168" r:id="rId167"/>
-    <hyperlink ref="I169" r:id="rId168"/>
-    <hyperlink ref="I170" r:id="rId169"/>
-    <hyperlink ref="I171" r:id="rId170"/>
-    <hyperlink ref="I172" r:id="rId171"/>
-    <hyperlink ref="I173" r:id="rId172"/>
-    <hyperlink ref="I174" r:id="rId173"/>
-    <hyperlink ref="I175" r:id="rId174"/>
-    <hyperlink ref="I176" r:id="rId175"/>
-    <hyperlink ref="I177" r:id="rId176"/>
-    <hyperlink ref="I178" r:id="rId177"/>
-    <hyperlink ref="I179" r:id="rId178"/>
-    <hyperlink ref="I180" r:id="rId179"/>
-    <hyperlink ref="I181" r:id="rId180"/>
-    <hyperlink ref="I182" r:id="rId181"/>
-    <hyperlink ref="I183" r:id="rId182"/>
-    <hyperlink ref="I184" r:id="rId183"/>
-    <hyperlink ref="I185" r:id="rId184"/>
-    <hyperlink ref="I186" r:id="rId185"/>
-    <hyperlink ref="I187" r:id="rId186"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="I52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="I56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="I70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="I73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="I74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="I75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="I76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="I78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="I79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="I80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="I81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="I82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="I83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="I84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="I85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="I86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="I87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="I88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="I89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="I90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="I91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="I92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="I93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="I94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="I95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="I96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="I97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="I98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="I99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="I100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="I101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="I102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="I104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="I105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="I106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="I107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="I108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="I109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="I110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="I111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="I112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="I113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="I114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="I115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="I116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="I117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="I118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="I119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="I120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="I121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="I122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="I123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="I124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="I125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="I126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="I127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="I128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="I129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="I130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="I131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="I132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="I133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="I134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="I135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="I136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="I137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="I138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="I139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="I140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="I141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="I142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="I143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="I144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="I145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="I146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="I147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="I148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="I149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="I150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="I151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="I152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="I153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="I154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="I155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="I156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="I157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="I158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="I159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="I160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="I161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="I162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="I163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="I164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="I165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="I166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="I167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="I168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="I169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="I170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="I171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="I172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="I173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="I174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="I175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="I176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="I177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="I178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="I179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="I180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="I181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="I182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="I183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="I184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="I185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="I186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="I187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/data/dataset_summary.xlsx
+++ b/public/data/dataset_summary.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smalloshin/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520A7D1B-370E-E54A-8808-052D4DB6385B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2600,13 +2594,29 @@
   </si>
   <si>
     <t>【1. 核心描述】
+「台灣電力公司公用售電業售電統計資料」由企劃處彙整並對外開放，主要紀錄：追蹤台灣公用售電業的年度營運狀況，提供售電量、用戶數及平均電價的歷史統計數據，以供能源政策分析與市場研究。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：歷史資料，涵蓋資料集發布以來的所有年度數據；地理範圍：台灣全島。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
+【2. 應用場景】
+分析台灣整體電力消費趨勢與年度用電成長率。、研究平均電價的歷史變動，作為制定能源價格政策的參考。、評估公用售電業的用戶結構變化與市場規模。
+【3. 背景資訊】
+企劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「103年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
+【4. 資料特徵】
+本資料集實際資料檔約包含 74 筆紀錄、14 個欄位。 欄位型態分布大致為：整數數值欄位11 個（例如：年度、電燈售電量(度)、電力售電量(度)）；浮點數值欄位3 個（例如：電燈平均單價(元)、電力平均單價(元)、平均單價合計(元)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年 / 全台」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年更新一次，發布時間約為統計年度結束後 1-3 個月。
+【5. 使用限制與注意事項】
+就資料完整性而言，涵蓋台灣全島公用售電業的年度歷史統計數據。。 在準確性與一致性方面，官方統計、定期驗證。 適合進行宏觀的電力市場分析與長期趨勢研究，不適用於即時或區域性分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
+【6. 潛在價值】
+「台灣電力公司公用售電業售電統計資料」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/6064）查詢更詳細的欄位與使用說明。
+【7. 其他補充（分類說明）】
+判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
+  </si>
+  <si>
+    <t>【1. 核心描述】
 「台灣電力公司服務據點相關資訊」由業務處彙整並對外開放，主要紀錄：說明台電所有服務據點的地理位置、聯絡方式及服務時間，方便民眾查詢與導航。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：歷史資料，反映當前服務據點狀態；地理範圍：台灣全島各縣市。
 【2. 應用場景】
 整合至地圖服務，提供使用者導航至最近的台電服務中心、協助政府或研究機構分析台電服務資源的地理分佈與覆蓋率、開發行動應用程式，讓民眾快速查詢服務據點的電話與營業時間
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「103年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台電、服務據點、服務電話）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一服務據點」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常1-2 週。
+本資料集實際資料檔約包含 289 筆紀錄、3 個欄位。 欄位型態分布大致為：文字描述欄位3 個（例如：服務單位、地址、開放對外電話）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一服務據點」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常1-2 週。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整覆蓋台灣電力公司所有對外服務據點。 在準確性與一致性方面，官方業務處提供，定期驗證。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 建議搭配地理資訊系統(GIS)進行空間分析，以優化服務資源配置。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2622,7 +2632,7 @@
 【3. 背景資訊】
 企劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「103年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：用電尖峰負載、備用容量率、政府統計）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年/全台」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度資料，通常於隔年第一季發布，延遲約 1-3 個月。
+本資料集實際資料檔約包含 43 筆紀錄、3 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：年度、尖峰負載(MW)）；浮點數值欄位1 個（例如：備用容量率(％)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年/全台」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度資料，通常於隔年第一季發布，延遲約 1-3 個月。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整覆蓋自民國71年起的歷史數據，備用容量率計算方式在111年有調整。 在準確性與一致性方面，官方統計，高度準確，定期發布。 原始資料備註中另有說明：「備用容量率111年起以夜間備用容量率呈現。」，使用前建議先行閱讀。 建議搭配經濟成長率或氣溫等資料進行長期趨勢分析，並注意111年後的定義變化。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2638,7 +2648,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：機組、發電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「發電機組別；每 10 分鐘」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每10分，實際發布時間通常極短，約 10 分鐘內發布。
+重要欄位與主題大致可從關鍵字（例如：機組、發電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「發電機組別；每 10 分鐘」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每10分，實際發布時間通常極短，約 10 分鐘內發布。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋台灣電力公司所有自有及外購發電機組的即時發電數據。。 在準確性與一致性方面，高度準確，由台灣電力公司電力調度處即時監測與發布。 適合用於即時電力監測與能源結構分析，應搭配其他電力供需數據進行全面評估。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2654,7 +2664,7 @@
 【3. 背景資訊】
 發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「103年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：機組、裝置容量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別發電廠及其內部機組設備」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常發生機組或電廠資訊異動時，即時或於短時間內更新。
+本資料集實際資料檔約包含 175 筆紀錄、11 個欄位。 欄位型態分布大致為：日期時間欄位1 個（例如：商轉日期）；整數數值欄位1 個（例如：裝置容量(瓩)）；類別/代碼欄位8 個（例如：電廠名稱、郵遞區號、地址-縣市鄉鎮）；文字描述欄位1 個（例如：機組名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別發電廠及其內部機組設備」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常發生機組或電廠資訊異動時，即時或於短時間內更新。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋台灣電力公司所有水力與火力發電廠及其機組設備資訊。 在準確性與一致性方面，官方資料，由台灣電力公司發電處直接提供與維護，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 可與發電量、電力負載等資料結合，進行更全面的能源供需與設施分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2670,7 +2680,7 @@
 【3. 背景資訊】
 核能後端營運處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依國發會建議將研究結果開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：蘭嶼、居民）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每5年。
+重要欄位與主題大致可從關鍵字（例如：蘭嶼、居民）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每5年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「依「輻射工作場所管理與場所外環境輻射監測作業準則」規定，更新蘭嶼貯存場環測結果之民眾劑量評估所需之相關參數，調查蘭嶼地區居民分布、居民使用量因子及農、漁、牧產量與消耗量，以做為規劃之依據。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2686,7 +2696,7 @@
 【3. 背景資訊】
 綜合研究所為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「103年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台電、研究主題）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 139 筆紀錄、5 個欄位。 欄位型態分布大致為：浮點數值欄位1 個（例如：項次）；類別/代碼欄位1 個（例如：聯絡人）；文字描述欄位3 個（例如：研究主題、研究重點、聯絡電話）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「依據經濟部所屬各事業科學與技術類委託研究計畫作業規定，公告本公司年度委託研究之主題及重點，供產學界參與委託研究。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2702,7 +2712,7 @@
 【3. 背景資訊】
 燃料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「依行政院指示開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：燃煤長約）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年 (年度議定價格)」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度議價完成後發布，約每年一次。
+本資料集實際資料檔約包含 3 筆紀錄、2 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：年度）；類別/代碼欄位1 個（例如：日澳長約年度價格(美元/公噸 @6322 GAR)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年 (年度議定價格)」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度議價完成後發布，約每年一次。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋近三年年度議定價格。 在準確性與一致性方面，台灣電力公司燃料處提供，為官方議價結果，高度準確。 應搭配其他燃料採購或發電成本資料集，進行綜合性的能源價格分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2718,7 +2728,7 @@
 【3. 背景資訊】
 燃料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「依行政院指示開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：燃煤現貨、價格）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「季度平均價格」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每3月，實際發布時間通常約 1-2 個月（季度結束後）。
+本資料集實際資料檔約包含 12 筆紀錄、3 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：年度、季）；浮點數值欄位1 個（例如：澳煤現貨離岸價格(NEX)季平均(美元/公噸@ 6322 GAR)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「季度平均價格」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每3月，實際發布時間通常約 1-2 個月（季度結束後）。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋近三年澳洲燃煤現貨離岸價格的季度平均數據。 在準確性與一致性方面，高度準確、官方統計、定期驗證。 建議搭配台電的燃煤採購量與發電量數據，進行更全面的成本效益分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2734,7 +2744,7 @@
 【3. 背景資訊】
 燃料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「依行政院指示開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：天然氣、價格）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常每月更新，通常為上個月底或次月上旬發布。
+本資料集實際資料檔約包含 12 筆紀錄、4 個欄位。 欄位型態分布大致為：整數數值欄位3 個（例如：年度、累計至該月、天然氣統約數量(百萬立方公尺)）；浮點數值欄位1 個（例如：天然氣統約平均單價(元/立方公尺)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常每月更新，通常為上個月底或次月上旬發布。
 【5. 使用限制與注意事項】
 就資料完整性而言，涵蓋過去十年，為台電公司層級的完整採購數據。 在準確性與一致性方面，官方統計、定期驗證。 應搭配國際天然氣價格資料，進行成本效益分析與長期趨勢預測。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2750,7 +2760,7 @@
 【3. 背景資訊】
 企劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：電業、經營績效）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年/全台」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年底結算後發布，推測為 1-3 個月。
+本資料集實際資料檔約包含 70 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：年度）；浮點數值欄位1 個（例如：值）；類別/代碼欄位3 個（例如：項目、子項目、單位）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年/全台」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年底結算後發布，推測為 1-3 個月。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整覆蓋台電公司近10年的主要經營績效指標，包含詳細的停電事故數據。 在準確性與一致性方面，官方統計、由企劃處定期發布與驗證。 原始資料備註中另有說明：「1.其中包含513及517停電事故影響每戶平均停電時間實績值分別為39.558及3.958分鐘，合計43.516(分/戶.年)；513及517停電事故影響每戶平均停電次數實績值分別為0.799及0.065次，合計0.864(次/戶.年)。
 2.其中包含303停電事故影響每戶平均停電時間實績值為91.285(分/戶.年)；每戶平均停電次數實績值為0.467(次/戶.年)。」，使用前建議先行閱讀。 結合年度報告和政策文件，進行長期趨勢分析和績效比較。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
@@ -2767,7 +2777,8 @@
 【3. 背景資訊】
 會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：發電成本、電價）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年/發電方式」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年結算後，約 3-6 個月。
+本資料集實際資料檔約包含 26 筆紀錄、4 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：112年 審定決算(元/度)、113年 審定決算(元/度)）；文字格式數值欄位1 個（例如：111年
+審定決算(元/度)）；類別/代碼欄位1 個（例如：各種發電方式之發電成本）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年/發電方式」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年結算後，約 3-6 個月。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋台灣電力公司所有發電方式的成本數據。 在準確性與一致性方面，官方會計處發布，經嚴格審計的高度準確資料。 應搭配發電量、燃料價格等資料，進行全面性的能源經濟分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2783,7 +2794,10 @@
 【3. 背景資訊】
 會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台電財務、損益表、資產負債表、政府影響金額明細表、政府支出）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月度/公司層級」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常次月 1-2 週內發布。
+本資料集實際資料檔約包含 18 筆紀錄、7 個欄位。 欄位型態分布大致為：浮點數值欄位3 個（例如：％、％.1、比較增減
+( A-B)）；類別/代碼欄位3 個（例如：項   目、114年1~7月
+實績(A)、113年1~7月
+實績(B)）；空值欄位1 個（例如：單位：億元）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月度/公司層級」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常次月 1-2 週內發布。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋台電公司每月所有財務報表項目。 在準確性與一致性方面，官方會計處發布，經內部稽核與外部審計驗證。 建議搭配發電量與售電量資料，進行更全面的營運與財務交叉分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2799,7 +2813,7 @@
 【3. 背景資訊】
 核能發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：核能電廠、機組資訊）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別核能發電廠/發電機組」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常異動發生後即時更新，屬於低頻率資料。
+本資料集實際資料檔約包含 8 筆紀錄、7 個欄位。 欄位型態分布大致為：日期時間欄位1 個（例如：商轉日期）；整數數值欄位1 個（例如：裝置容量MWe）；類別/代碼欄位5 個（例如：電廠名稱、地址、連絡電話）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別核能發電廠/發電機組」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常異動發生後即時更新，屬於低頻率資料。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋台灣電力公司所有核能發電廠及其所有機組設備資訊。 在準確性與一致性方面，由台灣電力公司核能發電處提供，為官方且高度準確的設備與位置資料。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 建議搭配發電量統計資料，以全面了解核能設施的地理分佈與實際運營狀況。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2815,7 +2829,7 @@
 【3. 背景資訊】
 核能發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：發電量、核能、容量因數、減碳）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度更新，延遲約 1-3 個月。
+本資料集實際資料檔約包含 17 筆紀錄、4 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：年度、減碳量(萬噸)）；浮點數值欄位2 個（例如：核能發電量(億度)、容量因數平均值(%)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度更新，延遲約 1-3 個月。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋近十年台灣核能發電的年度數據。 在準確性與一致性方面，台灣電力公司核能發電處官方統計數據，高度準確。 適用於能源研究、環境政策分析及長期趨勢觀察，建議搭配其他發電數據進行比較分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2831,7 +2845,7 @@
 【3. 背景資訊】
 會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：損益預計表、盈虧撥補預計表、現金流量預計表、政府支出、政府預算）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年度、公司整體財務報表項目」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年於會計年度開始前發布，延遲約數月。
+重要欄位與主題大致可從關鍵字（例如：損益預計表、盈虧撥補預計表、現金流量預計表、政府支出、政府預算）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年度、公司整體財務報表項目」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年於會計年度開始前發布，延遲約數月。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋公司年度預算中的主要財務預計報表項目。 在準確性與一致性方面，官方預算文件，經會計處編製與董事會審議，具高度官方準確性。 應搭配「決算主要表」進行預算與實際執行差異分析，以評估財務預測準確度。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2847,7 +2861,7 @@
 【3. 背景資訊】
 會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：預算、核能發電後端營運基金、政府預算）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年度/基金項目層級的總體財務數據」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年一次，配合政府會計年度預算編列與發布時程。
+重要欄位與主題大致可從關鍵字（例如：預算、核能發電後端營運基金、政府預算）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年度/基金項目層級的總體財務數據」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年一次，配合政府會計年度預算編列與發布時程。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋預算案中基金來源、用途、餘絀及現金流量等主要報表。 在準確性與一致性方面，官方預算文件，經立法院審議通過後具高度準確性。 應搭配決算報告進行比對，以全面了解基金預算執行與實際收支情況。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2863,7 +2877,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放用戶用電資料，以去識別化之行政區別用電統計資料上架」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：用電、行政區）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月度統計；最小地理單位為鄉鎮市（郵遞區別）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常次月上旬或中旬。
+本資料集實際資料檔約包含 83025 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：年度、月份）；浮點數值欄位1 個（例如：售電度數(當年累計)）；類別/代碼欄位5 個（例如：郵遞區號、行政區、用電種類）；文字描述欄位1 個（例如：售電度數(當月)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月度統計；最小地理單位為鄉鎮市（郵遞區別）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常次月上旬或中旬。
 【5. 使用限制與注意事項】
 就資料完整性而言，涵蓋台灣全島所有實施郵遞區號的行政區，部分數據因個資保護而去識別化（*號）。 在準確性與一致性方面，官方統計資料，由台灣電力公司業務處定期發布。 原始資料備註中另有說明：「*號表５戶以下；**號表合計戶數。」，使用前建議先行閱讀。 應搭配人口、產業等社會經濟資料，進行更深入的區域能源消費結構分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2879,7 +2893,7 @@
 【3. 背景資訊】
 秘書處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台電、志工活動）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單次志工活動」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期更新，有異動時。
+本資料集實際資料檔約包含 687 筆紀錄、12 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：所提供時數、參加人數）；類別/代碼欄位5 個（例如：創辦志工團、服務項目(訓練項目)、承辦人）；文字描述欄位5 個（例如：活動名稱、報名時間、活動時間）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單次志工活動」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期更新，有異動時。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整覆蓋台電歷年所有已公開的志工活動資訊。。 在準確性與一致性方面，官方紀錄，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 結合地理資訊系統（GIS）分析活動地點，或與年度報告比較投入資源。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2895,7 +2909,7 @@
 【3. 背景資訊】
 供電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：變電所、超高壓）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「變電所/主變壓器（年度統計）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常數月至一年（年度資料結算後發布）。
+本資料集實際資料檔約包含 386 筆紀錄、14 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：年份、縣市代碼、主變裝置容量 (MVA)）；文字格式數值欄位3 個（例如：省市縣市鄉鎮市區代碼、主變可靠容量 (MVA)、去年主變最大負載 (MVA)）；類別/代碼欄位3 個（例如：供電區處、變壓器別、備註）；文字描述欄位4 個（例如：變電所名、所在地、供電範圍）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「變電所/主變壓器（年度統計）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常數月至一年（年度資料結算後發布）。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整覆蓋台灣電力公司所有超高壓及一次變電所的主變壓器。。 在準確性與一致性方面，官方統計數據，由台灣電力公司供電處定期驗證。 應搭配地理資訊系統（GIS）或電力系統圖，進行空間分析與負載分佈研究。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2911,7 +2925,7 @@
 【3. 背景資訊】
 供電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：變電所、電磁場）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一變電所的年度量測結果」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度量測完成後約 1-3 個月發布。
+重要欄位與主題大致可從關鍵字（例如：變電所、電磁場）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一變電所的年度量測結果」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度量測完成後約 1-3 個月發布。
 【5. 使用限制與注意事項】
 就資料完整性而言，涵蓋台灣電力公司在各行政地區的所有變電所。 在準確性與一致性方面，官方量測數據，定期由台灣電力公司驗證。 應搭配變電所地理位置資料集使用，以進行空間分析與視覺化。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2927,7 +2941,7 @@
 【3. 背景資訊】
 財務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：利率、公司債、額度、政府統計）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一公司債發行期別」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每3月，實際發布時間通常每季更新，約於季後 1 個月內發布。
+本資料集實際資料檔約包含 131 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：發行日期）；浮點數值欄位2 個（例如：發行額度(億元)、發行利率(%) ）；類別/代碼欄位1 個（例如：期限）；文字描述欄位1 個（例如：公司債）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一公司債發行期別」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每3月，實際發布時間通常每季更新，約於季後 1 個月內發布。
 【5. 使用限制與注意事項】
 就資料完整性而言，涵蓋台電公司所有已發行與流通的公司債資訊。 在準確性與一致性方面，官方財務數據，高度準確。 建議搭配台電財務報表與資本支出計畫，進行更全面的財務風險與投資分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2943,7 +2957,7 @@
 【3. 背景資訊】
 財務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台電、信用評等、政府統計）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「台灣電力公司企業體 (單一企業實體)」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常評等機構發布最新報告後，即時或數日內更新。
+本資料集實際資料檔約包含 5 筆紀錄、10 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：國內信用評等發佈日期、國際信用評等發佈日期）；類別/代碼欄位8 個（例如：國內信用評等評等公司、國內信用評等等級(長期)、國內信用評等等級(短期)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「台灣電力公司企業體 (單一企業實體)」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常評等機構發布最新報告後，即時或數日內更新。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋台灣電力公司企業體之信用評等資訊。 在準確性與一致性方面，高度準確，為台灣電力公司官方發布之企業體信用評等。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 應搭配台電的財務報表及營運數據，以進行更全面的信用風險分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2959,7 +2973,7 @@
 【3. 背景資訊】
 人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：人力分布、員工人數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月、單位/事業部」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常1-2 週。
+本資料集實際資料檔約包含 7 筆紀錄、4 個欄位。 欄位型態分布大致為：整數數值欄位3 個（例如：年度、月份、人數）；類別/代碼欄位1 個（例如：類別）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月、單位/事業部」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常1-2 週。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整覆蓋台灣電力公司所有總管理處、附屬單位及各事業部。。 在準確性與一致性方面，官方統計、人力資源處定期驗證。 搭配組織架構資料集使用，以進行更深入的組織效率與人力結構分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2975,7 +2989,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：裝置容量、變電所）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別變電所/主變壓器層級，包含所在地與供電範圍」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年更新一次，延遲約 1-3 個月。
+本資料集實際資料檔約包含 280 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位3 個（例如：主變裝置容量(MVA)、主變可靠容量(MVA)、前一年(113年)主變最大負載(MVA)）；類別/代碼欄位2 個（例如：轄屬區營業處、備註）；文字描述欄位3 個（例如：變電所名、所在地、供電範圍）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別變電所/主變壓器層級，包含所在地與供電範圍」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年更新一次，延遲約 1-3 個月。
 【5. 使用限制與注意事項】
 就資料完整性而言，涵蓋台灣全島所有二次變電所及其主變壓器數據。 在準確性與一致性方面，官方統計數據，由台電配電處定期發布與驗證。 應搭配地理資訊系統（GIS）進行空間分析，以精確評估特定區域的電力供應潛力。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -2991,7 +3005,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：夏月電價、抄表）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「以電價政策、抄表規定等主題為單位」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常政策或規定異動後立即更新。
+重要欄位與主題大致可從關鍵字（例如：夏月電價、抄表）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「以電價政策、抄表規定等主題為單位」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常政策或規定異動後立即更新。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整收錄台灣電力公司現行電價與抄表相關的知識與說明。 在準確性與一致性方面，官方政策文件，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 建議搭配台灣電力公司官方公告的電價表或相關法規一同查閱，以獲得最完整的資訊。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3007,7 +3021,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：電價）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別電價種類與適用條件」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期，有異動時即更新。
+本資料集實際資料檔約包含 5 筆紀錄、3 個欄位。 欄位型態分布大致為：類別/代碼欄位3 個（例如：項目、主要適用範圍、備註）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別電價種類與適用條件」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期，有異動時即更新。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋台灣電力公司所有現行電價種類與適用範圍。 在準確性與一致性方面，官方發布文件，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 應搭配實際電價費率表使用，以進行精確的電費估算與分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3023,7 +3037,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：電價表）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODT、XML、JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「各類用電別（如住商、工業）、不同用電時段（如尖峰、離峰）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期更新，通常為政策或法規調整後發布。
+重要欄位與主題大致可從關鍵字（例如：電價表）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ODT、XML、JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「各類用電別（如住商、工業）、不同用電時段（如尖峰、離峰）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期更新，通常為政策或法規調整後發布。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整收錄台灣電力公司現行所有電價類別與計算範例。 在準確性與一致性方面，高度準確、官方發布。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 應搭配最新的用電量數據，以準確計算不同用電情境下的實際電費支出。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3039,7 +3053,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：用電、住宅）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月、全台平均」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常每月更新，預計為次月月底。
+本資料集實際資料檔約包含 92 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位5 個（例如：日期(年/月)、住宅本期平均用電度數(度/戶)、住宅去年同期平均用電度數(度/戶)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月、全台平均」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常每月更新，預計為次月月底。
 【5. 使用限制與注意事項】
 就資料完整性而言，涵蓋台灣全島住宅用戶，數據經去識別化處理。 在準確性與一致性方面，官方統計、定期驗證。 適合用於宏觀的能源政策分析及用電趨勢研究，不適用於個體用戶行為分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3055,7 +3069,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：平均電價）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「國家/地區、年度、用電類別」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常約 1 年 (資料為前一年度統計，於隔年發布)。
+本資料集實際資料檔約包含 64 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：年度、排名）；浮點數值欄位1 個（例如：平均電價(台幣元/度)）；類別/代碼欄位1 個（例如：用電別）；文字描述欄位1 個（例如：國家）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「國家/地區、年度、用電類別」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常約 1 年 (資料為前一年度統計，於隔年發布)。
 【5. 使用限制與注意事項】
 就資料完整性而言，涵蓋台灣及亞鄰國家等主要經濟體，提供住宅與工業用電兩大類別的平均電價。 在準確性與一致性方面，基於國際能源署(IEA)與Enerdata的統計資料，經台電換算匯率後發布，具官方統計來源。 原始資料備註中另有說明：「1.資料為2023年各國平均電價比較(依IEA及Enerdata之2024年最新統計資料與亞鄰各國電價資料)。
 2.資料原係以美元計價，台幣對美元換算匯率為1美元=31.150台幣(2023年平均匯率)。
@@ -3073,7 +3087,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：電價調整）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「每次電價調整的決策與實施細節」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常電價調整公告後 1-2 週內。
+重要欄位與主題大致可從關鍵字（例如：電價調整）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「每次電價調整的決策與實施細節」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常電價調整公告後 1-2 週內。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整收錄近年來所有電價調整的官方說明與決策文件。 在準確性與一致性方面，官方發布資料，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 搭配相關能源政策文件與電力供需數據，進行宏觀經濟與能源結構的深度分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3089,7 +3103,7 @@
 【3. 背景資訊】
 再生能源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：太陽光電、風力、地熱、發電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月/發電類型（太陽能、風力、地熱）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常月底。
+本資料集實際資料檔約包含 1206 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：年度/Year、月份/Month）；文字格式數值欄位1 個（例如：發電量(度)/Power Generation(kWh)）；類別/代碼欄位2 個（例如：能源別/Energy Type、發電站名稱/Station Name）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月/發電類型（太陽能、風力、地熱）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常月底。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整覆蓋台電自建之太陽能、風力及地熱發電設施的月度數據。 在準確性與一致性方面，官方統計，經台電再生能源處內部驗證。 建議搭配氣象資料或電力負載數據，進行更深入的發電量影響因素分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3105,7 +3119,7 @@
 【3. 背景資訊】
 再生能源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：太陽光電、風力）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一再生能源場址」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期更新，異動發生後即時或短期內發布。
+本資料集實際資料檔約包含 95 筆紀錄、11 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：裝置容量(瓩)/Installed Capacity(kW)）；浮點數值欄位2 個（例如：場址編號/Number of the Site、風機數量/Number of The Windturbine）；類別/代碼欄位3 個（例如：能源別/Type of Energy、申設狀態/Application Status、備註/Remarks）；文字描述欄位5 個（例如：發電站編號/Number of The Power Station、發電站名稱/Name of The Power Station、場址說明/Description fo The Site）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一再生能源場址」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期更新，異動發生後即時或短期內發布。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋台灣電力公司所有再生能源場址資料。 在準確性與一致性方面，官方資料，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 主要用於資產管理與空間分析，建議搭配發電量或電網資料進行效益評估。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3121,7 +3135,7 @@
 【3. 背景資訊】
 秘書處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台電、圖書）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一圖書/館藏紀錄」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常約 1 年，配合圖書室年度盤點與新書編目作業。
+本資料集實際資料檔約包含 20712 筆紀錄、4 個欄位。 欄位型態分布大致為：類別/代碼欄位1 個（例如：特藏號）；文字描述欄位3 個（例如：登錄號、題名、作者）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一圖書/館藏紀錄」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常約 1 年，配合圖書室年度盤點與新書編目作業。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整收錄台灣電力公司總管理處圖書室所有館藏資料。 在準確性與一致性方面，高度準確，由圖書室專業編目人員維護。 可搭配圖書室的借閱系統使用，以獲取圖書的即時狀態與借閱資訊。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3137,7 +3151,7 @@
 【3. 背景資訊】
 會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：損益表、資產負債表、政府支出、政府預算）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年/公司整體」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度結束後 3-6 個月。
+重要欄位與主題大致可從關鍵字（例如：損益表、資產負債表、政府支出、政府預算）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年/公司整體」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度結束後 3-6 個月。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋台灣電力公司年度主要財務報表內容。。 在準確性與一致性方面，經會計師查核及主管機關審定，具高度準確性。 適合用於長期財務趨勢分析與跨年度比較，應搭配預算書進行差異分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3153,7 +3167,7 @@
 【3. 背景資訊】
 會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：損益表、政府支出、資產負債表）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月度/公司整體」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常每月月底或次月上旬發布。
+重要欄位與主題大致可從關鍵字（例如：損益表、政府支出、資產負債表）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月度/公司整體」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常每月月底或次月上旬發布。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋台灣電力公司每月會計報表內容。 在準確性與一致性方面，官方會計報表，經內部審核與簽證。 搭配能源政策與電價調整資料，進行更全面的公共事業財務分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3169,7 +3183,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：用電量、供電能力、尖峰負載、備轉容量、備轉容量率）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「日」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常約 1 個月 (上月份資料於本月發布)。
+本資料集實際資料檔約包含 609 筆紀錄、71 個欄位。 欄位型態分布大致為：日期時間欄位1 個（例如：日期）；整數數值欄位4 個（例如：核一#1(萬瓩)、核一#2(萬瓩)、核二#1(萬瓩)）；浮點數值欄位66 個（例如：淨尖峰供電能力(萬瓩)、尖峰負載(萬瓩)、備轉容量(萬瓩)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「日」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常約 1 個月 (上月份資料於本月發布)。
 【5. 使用限制與注意事項】
 就資料完整性而言，涵蓋台灣全島每日電力供需及機組發電量數據。 在準確性與一致性方面，官方統計、定期發布、高度準確。 應搭配氣象資料或經濟指標，進行更深入的電力負載與備轉容量率關聯性分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3185,7 +3199,7 @@
 【3. 背景資訊】
 會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：後端營運基金、決算、政府預算、政府支出）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年度/決算會計科目」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度決算完成後約 3-6 個月。
+重要欄位與主題大致可從關鍵字（例如：後端營運基金、決算、政府預算、政府支出）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年度/決算會計科目」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常年度決算完成後約 3-6 個月。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋該基金前一年度所有決算會計科目。 在準確性與一致性方面，官方決算資料，經會計師查核簽證。 應搭配預算資料進行比較分析，以評估基金的財務執行效率。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3201,7 +3215,7 @@
 【3. 背景資訊】
 會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：會計、月報、後端營運基金、政府預算、政府支出）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+重要欄位與主題大致可從關鍵字（例如：會計、月報、後端營運基金、政府預算、政府支出）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3217,7 +3231,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年會計處依行政院主計總處函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：備轉容量、尖峰負載）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「日/全台」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年更新一次，時間差約一年。
+本資料集實際資料檔約包含 1096 筆紀錄、3 個欄位。 欄位型態分布大致為：日期時間欄位1 個（例如：日期）；浮點數值欄位2 個（例如：備轉容量(萬瓩)、備轉容量率(%)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「日/全台」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年更新一次，時間差約一年。
 【5. 使用限制與注意事項】
 就資料完整性而言，涵蓋台灣全島電力系統、每日數據完整覆蓋近三年。 在準確性與一致性方面，官方統計、高度準確。 原始資料備註中另有說明：「1.備轉容量(Operating Reserve)＝系統運轉淨尖峰能力－系統瞬時尖峰負載(瞬間值)。
 2.備轉容量率(Percent Operating Reserve)＝(系統運轉淨尖峰供電能力－系統瞬時尖峰負載(瞬間值))÷系統瞬時尖峰負載(瞬間值)×100%。」，使用前建議先行閱讀。 應搭配尖峰負載、發電量等資料集，進行更全面的電力供需分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
@@ -3234,7 +3248,7 @@
 【3. 背景資訊】
 綜合研究所為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台電委託調查研究）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別委託研究計畫決標案」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常每月月底彙總並公開，約 1-4 週。
+本資料集實際資料檔約包含 827 筆紀錄、6 個欄位。 欄位型態分布大致為：文字描述欄位6 個（例如：計畫名稱、研究期程、委託對象）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「個別委託研究計畫決標案」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常每月月底彙總並公開，約 1-4 週。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整收錄台電各單位每月提報的委託研究決標案。 在準確性與一致性方面，官方發布資料，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 搭配其他政府採購資料，可進行更全面的公共工程與研究案分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3250,7 +3264,7 @@
 【3. 背景資訊】
 公眾服務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：新聞稿、台電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一新聞稿事件」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常即時 (發布後立即更新)。
+重要欄位與主題大致可從關鍵字（例如：新聞稿、台電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一新聞稿事件」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常即時 (發布後立即更新)。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整收錄台灣電力公司官方網站所有新聞稿。 在準確性與一致性方面，官方發布、高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 應搭配時間軸或關鍵字進行篩選，以快速掌握特定期間或主題的台電動態。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3266,7 +3280,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：備轉容量、尖峰負載）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「每日尖峰時段，全台電力系統」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1日，實際發布時間通常T+1日更新。
+本資料集實際資料檔約包含 259 筆紀錄、3 個欄位。 欄位型態分布大致為：日期時間欄位1 個（例如：日期）；浮點數值欄位2 個（例如：備轉容量(萬瓩)、備轉容量率(%)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「每日尖峰時段，全台電力系統」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1日，實際發布時間通常T+1日更新。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋本年度每日尖峰數據。 在準確性與一致性方面，官方電力調度數據，高度準確。 原始資料備註中另有說明：「1.備轉容量(Operating Reserve)＝系統運轉淨尖峰能力－系統瞬時尖峰負載(瞬間值)。
 2.備轉容量率(Percent Operating Reserve)＝(系統運轉淨尖峰供電能力－系統瞬時尖峰負載(瞬間值))÷系統瞬時尖峰負載(瞬間值)×100%。」，使用前建議先行閱讀。 適合用於長期趨勢分析與電力供需預警，不適用於即時電力調度。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
@@ -3283,7 +3297,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：修復、路平）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月度統計、縣市/鄉鎮」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常約 1 個月。
+本資料集實際資料檔約包含 15 筆紀錄、3 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：年月）；文字格式數值欄位1 個（例如：值）；類別/代碼欄位1 個（例如：類別）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「月度統計、縣市/鄉鎮」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常約 1 個月。
 【5. 使用限制與注意事項】
 就資料完整性而言，涵蓋台電地下線路經過之台灣全島各縣市。 在準確性與一致性方面，官方統計、定期驗證。 結合地理資訊系統(GIS)進行空間分析，以視覺化方式呈現路平改善熱區。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3299,7 +3313,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：工安罰款）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單筆罰款紀錄或月度彙總」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常1-2 週（基於月度更新推算）。
+本資料集實際資料檔約包含 2300 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：年度、月份、違規項數(項)）；類別/代碼欄位1 個（例如：區處）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單筆罰款紀錄或月度彙總」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1月，實際發布時間通常1-2 週（基於月度更新推算）。
 【5. 使用限制與注意事項】
 就資料完整性而言，涵蓋台電配電處所有承攬商工安罰款紀錄。 在準確性與一致性方面，官方統計、定期驗證、高度準確。 結合工程地點與違規細節，深入分析工安風險因子，優化承攬商管理。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3315,7 +3329,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：計畫性工作停電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「日、區處、停電時段、影響地區」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1日，實際發布時間通常每日更新，延遲約 1 日內。
+重要欄位與主題大致可從關鍵字（例如：計畫性工作停電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「日、區處、停電時段、影響地區」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1日，實際發布時間通常每日更新，延遲約 1 日內。
 【5. 使用限制與注意事項】
 就資料完整性而言，涵蓋台灣本島台電24區處的計畫性停電資訊，不含馬祖區處。 在準確性與一致性方面，官方發布、每日更新、高度準確。 原始資料備註中另有說明：「馬祖區處的計畫性工作停電資訊請參照以下網址：
 https://service.taipower.com.tw/branch/d124/xcnotice?xsmsid=0M242581313368873957」，使用前建議先行閱讀。 建議搭配地理資訊系統（GIS）進行視覺化，以精確判斷停電影響範圍，並與即時供電資訊交叉比對。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
@@ -3332,7 +3346,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「104年依經濟部轉行政院指示將官網資訊公開項目集中至資料開放平台」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：配電線路地下化規劃原則）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「政策文件層級（非統計數據，以規劃原則為最小單位）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常政策變動後即時發布（不定期）。
+重要欄位與主題大致可從關鍵字（例如：配電線路地下化規劃原則）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「政策文件層級（非統計數據，以規劃原則為最小單位）」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常政策變動後即時發布（不定期）。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋台電配電線路地下化規劃所需考量的所有原則與限制。。 在準確性與一致性方面，官方發布之政策文件，具高度權威性。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 主要用於政策研究與工程溝通，應搭配實際工程圖資與地方規範使用。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3348,7 +3362,7 @@
 【3. 背景資訊】
 系統規劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：供電系統）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODP」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「系統層級/概念性描述，非統計數據」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常系統異動後即時或於下次版本更新時發布。
+重要欄位與主題大致可從關鍵字（例如：供電系統）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ODP」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「系統層級/概念性描述，非統計數據」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常系統異動後即時或於下次版本更新時發布。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整涵蓋台灣電力公司供電系統的整體架構與主要環節。 在準確性與一致性方面，官方文件，由系統規劃處提供，具高度權威性。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 適合用於基礎知識學習與系統概覽，不適用於即時或歷史統計分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3364,7 +3378,7 @@
 【3. 背景資訊】
 促進電力發展營運協助金審議委員會為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：協助金）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一核定案件/捐助/會費/委託調查研究項目」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期（有異動時），可能存在數月至一年不等的時間差。
+重要欄位與主題大致可從關鍵字（例如：協助金）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「單一核定案件/捐助/會費/委託調查研究項目」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期（有異動時），可能存在數月至一年不等的時間差。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整收錄近三年度所有核定案件、捐助、會費及委託調查研究公佈事項。。 在準確性與一致性方面，官方審議委員會核定與公佈，高度準確。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 應搭配相關法規與審議委員會會議紀錄，以全面理解資金核定背後的決策考量。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3380,7 +3394,7 @@
 【3. 背景資訊】
 系統規劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：可靠供電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODP」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「政策/原則層級」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期更新，有異動時發布。
+重要欄位與主題大致可從關鍵字（例如：可靠供電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ODP」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「政策/原則層級」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：不定期更新，實際發布時間通常不定期更新，有異動時發布。
 【5. 使用限制與注意事項】
 就資料完整性而言，完整呈現台電系統規劃處的供電考慮要項。 在準確性與一致性方面，官方政策文件，高度準確，代表台電現行標準。 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 應搭配電力供需報告或電網數據，以全面理解供電策略與實施細節。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3396,7 +3410,7 @@
 【3. 背景資訊】
 工業安全衛生處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台電、職業安全衛生管理系統）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+本資料集實際資料檔約包含 55 筆紀錄、7 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：項次、證書登錄日期、重新驗證次數）；類別/代碼欄位1 個（例如：所在地）；文字描述欄位2 個（例如：事業單位名稱、證書編號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「1.更新頻率說明：有異動時。
 2.依職業安全衛生法第23條規定：事業單位達一定規模以上者，應建置職業安全衛生管理系統。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
@@ -3413,7 +3427,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、裝置容量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 17 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：年度）；浮點數值欄位4 個（例如：風力(萬瓩)、太陽電(萬瓩)、其他(含水力)(萬瓩)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「1.再生能源發展條例係於98年7月8日公告施行。
 2.上述資料皆含台電公司自有機組裝置容量。
@@ -3431,7 +3445,7 @@
 【3. 背景資訊】
 燃料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：煤源國、採購數量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 52 筆紀錄、4 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：年度）；浮點數值欄位2 個（例如：數量(萬公噸)、比例(%)）；類別/代碼欄位1 個（例如：國家）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3447,7 +3461,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：每月用電度數、縣市）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 10120 筆紀錄、7 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：年月）；浮點數值欄位1 個（例如：用電佔比(%)）；文字格式數值欄位1 個（例如：售電量(度)）；類別/代碼欄位2 個（例如：縣市、用電性質）；空值欄位2 個（例如：Unnamed: 5、Unnamed: 6）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3463,7 +3477,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、躉購容量、購入度數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 242 筆紀錄、14 個欄位。 欄位型態分布大致為：整數數值欄位3 個（例如：年度、風力件數、其他(含水力)件數）；文字格式數值欄位5 個（例如：風力躉購容量(KW)、風力本年累計購電度數(度)、太陽光電件數）；類別/代碼欄位1 個（例如：縣市）；文字描述欄位5 個（例如：太陽光電躉購容量(KW)、太陽光電本年累計購電度數(度)、其他(含水力)本年累計購電度數(度)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3479,7 +3493,7 @@
 【3. 背景資訊】
 政風處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：員工清廉度）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+重要欄位與主題大致可從關鍵字（例如：員工清廉度）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3495,7 +3509,7 @@
 【3. 背景資訊】
 再生能源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：太陽光電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 3598 筆紀錄、6 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：年度/Year、月份/Month）；浮點數值欄位3 個（例如：裝置容量(瓩)/Installed Capacity(kW)、發電量(度)/Power Generation(kWh)、平均單位裝置容量每日發電量/Average of Each Unit Power Generatioon Per Day）；類別/代碼欄位1 個（例如：發電站名稱/Name of The Power Station）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3511,7 +3525,7 @@
 【3. 背景資訊】
 政風處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：廉政會報）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+重要欄位與主題大致可從關鍵字（例如：廉政會報）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3527,7 +3541,7 @@
 【3. 背景資訊】
 材料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：惜物網、拍賣）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 11 筆紀錄、2 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：年份、成交總金額）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3543,7 +3557,7 @@
 【3. 背景資訊】
 材料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：招標、決標）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 13 筆紀錄、3 個欄位。 欄位型態分布大致為：浮點數值欄位3 個（例如：年月、招標件數、決標件數）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3559,7 +3573,7 @@
 【3. 背景資訊】
 燃料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：柴油、價格）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 5 筆紀錄、4 個欄位。 欄位型態分布大致為：整數數值欄位3 個（例如：年度、累計至該月、柴油平均單價(元/秉，未稅)）；浮點數值欄位1 個（例如：柴油採購數量(萬公秉)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3575,7 +3589,7 @@
 【3. 背景資訊】
 核能安全處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：違規事項資料）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 22 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：年度、流水號、來函日期(年)）；類別/代碼欄位5 個（例如：廠別、等級、違規事項）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3591,7 +3605,7 @@
 【3. 背景資訊】
 環境保護處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：溫室氣體、火力發電排放量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 30 筆紀錄、4 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：年度、排放量(萬噸)）；類別/代碼欄位2 個（例如：發電方式、占比(%)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3607,7 +3621,7 @@
 【3. 背景資訊】
 人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：現有員工人數、員工人數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 8 筆紀錄、6 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：年度、月份、派用）；浮點數值欄位2 個（例如：派用比例、僱用比例）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3623,7 +3637,7 @@
 【3. 背景資訊】
 人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：現有員工教育程度、教育程度）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 2 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位8 個（例如：年度、月份、研究所以上）；類別/代碼欄位1 個（例如：類別）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3639,7 +3653,7 @@
 【3. 背景資訊】
 促進電力發展營運協助金審議委員會為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：協助金）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+本資料集實際資料檔約包含 870 筆紀錄、17 個欄位。 欄位型態分布大致為：日期時間欄位3 個（例如：核准日期、活動時間(起)、活動時間(迄)）；整數數值欄位1 個（例如：核准補助金額(千元)）；文字格式數值欄位2 個（例如：活動總金額(千元)、申請補助金額(千元)）；類別/代碼欄位8 個（例如：單位代號、預算科目/名稱、關注民代）；文字描述欄位3 個（例如：申請補(捐)助單位、統一編號、活動名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3655,7 +3669,7 @@
 【3. 背景資訊】
 燃料處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：燃料油、價格）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 5 筆紀錄、4 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：年度、累計至該月、燃料油採購數量(萬公秉)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3671,7 +3685,7 @@
 【3. 背景資訊】
 輸變電工程處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台電、輸變電計畫、CKM）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+重要欄位與主題大致可從關鍵字（例如：台電、輸變電計畫、CKM）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3687,7 +3701,7 @@
 【3. 背景資訊】
 輸變電工程處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台電、輸變電計畫、變電所）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+重要欄位與主題大致可從關鍵字（例如：台電、輸變電計畫、變電所）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3703,7 +3717,7 @@
 【3. 背景資訊】
 訓練所為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：訓練所、代訓、外界委託訓練）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 44 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：年度、班數、人次）；類別/代碼欄位1 個（例如：代訓類別）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3719,7 +3733,7 @@
 【3. 背景資訊】
 訓練所為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：訓練所、承包商技術檢定）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+重要欄位與主題大致可從關鍵字（例如：訓練所、承包商技術檢定）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3735,7 +3749,7 @@
 【3. 背景資訊】
 會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：政府支出）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+重要欄位與主題大致可從關鍵字（例如：政府支出）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3751,7 +3765,7 @@
 【3. 背景資訊】
 電力通信處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：光纖電路出租）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+重要欄位與主題大致可從關鍵字（例如：光纖電路出租）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3767,7 +3781,7 @@
 【3. 背景資訊】
 再生能源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：風力、風機）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 19688 筆紀錄、10 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：年度/Year、月份/Month、縣市別代碼/CountyCode）；文字格式數值欄位3 個（例如：風機發電量(度)/Wind Turbine Power Generation(kW)、風機發電時數(小時)/Wind Turbine Power Generation Hour(hr)、風機未發電時數(小時)/Wind Turbine Without Power Generation Hour(hr)）；類別/代碼欄位3 個（例如：縣市/County(/City)、發電站名稱/Station Name、風機編號/Wind Turbine Number）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3783,7 +3797,7 @@
 【3. 背景資訊】
 環境保護處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：溫室氣體、電力排碳係數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+本資料集實際資料檔約包含 12 筆紀錄、3 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：年度）；浮點數值欄位2 個（例如：國家電力排放係數、台電公司排放係數）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「1.更新頻率說明：有異動時。
 2.國家電力排碳係數係依據經濟部能源署網站公告之結果(https://www.moeaea.gov.tw/ecw/populace/content/ContentDesc.aspx?menu_id=23142)。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
@@ -3800,7 +3814,7 @@
 【3. 背景資訊】
 電源開發處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：長期、電源、開發、方案、備用、淨尖峰、出力、裝置容量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+重要欄位與主題大致可從關鍵字（例如：長期、電源、開發、方案、備用、淨尖峰、出力、裝置容量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ODT」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3816,7 +3830,7 @@
 【3. 背景資訊】
 會計處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：電價、單位成本）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 21 筆紀錄、7 個欄位。 欄位型態分布大致為：文字格式數值欄位6 個（例如：111年 審定決算(元/度)、百分比、112年 審定決算(元/度)）；類別/代碼欄位1 個（例如：電價及單位成本結構比較）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3832,7 +3846,7 @@
 【3. 背景資訊】
 企劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：政府統計）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+重要欄位與主題大致可從關鍵字（例如：政府統計）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3848,7 +3862,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：汽電共生、購電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 236 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：年份、月份、度數(千度)）；浮點數值欄位1 個（例如：平均單價(元/度)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3864,7 +3878,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：太陽光電、購電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 191 筆紀錄、3 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：年度、度數(千度)）；浮點數值欄位1 個（例如：月份）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3880,7 +3894,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：風力、購電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 235 筆紀錄、3 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：年度、月份）；文字格式數值欄位1 個（例如：度數(千度)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3896,7 +3910,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：水力、購電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 235 筆紀錄、3 個欄位。 欄位型態分布大致為：整數數值欄位3 個（例如：年度、月份、度數(千度)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3912,7 +3926,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理/空間資訊相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：電桿、桿號）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 2794416 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「本資料集包含全台各縣市電桿坐標及桿號資料，如需單獨下載各縣市資料可至以下連結，或於本平台搜尋後下載：
 臺北市(https://data.gov.tw/dataset/122523) 新北市(https://data.gov.tw/dataset/122524)
@@ -3938,7 +3952,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：淨尖峰供電能力、瞬時尖峰負載）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1日。
+本資料集實際資料檔約包含 8 筆紀錄、5 個欄位。 欄位型態分布大致為：日期時間欄位1 個（例如：日期）；整數數值欄位3 個（例如：預估淨尖峰供電能力(萬瓩)、預估瞬時尖峰負載(萬瓩)、預估尖峰備轉容量(萬瓩)）；浮點數值欄位1 個（例如：預估尖峰備轉容量率(%)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1日。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「預估值係依據中央氣象局所公布未來一週氣象預報資料及發電機組狀況得出。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3954,7 +3968,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：用電、不及底度）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+本資料集實際資料檔約包含 9480 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位3 個（例如：年度、月份、用戶數(戶)）；類別/代碼欄位2 個（例如：郵遞區號、行政區）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3970,7 +3984,7 @@
 【3. 背景資訊】
 發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：大修、火力機組）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 458 筆紀錄、3 個欄位。 欄位型態分布大致為：日期時間欄位2 個（例如：大修開始日期、大修結束日期）；文字描述欄位1 個（例如：機組別）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -3986,7 +4000,7 @@
 【3. 背景資訊】
 發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：大修、水力機組）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 175 筆紀錄、3 個欄位。 欄位型態分布大致為：日期時間欄位2 個（例如：大修開始日期、大修結束日期）；文字描述欄位1 個（例如：機組別）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4002,7 +4016,7 @@
 【3. 背景資訊】
 核能發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：大修、歲修、核能機組）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 16 筆紀錄、6 個欄位。 欄位型態分布大致為：日期時間欄位2 個（例如：開始日期、結束日期）；文字格式數值欄位1 個（例如：實際工期(天)）；類別/代碼欄位3 個（例如：廠別、機組別、大修別）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4018,7 +4032,7 @@
 【3. 背景資訊】
 發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：機組、可用率）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 40 筆紀錄、3 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：年度）；浮點數值欄位1 個（例如：可用率(%)）；類別/代碼欄位1 個（例如：火力機組類別）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4034,7 +4048,7 @@
 【3. 背景資訊】
 企劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：購電、售電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 432 筆紀錄、4 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：年度）；浮點數值欄位1 個（例如：發購電量）；類別/代碼欄位2 個（例如：發購電、能源別）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4050,7 +4064,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：機組、大修）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+本資料集實際資料檔約包含 134 筆紀錄、6 個欄位。 欄位型態分布大致為：日期時間欄位2 個（例如：開始日期、結束日期）；整數數值欄位1 個（例如：年度）；類別/代碼欄位2 個（例如：能源別、備註）；文字描述欄位1 個（例如：機組名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「1.機組大修停機排程規劃將於每年中(6月)及年末(12月)辦理，並於彙整完畢後更新本資料集。
 2.本資料集為暫定排程，後續視實際系統及氣候情況滾動調整。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
@@ -4067,7 +4081,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：燃料、機組名稱、電力潮流量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+重要欄位與主題大致可從關鍵字（例如：燃料、機組名稱、電力潮流量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「1.更新頻率說明：每月更新三個月前資料。
 2.本資料集係擷取自電能管理系統(EMS)，可能會因系統維護、資料設定、傳輸等因素，而與實際數值有些許誤差，相關實際資料請以台電正式公布為準。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
@@ -4084,7 +4098,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：機組、燃料、淨發電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+重要欄位與主題大致可從關鍵字（例如：機組、燃料、淨發電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「1.更新頻率說明：每月更新三個月前資料。
 2.本資料集係擷取自電能管理系統(EMS)，可能會因系統維護、資料設定、傳輸等因素，而與實際數值有些許誤差，相關實際資料請以台電正式公布為準。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
@@ -4101,7 +4115,7 @@
 【3. 背景資訊】
 核能發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：核電、事故、通報）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+本資料集實際資料檔約包含 49 筆紀錄、14 個欄位。 欄位型態分布大致為：類別/代碼欄位10 個（例如：電廠、機組/共用、通報類別）；文字描述欄位4 個（例如：事件名稱、日期時間、通報原因與內容敘述）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4117,7 +4131,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「105年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：用電、縣市）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 770 筆紀錄、4 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：年度）；浮點數值欄位1 個（例如：用電比例）；類別/代碼欄位2 個（例如：縣市、用電性質）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4133,7 +4147,7 @@
 【3. 背景資訊】
 放射試驗室為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：輻射）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每5分。
+本資料集實際資料檔約包含 51 筆紀錄、6 個欄位。 欄位型態分布大致為：浮點數值欄位3 個（例如：劑量率(微西弗/小時)、經度、緯度）；文字描述欄位3 個（例如：站名、站號、日期時間）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每5分。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4149,7 +4163,7 @@
 【3. 背景資訊】
 發電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：CEMS、煙道、排煙）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每7日。
+本資料集實際資料檔約包含 50 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位6 個（例如：不透光率(小時)、二氧化硫(小時)、氮氧化物(小時)）；類別/代碼欄位2 個（例如：電廠名稱、機組）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每7日。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4165,7 +4179,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4181,7 +4195,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4197,7 +4211,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4213,7 +4227,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4229,7 +4243,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4245,7 +4259,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4261,7 +4275,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4277,7 +4291,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4293,7 +4307,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4309,7 +4323,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4325,7 +4339,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4341,7 +4355,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：災害名稱、停電戶數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+重要欄位與主題大致可從關鍵字（例如：災害名稱、停電戶數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「1.更新頻率說明：災害期間每小時(平時不更新)
 2.備用網址(kml格式)：https://service.taipower.com.tw/data/opendata/apply/file/d006012/001.kml」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
@@ -4358,7 +4372,7 @@
 【3. 背景資訊】
 綜合研究所為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：落雷即時監測資訊）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1分。
+本資料集實際資料檔約包含 20 筆紀錄、6 個欄位。 欄位型態分布大致為：日期時間欄位1 個（例如：2025-09-17 16:19:17.00）；整數數值欄位2 個（例如：777959469、0）；浮點數值欄位2 個（例如：121.7727、21.8045）；類別/代碼欄位1 個（例如：-92.2281）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1分。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4374,7 +4388,7 @@
 【3. 背景資訊】
 秘書處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「106年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：線上簽核應用）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 10 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：年度）；類別/代碼欄位4 個（例如：年度公文線上簽核比例、年度自然人憑證比例、年度公務憑證比例）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4390,7 +4404,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4406,7 +4420,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：基隆市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 7288 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4422,7 +4436,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台北市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 47262 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4438,7 +4452,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：新北市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 77987 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4454,7 +4468,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：桃園市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 43287 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4470,7 +4484,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：新竹市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 8756 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位3 個（例如：帳單年月、鄉鎮區代碼、縣市代碼）；浮點數值欄位2 個（例如：度數、村里代碼）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4486,7 +4500,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：新竹縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 10168 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4502,7 +4516,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：苗栗縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 13262 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4518,7 +4532,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台中市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 52920 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位3 個（例如：帳單年月、鄉鎮區代碼、縣市代碼）；浮點數值欄位2 個（例如：度數、村里代碼）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4534,7 +4548,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：彰化縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 28998 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4550,7 +4564,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：雲林縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 16250 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4566,7 +4580,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：嘉義縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 22962 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4582,7 +4596,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：嘉義市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 6237 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4598,7 +4612,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台南市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 44921 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4614,7 +4628,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：高雄市、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 51965 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4630,7 +4644,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：屏東縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 20156 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4646,7 +4660,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：南投縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 14513 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4662,7 +4676,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：宜蘭縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 9717 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4678,7 +4692,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：花蓮縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 8107 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4694,7 +4708,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「107年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台東縣、售電量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 6635 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：帳單年月、村里代碼、鄉鎮區代碼）；浮點數值欄位1 個（例如：度數）；類別/代碼欄位4 個（例如：一級發布區代碼、村里名稱、鄉鎮區名稱）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「此資料計算過程為，先將變壓器屬非營業用戶的售電量分別加總，續利用各別變壓器的經緯度，經由sheethub.com的API取得個別點位對應的內政部統計處一級發布區代號，再針對所對應的一級發布區加總售電量。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4710,7 +4724,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：需量競價）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 96 筆紀錄、4 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：年度、月份、需量競價申請量(MW)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4726,7 +4740,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：尖峰負載、電力系統）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 5 筆紀錄、7 個欄位。 欄位型態分布大致為：日期時間欄位1 個（例如：尖峰日(年月日)）；整數數值欄位2 個（例如：年度(年)、時間(時分)）；浮點數值欄位4 個（例如：尖峰供電能力(萬瓩)、瞬時尖峰負載(萬瓩)、備轉容量(萬瓩)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4742,7 +4756,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：電力供需、供需預測）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每10日。
+本資料集實際資料檔約包含 6 筆紀錄、5 個欄位。 欄位型態分布大致為：日期時間欄位1 個（例如：日期）；浮點數值欄位4 個（例如：預估淨尖峰供電能力(萬瓩)、預估瞬時尖峰負載(萬瓩)、預估尖峰備轉容量(萬瓩)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每10日。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「1.更新頻率說明：以每旬第1天(1日、11日、21日)為原則。
 2.未來二個月電力供需預測係依據本公司負載預測及發電機組狀況，並參考中央氣象局長期天氣預測資料修正產生。
@@ -4761,7 +4775,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4777,7 +4791,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4793,7 +4807,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4809,7 +4823,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4825,7 +4839,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「108年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全國各縣市再生能源可併網容量資料可至以下連結：https://data.gov.tw/dataset/161874。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4841,7 +4855,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：尖峰、備轉容量）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 12 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位6 個（例如：系統運轉淨尖峰能力(KW)最大值、系統運轉淨尖峰能力(KW)最小值、系統瞬時尖峰負載(KW)最大值）；浮點數值欄位2 個（例如：備轉容量率(%)最大值、備轉容量率(%)最小值）；類別/代碼欄位1 個（例如：日期(年/月)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4857,7 +4871,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：線路損失）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 2 筆紀錄、8 個欄位。 欄位型態分布大致為：整數數值欄位3 個（例如：年度、線路損失量本年度實績值(度)、線路損失量上年度實績值(度)）；浮點數值欄位4 個（例如：線路損失量年度差異比較(%)、線路損失率本年度實績值(%)、線路損失率上年度實績值(%)）；類別/代碼欄位1 個（例如：項目）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4873,7 +4887,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：電燈營業、行業別）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 252 筆紀錄、3 個欄位。 欄位型態分布大致為：文字格式數值欄位1 個（例如：行業別代碼）；文字描述欄位2 個（例如：行業別名稱、本年度售電量(度)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4889,7 +4903,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：臺北市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 28856 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4905,7 +4919,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：新北市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 166488 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4921,7 +4935,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：桃園市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 187113 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4937,7 +4951,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：臺中市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 241737 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4953,7 +4967,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：臺南市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 339521 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4969,7 +4983,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：高雄市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 243245 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -4981,11 +4995,11 @@
     <t>【1. 核心描述】
 「台灣電力公司配電系統重大事故停電速報案件記錄」由配電處彙整並對外開放，主要紀錄：提供「電業事故通報程序標準」通報之歷史速報停電紀錄。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為配電相關資料集。
 【2. 應用場景】
-配電線路與饋線負載管理與事故分析、線路地下化或設備更新優先順序規劃、停電事件統計與品質監理指標追蹤
+配電線路與饋線負載管理與事故分析、線路地下化或設備更新優先順序規劃、停電事件統計與供電品質監理指標追蹤
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-資料內容多半包含時間、區域或設備/用戶等識別欄位，以及對應的電力相關指標（如用電量、容量、次數、金額等）。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 102 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：項次）；文字描述欄位4 個（例如：發生時間、事故名稱、停電戶數）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「配電系統重大事故停電速報條件說明如下：
 1.重點、重要設施用戶或重要集會公共場所之事故停電。
@@ -5005,7 +5019,7 @@
 【3. 背景資訊】
 核能後端營運處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：核能發電後端營運基金、除役）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+重要欄位與主題大致可從關鍵字（例如：核能發電後端營運基金、除役）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5021,7 +5035,7 @@
 【3. 背景資訊】
 核能後端營運處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「109年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：除役、核電廠）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+本資料集實際資料檔約包含 4615 筆紀錄、10 個欄位。 欄位型態分布大致為：日期時間欄位1 個（例如：更新日期）；整數數值欄位5 個（例如：s_no、year_id、年度）；文字格式數值欄位1 個（例如：備註）；類別/代碼欄位1 個（例如：類別）；文字描述欄位2 個（例如：項目、支出對象）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5037,7 +5051,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：基隆市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 15738 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5053,7 +5067,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：新竹市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 20599 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5069,7 +5083,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：新竹縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 115272 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5085,7 +5099,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：苗栗縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 150265 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5101,7 +5115,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：南投縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 189075 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5117,7 +5131,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：彰化縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 250898 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5133,7 +5147,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：雲林縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 248487 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5149,7 +5163,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：嘉義市電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 5566 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5165,7 +5179,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：嘉義縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 114865 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5181,7 +5195,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：屏東縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 227812 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5197,7 +5211,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：宜蘭縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 79910 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5213,7 +5227,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：花蓮縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 55313 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5229,7 +5243,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：臺東縣電桿）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 85250 筆紀錄、8 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：TWD_97_X、TWD_97_Y）；類別/代碼欄位4 個（例如：縣市、行政區、鄉里）；文字描述欄位2 個（例如：圖號座標、桿號）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「如需全台各縣市電桿坐標及桿號資料可至以下連結：https://data.gov.tw/dataset/33305。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5245,7 +5259,7 @@
 【3. 背景資訊】
 核能安全處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「110年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：注改事項資料）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 22 筆紀錄、9 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：年度、流水號、來函日期(年)）；類別/代碼欄位5 個（例如：廠別、等級、違規事項）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5261,7 +5275,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「111年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：用電、路燈）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 88 筆紀錄、8 個欄位。 欄位型態分布大致為：整數數值欄位3 個（例如：年度、包制戶數、LED戶數）；文字格式數值欄位1 個（例如：表制戶數）；類別/代碼欄位1 個（例如：縣市別）；文字描述欄位3 個（例如：包制用電量、表制用電量、LED用電量）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「用戶數係年底數，售電量為全年累計數。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5277,7 +5291,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「112年會計處依中央政府函開放預算資料」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：電力品質）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+重要欄位與主題大致可從關鍵字（例如：電力品質）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5293,7 +5307,7 @@
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
+重要欄位與主題大致可從關鍵字（例如：再生能源、可併網、饋線）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「ZIP/CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每6月。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「本資料集包含全台各縣市再生能源可併網容量資料，如需單獨下載各縣市資料可至以下連結，或於本平台搜尋後下載：
 臺北市(https://data.gov.tw/dataset/44193) 新北市(https://data.gov.tw/dataset/44194)
@@ -5318,7 +5332,7 @@
 【3. 背景資訊】
 人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「112年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：歷年員工人數、員工人數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 68 筆紀錄、3 個欄位。 欄位型態分布大致為：整數數值欄位3 個（例如：年度、性別(1:男/2:女)、人數）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5334,7 +5348,7 @@
 【3. 背景資訊】
 人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「112年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：歷年員工平均年齡、平均年齡、年齡）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 34 筆紀錄、2 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：年度）；浮點數值欄位1 個（例如：平均年齡）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5350,7 +5364,7 @@
 【3. 背景資訊】
 人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「112年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：年齡年資分布、年齡、年資）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 20 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位4 個（例如：年度、月份、派用）；類別/代碼欄位1 個（例如：類別）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5366,7 +5380,7 @@
 【3. 背景資訊】
 人力資源處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「112年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：歷年業務量及員工人數成長率、業務量、員工人數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 264 筆紀錄、3 個欄位。 欄位型態分布大致為：整數數值欄位2 個（例如：年度、比例）；類別/代碼欄位1 個（例如：類別）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5382,7 +5396,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：今日用電、系統供需狀況）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每10分。
+重要欄位與主題大致可從關鍵字（例如：今日用電、系統供需狀況）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「JSON」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每10分。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「1.使用率 = (目前用電量 ÷ 供電能力)×100%；其中供電能力為估算值，係參考機組狀況及再生能源發電量適時更新。
 2.尖峰使用率 = (預估最高用電 ÷ 最大供電能力)×100%。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
@@ -5399,7 +5413,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：今日用電、區域別）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每10分。
+本資料集實際資料檔約包含 4 筆紀錄、4 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：發電(萬瓩)、用電(萬瓩)）；類別/代碼欄位2 個（例如：時間、區域）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每10分。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「各區域發電量劃分，原則先以電廠所在地理位置劃分北、中、南、東四區；區域用電量則再依中送北、南送中、南送東、中送東電力潮流量調整得出。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5415,7 +5429,7 @@
 【3. 背景資訊】
 業務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：用電、小商店）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
+本資料集實際資料檔約包含 92 筆紀錄、5 個欄位。 欄位型態分布大致為：整數數值欄位5 個（例如：日期(年/月)、小商店本期平均用電度數(度/戶)、小商店去年同期平均用電度數(度/戶)）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1月。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5431,7 +5445,7 @@
 【3. 背景資訊】
 財務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理/交通運輸相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「交通及通訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：台電、出租、電動機車、電池交換站）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 13 筆紀錄、10 個欄位。 欄位型態分布大致為：浮點數值欄位3 個（例如：出租面積(㎡)、經度、緯度）；類別/代碼欄位7 個（例如：經管單位、土地座落、出租方式）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5447,7 +5461,7 @@
 【3. 背景資訊】
 企劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：每戶停電時間、每戶停電次數）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
+本資料集實際資料檔約包含 21 筆紀錄、4 個欄位。 欄位型態分布大致為：整數數值欄位1 個（例如：年度）；文字格式數值欄位2 個（例如：SAIDI、SAIFI）；類別/代碼欄位1 個（例如： ）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：每1年。
 【5. 使用限制與注意事項】
 需注意的是，資料僅反映統計期間與彙整範圍內的情況，若要解讀特定單一事件或即時狀況，建議搭配最新的公告資訊或營運系統資料一併參考。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5463,7 +5477,7 @@
 【3. 背景資訊】
 新事業開發室為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理/交通運輸相關的統計與管理資料。 本資料集之開放說明為：「112年依經濟部建議開放」。 在政府資料開放平台中，該資料集被歸類為「交通及通訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：充電樁）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+本資料集實際資料檔約包含 13 筆紀錄、5 個欄位。 欄位型態分布大致為：浮點數值欄位2 個（例如：經度、緯度）；類別/代碼欄位3 個（例如：充電樁位置、地址、充電樁數量）。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5479,7 +5493,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：發電排程）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+重要欄位與主題大致可從關鍵字（例如：發電排程）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5495,7 +5509,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：緊急調度）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+重要欄位與主題大致可從關鍵字（例如：緊急調度）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5511,7 +5525,7 @@
 【3. 背景資訊】
 電力調度處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：電源不足）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+重要欄位與主題大致可從關鍵字（例如：電源不足）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5527,7 +5541,7 @@
 【3. 背景資訊】
 系統規劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：輸變電計畫）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+重要欄位與主題大致可從關鍵字（例如：輸變電計畫）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5539,11 +5553,11 @@
     <t>【1. 核心描述】
 「台灣電力公司郝明義提問配電變壓器採V-V接線疑義」由配電處彙整並對外開放，主要紀錄：本資料集提供台電配電變壓器採V-V接線說明。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為配電相關資料集。
 【2. 應用場景】
-配電線路與饋線負載管理與事故分析、線路地下化或設備更新優先順序規劃、停電事件統計與品質監理指標追蹤
+配電線路與饋線負載管理與事故分析、線路地下化或設備更新優先順序規劃、停電事件統計與供電品質監理指標追蹤
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：配電變壓器採V-V接線疑義）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+重要欄位與主題大致可從關鍵字（例如：配電變壓器採V-V接線疑義）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5555,11 +5569,11 @@
     <t>【1. 核心描述】
 「台灣電力公司配電線路事故分析」由配電處彙整並對外開放，主要紀錄：本資料集提供台電配電線路事故分析資料，可供大眾了解停電事故情形。主題範圍涵蓋「公共資訊」領域中的「相關服務/業務項目」等面向；時間範圍：未明確（以實際資料欄位標註為準）；地理範圍：未明確（多數為台灣全島或各縣市範圍）。依內容與關鍵字初步判斷，本資料集可歸類為配電相關資料集。
 【2. 應用場景】
-配電線路與饋線負載管理與事故分析、線路地下化或設備更新優先順序規劃、停電事件統計與品質監理指標追蹤
+配電線路與饋線負載管理與事故分析、線路地下化或設備更新優先順序規劃、停電事件統計與供電品質監理指標追蹤
 【3. 背景資訊】
 配電處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「依民眾建議開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：配電線路事故分析）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+重要欄位與主題大致可從關鍵字（例如：配電線路事故分析）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「PDF」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5575,7 +5589,7 @@
 【3. 背景資訊】
 公眾服務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「113年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：即時說明、台電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+重要欄位與主題大致可從關鍵字（例如：即時說明、台電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
@@ -5591,41 +5605,24 @@
 【3. 背景資訊】
 公眾服務處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與公共資訊相關的統計與管理資料。 本資料集之開放說明為：「114年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
 【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：澄清專區、詐騙、謠言、台電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
+重要欄位與主題大致可從關鍵字（例如：澄清專區、詐騙、謠言、台電）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 檔案格式方面，平台目前以「XML」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 更新頻率為：不定期更新。
 【5. 使用限制與注意事項】
 原始資料備註中另有說明：「更新頻率說明：有異動時。」，使用前建議先行閱讀。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
 【6. 潛在價值】
 「台灣電力公司澄清專區」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/173795）查詢更詳細的欄位與使用說明。
 【7. 其他補充（分類說明）】
 判斷歸類：其他。依名稱與描述內容推估，本資料集與電力產業治理、財務資訊、公司治理或公共溝通等面向關聯較高，可視為支援整體電力營運與政策透明度的輔助性資料來源。</t>
-  </si>
-  <si>
-    <t>【1. 核心描述】
-「台灣電力公司公用售電業售電統計資料」由企劃處彙整並對外開放，主要紀錄：追蹤台灣公用售電業的年度營運狀況，提供售電量、用戶數及平均電價的歷史統計數據，以供能源政策分析與市場研究。主題範圍涵蓋「能源管理」領域中的「電力供需」等面向；時間範圍：歷史資料，涵蓋資料集發布以來的所有年度數據；地理範圍：台灣全島。依內容與關鍵字初步判斷，本資料集可歸類為售電與用電行為相關資料集。
-【2. 應用場景】
-分析台灣整體電力消費趨勢與年度用電成長率。、研究平均電價的歷史變動，作為制定能源價格政策的參考。、評估公用售電業的用戶結構變化與市場規模。
-【3. 背景資訊】
-企劃處為台灣電力產業及公共用電服務的關鍵單位，負責蒐集、整理並公開與能源管理相關的統計與管理資料。 本資料集之開放說明為：「103年自行盤點開放」。 在政府資料開放平台中，該資料集被歸類為「公共資訊」，反映其屬於公共資訊與能源治理的重要一環。
-【4. 資料特徵】
-重要欄位與主題大致可從關鍵字（例如：電燈、行業別用電、平均電價、用戶數、非營業用、營業用、政府統計）看出，實際欄位名稱與定義請以原始資料平台之欄位說明為準。 整體而言，本資料集以結構化表格形式提供，欄位型態主要包括：類別欄位（例如縣市、用戶類別、機組名稱等）、數值欄位（如用電度數、裝置容量、金額指標）、以及時間序列欄位（例如統計年月、讀表日期、發電或用電時間等）。實際欄位型態組合會依資料集而異。 檔案格式方面，平台目前以「CSV」形式開放，方便使用者透過試算表軟體或資料分析工具讀取與處理。 在統計粒度上，資料多依「年 / 全台」彙整，適合進行趨勢觀察與跨群組比較。 更新頻率為：每1年，實際發布時間通常每年更新一次，發布時間約為統計年度結束後 1-3 個月。
-【5. 使用限制與注意事項】
-就資料完整性而言，涵蓋台灣全島公用售電業的年度歷史統計數據。。 在準確性與一致性方面，官方統計、定期驗證。 適合進行宏觀的電力市場分析與長期趨勢研究，不適用於即時或區域性分析。 若資料中涉及地理位置、用戶或設備識別，通常會經過匿名化或聚合處理，因此不適合直接用於個別用戶或單一設備層級的推論。 跨年度或跨區域比較時，需留意若有定義調整、分類方式變動或統計方法修正，可能影響數值可比性；部分代碼欄位（例如行政區代碼、設備代碼）可能需搭配外部對照表才能完整解讀。
-【6. 潛在價值】
-「台灣電力公司公用售電業售電統計資料」可作為能源政策制定、公共建設規劃與電力營運管理的重要依據，協助政府部門檢視既有措施成效，並規劃後續投資與制度調整方向。 對企業與產業而言，這類開放資料有助於掌握用電或供電型態變化，評估節能方案與設備投資報酬，亦可作為開發新型能源服務或數據產品的基礎。 在學術研究與資料創新應用方面，透過與人口、產業結構、氣候、經濟指標等其他開放資料交叉分析，可以更完整地理解電力系統與社會經濟活動之間的互動關係，發掘節能減碳、智慧電網與電力市場設計等議題上的新洞見。 使用者亦可至政府資料開放平台之資料集頁面（https://data.gov.tw/dataset/6064）查詢更詳細的欄位與使用說明。
-【7. 其他補充（分類說明）】
-判斷歸類：售電。本資料集依據名稱、描述與關鍵字內容，初步比對電力價值鏈中「售電」相關的常見詞彙進行判斷，例如：發電廠/機組/再生能源多對應發電；變電站/超高壓/輸電線路多對應輸電；AMI/饋線/低壓常與配電有關；電價/費率/帳單/用電戶則多屬售電與用電行為分析範疇。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5633,7 +5630,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5643,13 +5640,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5691,35 +5681,24 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5761,7 +5740,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5793,27 +5772,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5845,24 +5806,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6038,14 +5981,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -6094,7 +6035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="409.6">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6134,11 +6075,11 @@
       <c r="N2" t="s">
         <v>827</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15">
+      <c r="O2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6176,10 +6117,10 @@
         <v>827</v>
       </c>
       <c r="O3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6223,10 +6164,10 @@
         <v>827</v>
       </c>
       <c r="O4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6267,10 +6208,10 @@
         <v>828</v>
       </c>
       <c r="O5" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6314,10 +6255,10 @@
         <v>827</v>
       </c>
       <c r="O6" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6355,10 +6296,10 @@
         <v>829</v>
       </c>
       <c r="O7" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6396,10 +6337,10 @@
         <v>827</v>
       </c>
       <c r="O8" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6440,10 +6381,10 @@
         <v>830</v>
       </c>
       <c r="O9" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6484,10 +6425,10 @@
         <v>830</v>
       </c>
       <c r="O10" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6528,10 +6469,10 @@
         <v>830</v>
       </c>
       <c r="O11" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6575,10 +6516,10 @@
         <v>831</v>
       </c>
       <c r="O12" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6619,10 +6560,10 @@
         <v>831</v>
       </c>
       <c r="O13" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6657,10 +6598,10 @@
         <v>831</v>
       </c>
       <c r="O14" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6704,10 +6645,10 @@
         <v>831</v>
       </c>
       <c r="O15" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6748,10 +6689,10 @@
         <v>831</v>
       </c>
       <c r="O16" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6786,10 +6727,10 @@
         <v>832</v>
       </c>
       <c r="O17" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6824,10 +6765,10 @@
         <v>832</v>
       </c>
       <c r="O18" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6871,10 +6812,10 @@
         <v>833</v>
       </c>
       <c r="O19" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6912,10 +6853,10 @@
         <v>831</v>
       </c>
       <c r="O20" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6956,10 +6897,10 @@
         <v>831</v>
       </c>
       <c r="O21" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6994,10 +6935,10 @@
         <v>831</v>
       </c>
       <c r="O22" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -7032,10 +6973,10 @@
         <v>831</v>
       </c>
       <c r="O23" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7073,10 +7014,10 @@
         <v>831</v>
       </c>
       <c r="O24" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7111,10 +7052,10 @@
         <v>831</v>
       </c>
       <c r="O25" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -7155,10 +7096,10 @@
         <v>831</v>
       </c>
       <c r="O26" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -7196,10 +7137,10 @@
         <v>831</v>
       </c>
       <c r="O27" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -7243,10 +7184,10 @@
         <v>831</v>
       </c>
       <c r="O28" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -7290,10 +7231,10 @@
         <v>831</v>
       </c>
       <c r="O29" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -7334,10 +7275,10 @@
         <v>831</v>
       </c>
       <c r="O30" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>29</v>
       </c>
@@ -7381,10 +7322,10 @@
         <v>831</v>
       </c>
       <c r="O31" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>30</v>
       </c>
@@ -7428,10 +7369,10 @@
         <v>831</v>
       </c>
       <c r="O32" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>31</v>
       </c>
@@ -7472,10 +7413,10 @@
         <v>831</v>
       </c>
       <c r="O33" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>32</v>
       </c>
@@ -7519,10 +7460,10 @@
         <v>828</v>
       </c>
       <c r="O34" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>33</v>
       </c>
@@ -7557,10 +7498,10 @@
         <v>831</v>
       </c>
       <c r="O35" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>34</v>
       </c>
@@ -7595,10 +7536,10 @@
         <v>832</v>
       </c>
       <c r="O36" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>35</v>
       </c>
@@ -7633,10 +7574,10 @@
         <v>832</v>
       </c>
       <c r="O37" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>36</v>
       </c>
@@ -7677,10 +7618,10 @@
         <v>831</v>
       </c>
       <c r="O38" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>37</v>
       </c>
@@ -7715,10 +7656,10 @@
         <v>832</v>
       </c>
       <c r="O39" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>38</v>
       </c>
@@ -7753,10 +7694,10 @@
         <v>832</v>
       </c>
       <c r="O40" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>39</v>
       </c>
@@ -7800,10 +7741,10 @@
         <v>832</v>
       </c>
       <c r="O41" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>40</v>
       </c>
@@ -7841,10 +7782,10 @@
         <v>831</v>
       </c>
       <c r="O42" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>41</v>
       </c>
@@ -7882,10 +7823,10 @@
         <v>831</v>
       </c>
       <c r="O43" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>42</v>
       </c>
@@ -7929,10 +7870,10 @@
         <v>831</v>
       </c>
       <c r="O44" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>43</v>
       </c>
@@ -7967,10 +7908,10 @@
         <v>831</v>
       </c>
       <c r="O45" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>44</v>
       </c>
@@ -8005,10 +7946,10 @@
         <v>831</v>
       </c>
       <c r="O46" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>45</v>
       </c>
@@ -8052,10 +7993,10 @@
         <v>831</v>
       </c>
       <c r="O47" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>46</v>
       </c>
@@ -8093,10 +8034,10 @@
         <v>831</v>
       </c>
       <c r="O48" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>47</v>
       </c>
@@ -8134,10 +8075,10 @@
         <v>834</v>
       </c>
       <c r="O49" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>48</v>
       </c>
@@ -8175,10 +8116,10 @@
         <v>834</v>
       </c>
       <c r="O50" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>49</v>
       </c>
@@ -8216,10 +8157,10 @@
         <v>834</v>
       </c>
       <c r="O51" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>50</v>
       </c>
@@ -8257,10 +8198,10 @@
         <v>834</v>
       </c>
       <c r="O52" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>51</v>
       </c>
@@ -8304,10 +8245,10 @@
         <v>834</v>
       </c>
       <c r="O53" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>52</v>
       </c>
@@ -8348,10 +8289,10 @@
         <v>834</v>
       </c>
       <c r="O54" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="15">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>53</v>
       </c>
@@ -8392,10 +8333,10 @@
         <v>834</v>
       </c>
       <c r="O55" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="15">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>54</v>
       </c>
@@ -8436,10 +8377,10 @@
         <v>834</v>
       </c>
       <c r="O56" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>55</v>
       </c>
@@ -8474,10 +8415,10 @@
         <v>834</v>
       </c>
       <c r="O57" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="15">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>56</v>
       </c>
@@ -8518,10 +8459,10 @@
         <v>834</v>
       </c>
       <c r="O58" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>57</v>
       </c>
@@ -8556,10 +8497,10 @@
         <v>834</v>
       </c>
       <c r="O59" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>58</v>
       </c>
@@ -8594,10 +8535,10 @@
         <v>834</v>
       </c>
       <c r="O60" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>59</v>
       </c>
@@ -8632,10 +8573,10 @@
         <v>834</v>
       </c>
       <c r="O61" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>60</v>
       </c>
@@ -8676,10 +8617,10 @@
         <v>834</v>
       </c>
       <c r="O62" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="15">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>61</v>
       </c>
@@ -8714,10 +8655,10 @@
         <v>834</v>
       </c>
       <c r="O63" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="15">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>62</v>
       </c>
@@ -8752,10 +8693,10 @@
         <v>834</v>
       </c>
       <c r="O64" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="15">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>63</v>
       </c>
@@ -8790,10 +8731,10 @@
         <v>834</v>
       </c>
       <c r="O65" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="15">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>64</v>
       </c>
@@ -8828,10 +8769,10 @@
         <v>834</v>
       </c>
       <c r="O66" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="15">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>65</v>
       </c>
@@ -8869,10 +8810,10 @@
         <v>834</v>
       </c>
       <c r="O67" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="15">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>66</v>
       </c>
@@ -8913,10 +8854,10 @@
         <v>834</v>
       </c>
       <c r="O68" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="15">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>67</v>
       </c>
@@ -8957,10 +8898,10 @@
         <v>834</v>
       </c>
       <c r="O69" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="15">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>68</v>
       </c>
@@ -9001,10 +8942,10 @@
         <v>834</v>
       </c>
       <c r="O70" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="15">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>69</v>
       </c>
@@ -9039,10 +8980,10 @@
         <v>834</v>
       </c>
       <c r="O71" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="15">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>70</v>
       </c>
@@ -9077,10 +9018,10 @@
         <v>834</v>
       </c>
       <c r="O72" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="15">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>71</v>
       </c>
@@ -9115,10 +9056,10 @@
         <v>834</v>
       </c>
       <c r="O73" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="15">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>72</v>
       </c>
@@ -9156,10 +9097,10 @@
         <v>834</v>
       </c>
       <c r="O74" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="15">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>73</v>
       </c>
@@ -9200,10 +9141,10 @@
         <v>834</v>
       </c>
       <c r="O75" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>74</v>
       </c>
@@ -9241,10 +9182,10 @@
         <v>834</v>
       </c>
       <c r="O76" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>75</v>
       </c>
@@ -9282,10 +9223,10 @@
         <v>834</v>
       </c>
       <c r="O77" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="15">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>76</v>
       </c>
@@ -9326,10 +9267,10 @@
         <v>834</v>
       </c>
       <c r="O78" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="15">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>77</v>
       </c>
@@ -9370,10 +9311,10 @@
         <v>834</v>
       </c>
       <c r="O79" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="15">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>78</v>
       </c>
@@ -9414,10 +9355,10 @@
         <v>834</v>
       </c>
       <c r="O80" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="15">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>79</v>
       </c>
@@ -9452,10 +9393,10 @@
         <v>834</v>
       </c>
       <c r="O81" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="15">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>80</v>
       </c>
@@ -9490,10 +9431,10 @@
         <v>834</v>
       </c>
       <c r="O82" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="15">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>81</v>
       </c>
@@ -9528,10 +9469,10 @@
         <v>834</v>
       </c>
       <c r="O83" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="15">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>82</v>
       </c>
@@ -9575,10 +9516,10 @@
         <v>834</v>
       </c>
       <c r="O84" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="15">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>83</v>
       </c>
@@ -9622,10 +9563,10 @@
         <v>834</v>
       </c>
       <c r="O85" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="15">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>84</v>
       </c>
@@ -9669,10 +9610,10 @@
         <v>834</v>
       </c>
       <c r="O86" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="15">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>85</v>
       </c>
@@ -9713,10 +9654,10 @@
         <v>834</v>
       </c>
       <c r="O87" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="15">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>86</v>
       </c>
@@ -9757,10 +9698,10 @@
         <v>834</v>
       </c>
       <c r="O88" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="15">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>87</v>
       </c>
@@ -9801,10 +9742,10 @@
         <v>834</v>
       </c>
       <c r="O89" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="15">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>88</v>
       </c>
@@ -9845,10 +9786,10 @@
         <v>834</v>
       </c>
       <c r="O90" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="15">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>89</v>
       </c>
@@ -9889,10 +9830,10 @@
         <v>834</v>
       </c>
       <c r="O91" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="15">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>90</v>
       </c>
@@ -9936,10 +9877,10 @@
         <v>834</v>
       </c>
       <c r="O92" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="15">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>91</v>
       </c>
@@ -9983,10 +9924,10 @@
         <v>834</v>
       </c>
       <c r="O93" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="15">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>92</v>
       </c>
@@ -10030,10 +9971,10 @@
         <v>834</v>
       </c>
       <c r="O94" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="15">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>93</v>
       </c>
@@ -10077,10 +10018,10 @@
         <v>834</v>
       </c>
       <c r="O95" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="15">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>94</v>
       </c>
@@ -10121,10 +10062,10 @@
         <v>834</v>
       </c>
       <c r="O96" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="15">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>95</v>
       </c>
@@ -10165,10 +10106,10 @@
         <v>835</v>
       </c>
       <c r="O97" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="15">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>96</v>
       </c>
@@ -10203,10 +10144,10 @@
         <v>835</v>
       </c>
       <c r="O98" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="15">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
         <v>97</v>
       </c>
@@ -10244,10 +10185,10 @@
         <v>835</v>
       </c>
       <c r="O99" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="15">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>98</v>
       </c>
@@ -10285,10 +10226,10 @@
         <v>835</v>
       </c>
       <c r="O100" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="15">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>99</v>
       </c>
@@ -10326,10 +10267,10 @@
         <v>835</v>
       </c>
       <c r="O101" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="15">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102">
         <v>100</v>
       </c>
@@ -10367,10 +10308,10 @@
         <v>835</v>
       </c>
       <c r="O102" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="15">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103">
         <v>101</v>
       </c>
@@ -10408,10 +10349,10 @@
         <v>835</v>
       </c>
       <c r="O103" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="15">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104">
         <v>102</v>
       </c>
@@ -10449,10 +10390,10 @@
         <v>835</v>
       </c>
       <c r="O104" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="15">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105">
         <v>103</v>
       </c>
@@ -10490,10 +10431,10 @@
         <v>835</v>
       </c>
       <c r="O105" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="15">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106">
         <v>104</v>
       </c>
@@ -10531,10 +10472,10 @@
         <v>835</v>
       </c>
       <c r="O106" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="15">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107">
         <v>105</v>
       </c>
@@ -10572,10 +10513,10 @@
         <v>835</v>
       </c>
       <c r="O107" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="15">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108">
         <v>106</v>
       </c>
@@ -10613,10 +10554,10 @@
         <v>835</v>
       </c>
       <c r="O108" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="15">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109">
         <v>107</v>
       </c>
@@ -10654,10 +10595,10 @@
         <v>835</v>
       </c>
       <c r="O109" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="15">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110">
         <v>108</v>
       </c>
@@ -10701,10 +10642,10 @@
         <v>835</v>
       </c>
       <c r="O110" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="15">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111">
         <v>109</v>
       </c>
@@ -10739,10 +10680,10 @@
         <v>835</v>
       </c>
       <c r="O111" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="15">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112">
         <v>110</v>
       </c>
@@ -10777,10 +10718,10 @@
         <v>835</v>
       </c>
       <c r="O112" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="15">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113">
         <v>111</v>
       </c>
@@ -10818,10 +10759,10 @@
         <v>836</v>
       </c>
       <c r="O113" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="15">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114">
         <v>112</v>
       </c>
@@ -10865,10 +10806,10 @@
         <v>836</v>
       </c>
       <c r="O114" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="15">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115">
         <v>113</v>
       </c>
@@ -10912,10 +10853,10 @@
         <v>836</v>
       </c>
       <c r="O115" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="15">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116">
         <v>114</v>
       </c>
@@ -10959,10 +10900,10 @@
         <v>836</v>
       </c>
       <c r="O116" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="15">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117">
         <v>115</v>
       </c>
@@ -11006,10 +10947,10 @@
         <v>836</v>
       </c>
       <c r="O117" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="15">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118">
         <v>116</v>
       </c>
@@ -11053,10 +10994,10 @@
         <v>836</v>
       </c>
       <c r="O118" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="15">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119">
         <v>117</v>
       </c>
@@ -11100,10 +11041,10 @@
         <v>836</v>
       </c>
       <c r="O119" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="15">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120">
         <v>118</v>
       </c>
@@ -11147,10 +11088,10 @@
         <v>836</v>
       </c>
       <c r="O120" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="15">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121">
         <v>119</v>
       </c>
@@ -11194,10 +11135,10 @@
         <v>836</v>
       </c>
       <c r="O121" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="15">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122">
         <v>120</v>
       </c>
@@ -11241,10 +11182,10 @@
         <v>836</v>
       </c>
       <c r="O122" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="15">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123">
         <v>121</v>
       </c>
@@ -11288,10 +11229,10 @@
         <v>836</v>
       </c>
       <c r="O123" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="15">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124">
         <v>122</v>
       </c>
@@ -11335,10 +11276,10 @@
         <v>836</v>
       </c>
       <c r="O124" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="15">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125">
         <v>123</v>
       </c>
@@ -11382,10 +11323,10 @@
         <v>836</v>
       </c>
       <c r="O125" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="15">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126">
         <v>124</v>
       </c>
@@ -11429,10 +11370,10 @@
         <v>836</v>
       </c>
       <c r="O126" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="15">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127">
         <v>125</v>
       </c>
@@ -11476,10 +11417,10 @@
         <v>836</v>
       </c>
       <c r="O127" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="15">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128">
         <v>126</v>
       </c>
@@ -11523,10 +11464,10 @@
         <v>836</v>
       </c>
       <c r="O128" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" ht="15">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129">
         <v>127</v>
       </c>
@@ -11570,10 +11511,10 @@
         <v>836</v>
       </c>
       <c r="O129" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="15">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130">
         <v>128</v>
       </c>
@@ -11617,10 +11558,10 @@
         <v>836</v>
       </c>
       <c r="O130" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="15">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131">
         <v>129</v>
       </c>
@@ -11664,10 +11605,10 @@
         <v>836</v>
       </c>
       <c r="O131" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" ht="15">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132">
         <v>130</v>
       </c>
@@ -11711,10 +11652,10 @@
         <v>836</v>
       </c>
       <c r="O132" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" ht="15">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133">
         <v>131</v>
       </c>
@@ -11755,10 +11696,10 @@
         <v>837</v>
       </c>
       <c r="O133" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" ht="15">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134">
         <v>132</v>
       </c>
@@ -11799,10 +11740,10 @@
         <v>837</v>
       </c>
       <c r="O134" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" ht="15">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135">
         <v>133</v>
       </c>
@@ -11846,10 +11787,10 @@
         <v>837</v>
       </c>
       <c r="O135" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="15">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136">
         <v>134</v>
       </c>
@@ -11887,10 +11828,10 @@
         <v>837</v>
       </c>
       <c r="O136" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" ht="15">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137">
         <v>135</v>
       </c>
@@ -11928,10 +11869,10 @@
         <v>837</v>
       </c>
       <c r="O137" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" ht="15">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138">
         <v>136</v>
       </c>
@@ -11969,10 +11910,10 @@
         <v>837</v>
       </c>
       <c r="O138" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="15">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139">
         <v>137</v>
       </c>
@@ -12010,10 +11951,10 @@
         <v>837</v>
       </c>
       <c r="O139" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" ht="15">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140">
         <v>138</v>
       </c>
@@ -12051,10 +11992,10 @@
         <v>837</v>
       </c>
       <c r="O140" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" ht="15">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141">
         <v>139</v>
       </c>
@@ -12095,10 +12036,10 @@
         <v>838</v>
       </c>
       <c r="O141" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="15">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142">
         <v>140</v>
       </c>
@@ -12139,10 +12080,10 @@
         <v>838</v>
       </c>
       <c r="O142" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" ht="15">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143">
         <v>141</v>
       </c>
@@ -12183,10 +12124,10 @@
         <v>838</v>
       </c>
       <c r="O143" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" ht="15">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144">
         <v>142</v>
       </c>
@@ -12224,10 +12165,10 @@
         <v>838</v>
       </c>
       <c r="O144" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="15">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145">
         <v>143</v>
       </c>
@@ -12265,10 +12206,10 @@
         <v>838</v>
       </c>
       <c r="O145" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" ht="15">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146">
         <v>144</v>
       </c>
@@ -12306,10 +12247,10 @@
         <v>838</v>
       </c>
       <c r="O146" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" ht="15">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147">
         <v>145</v>
       </c>
@@ -12347,10 +12288,10 @@
         <v>838</v>
       </c>
       <c r="O147" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="15">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148">
         <v>146</v>
       </c>
@@ -12388,10 +12329,10 @@
         <v>838</v>
       </c>
       <c r="O148" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" ht="15">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149">
         <v>147</v>
       </c>
@@ -12429,10 +12370,10 @@
         <v>838</v>
       </c>
       <c r="O149" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="15">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150">
         <v>148</v>
       </c>
@@ -12473,10 +12414,10 @@
         <v>838</v>
       </c>
       <c r="O150" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="15">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151">
         <v>149</v>
       </c>
@@ -12514,10 +12455,10 @@
         <v>838</v>
       </c>
       <c r="O151" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="15">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152">
         <v>150</v>
       </c>
@@ -12555,10 +12496,10 @@
         <v>838</v>
       </c>
       <c r="O152" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="15">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153">
         <v>151</v>
       </c>
@@ -12596,10 +12537,10 @@
         <v>839</v>
       </c>
       <c r="O153" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="15">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154">
         <v>152</v>
       </c>
@@ -12637,10 +12578,10 @@
         <v>839</v>
       </c>
       <c r="O154" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="15">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155">
         <v>153</v>
       </c>
@@ -12678,10 +12619,10 @@
         <v>839</v>
       </c>
       <c r="O155" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="15">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156">
         <v>154</v>
       </c>
@@ -12719,10 +12660,10 @@
         <v>839</v>
       </c>
       <c r="O156" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157">
         <v>155</v>
       </c>
@@ -12760,10 +12701,10 @@
         <v>839</v>
       </c>
       <c r="O157" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" ht="15">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158">
         <v>156</v>
       </c>
@@ -12801,10 +12742,10 @@
         <v>839</v>
       </c>
       <c r="O158" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" ht="15">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159">
         <v>157</v>
       </c>
@@ -12842,10 +12783,10 @@
         <v>839</v>
       </c>
       <c r="O159" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" ht="15">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160">
         <v>158</v>
       </c>
@@ -12883,10 +12824,10 @@
         <v>839</v>
       </c>
       <c r="O160" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" ht="15">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161">
         <v>159</v>
       </c>
@@ -12924,10 +12865,10 @@
         <v>839</v>
       </c>
       <c r="O161" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" ht="15">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162">
         <v>160</v>
       </c>
@@ -12965,10 +12906,10 @@
         <v>839</v>
       </c>
       <c r="O162" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" ht="15">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163">
         <v>161</v>
       </c>
@@ -13006,10 +12947,10 @@
         <v>839</v>
       </c>
       <c r="O163" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" ht="15">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164">
         <v>162</v>
       </c>
@@ -13047,10 +12988,10 @@
         <v>839</v>
       </c>
       <c r="O164" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" ht="15">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165">
         <v>163</v>
       </c>
@@ -13088,10 +13029,10 @@
         <v>839</v>
       </c>
       <c r="O165" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" ht="15">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166">
         <v>164</v>
       </c>
@@ -13126,10 +13067,10 @@
         <v>839</v>
       </c>
       <c r="O166" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" ht="15">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167">
         <v>165</v>
       </c>
@@ -13173,10 +13114,10 @@
         <v>840</v>
       </c>
       <c r="O167" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" ht="15">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168">
         <v>166</v>
       </c>
@@ -13211,10 +13152,10 @@
         <v>841</v>
       </c>
       <c r="O168" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" ht="15">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169">
         <v>167</v>
       </c>
@@ -13258,10 +13199,10 @@
         <v>842</v>
       </c>
       <c r="O169" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" ht="15">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170">
         <v>168</v>
       </c>
@@ -13296,10 +13237,10 @@
         <v>843</v>
       </c>
       <c r="O170" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" ht="15">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171">
         <v>169</v>
       </c>
@@ -13334,10 +13275,10 @@
         <v>843</v>
       </c>
       <c r="O171" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" ht="15">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172">
         <v>170</v>
       </c>
@@ -13372,10 +13313,10 @@
         <v>843</v>
       </c>
       <c r="O172" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" ht="15">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173">
         <v>171</v>
       </c>
@@ -13410,10 +13351,10 @@
         <v>843</v>
       </c>
       <c r="O173" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" ht="15">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174">
         <v>172</v>
       </c>
@@ -13457,10 +13398,10 @@
         <v>842</v>
       </c>
       <c r="O174" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" ht="15">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175">
         <v>173</v>
       </c>
@@ -13504,10 +13445,10 @@
         <v>842</v>
       </c>
       <c r="O175" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" ht="15">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176">
         <v>174</v>
       </c>
@@ -13548,10 +13489,10 @@
         <v>842</v>
       </c>
       <c r="O176" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" ht="15">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177">
         <v>175</v>
       </c>
@@ -13592,10 +13533,10 @@
         <v>842</v>
       </c>
       <c r="O177" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" ht="15">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178">
         <v>176</v>
       </c>
@@ -13630,10 +13571,10 @@
         <v>842</v>
       </c>
       <c r="O178" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" ht="15">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179">
         <v>177</v>
       </c>
@@ -13677,10 +13618,10 @@
         <v>842</v>
       </c>
       <c r="O179" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" ht="15">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180">
         <v>178</v>
       </c>
@@ -13718,10 +13659,10 @@
         <v>828</v>
       </c>
       <c r="O180" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" ht="15">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181">
         <v>179</v>
       </c>
@@ -13759,10 +13700,10 @@
         <v>828</v>
       </c>
       <c r="O181" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" ht="15">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182">
         <v>180</v>
       </c>
@@ -13800,10 +13741,10 @@
         <v>828</v>
       </c>
       <c r="O182" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" ht="15">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
       <c r="A183">
         <v>181</v>
       </c>
@@ -13841,10 +13782,10 @@
         <v>828</v>
       </c>
       <c r="O183" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" ht="15">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
       <c r="A184">
         <v>182</v>
       </c>
@@ -13882,10 +13823,10 @@
         <v>828</v>
       </c>
       <c r="O184" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" ht="15">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
       <c r="A185">
         <v>183</v>
       </c>
@@ -13923,10 +13864,10 @@
         <v>828</v>
       </c>
       <c r="O185" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" ht="15">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
       <c r="A186">
         <v>184</v>
       </c>
@@ -13964,10 +13905,10 @@
         <v>844</v>
       </c>
       <c r="O186" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" ht="15">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
       <c r="A187">
         <v>185</v>
       </c>
@@ -14005,198 +13946,197 @@
         <v>845</v>
       </c>
       <c r="O187" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="I26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="I52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="I56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="I58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="I60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="I62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="I64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="I66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="I68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="I70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="I74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="I75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="I76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="I78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="I79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="I80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="I81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="I82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="I83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="I84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="I85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="I86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="I87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="I88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="I89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="I90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="I91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="I92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="I93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="I94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="I95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="I96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="I97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="I98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="I99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="I100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="I101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="I102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="I103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="I104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="I105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="I106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="I107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="I108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="I109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="I110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="I111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="I112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="I113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="I114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="I115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="I116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="I117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="I118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="I119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="I120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="I121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="I122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="I123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="I124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="I125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="I126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="I127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="I128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="I129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="I130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="I131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="I132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="I133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="I134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="I135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="I136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="I137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="I138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="I139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="I140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="I141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="I142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="I143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="I144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="I145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="I146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="I147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="I148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="I149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="I150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="I151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="I152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="I153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="I154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="I155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="I156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="I157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="I158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="I159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="I160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="I161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="I162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="I163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="I164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="I165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="I166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="I167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="I168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="I169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="I170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="I171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="I172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="I173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="I174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="I175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="I176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="I177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="I178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="I179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="I180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="I181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="I182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="I183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="I184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="I185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="I186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="I187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="I16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I19" r:id="rId18"/>
+    <hyperlink ref="I20" r:id="rId19"/>
+    <hyperlink ref="I21" r:id="rId20"/>
+    <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
+    <hyperlink ref="I24" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I26" r:id="rId25"/>
+    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="I28" r:id="rId27"/>
+    <hyperlink ref="I29" r:id="rId28"/>
+    <hyperlink ref="I30" r:id="rId29"/>
+    <hyperlink ref="I31" r:id="rId30"/>
+    <hyperlink ref="I32" r:id="rId31"/>
+    <hyperlink ref="I33" r:id="rId32"/>
+    <hyperlink ref="I34" r:id="rId33"/>
+    <hyperlink ref="I35" r:id="rId34"/>
+    <hyperlink ref="I36" r:id="rId35"/>
+    <hyperlink ref="I37" r:id="rId36"/>
+    <hyperlink ref="I38" r:id="rId37"/>
+    <hyperlink ref="I39" r:id="rId38"/>
+    <hyperlink ref="I40" r:id="rId39"/>
+    <hyperlink ref="I41" r:id="rId40"/>
+    <hyperlink ref="I42" r:id="rId41"/>
+    <hyperlink ref="I43" r:id="rId42"/>
+    <hyperlink ref="I44" r:id="rId43"/>
+    <hyperlink ref="I45" r:id="rId44"/>
+    <hyperlink ref="I46" r:id="rId45"/>
+    <hyperlink ref="I47" r:id="rId46"/>
+    <hyperlink ref="I48" r:id="rId47"/>
+    <hyperlink ref="I49" r:id="rId48"/>
+    <hyperlink ref="I50" r:id="rId49"/>
+    <hyperlink ref="I51" r:id="rId50"/>
+    <hyperlink ref="I52" r:id="rId51"/>
+    <hyperlink ref="I53" r:id="rId52"/>
+    <hyperlink ref="I54" r:id="rId53"/>
+    <hyperlink ref="I55" r:id="rId54"/>
+    <hyperlink ref="I56" r:id="rId55"/>
+    <hyperlink ref="I57" r:id="rId56"/>
+    <hyperlink ref="I58" r:id="rId57"/>
+    <hyperlink ref="I59" r:id="rId58"/>
+    <hyperlink ref="I60" r:id="rId59"/>
+    <hyperlink ref="I61" r:id="rId60"/>
+    <hyperlink ref="I62" r:id="rId61"/>
+    <hyperlink ref="I63" r:id="rId62"/>
+    <hyperlink ref="I64" r:id="rId63"/>
+    <hyperlink ref="I65" r:id="rId64"/>
+    <hyperlink ref="I66" r:id="rId65"/>
+    <hyperlink ref="I67" r:id="rId66"/>
+    <hyperlink ref="I68" r:id="rId67"/>
+    <hyperlink ref="I69" r:id="rId68"/>
+    <hyperlink ref="I70" r:id="rId69"/>
+    <hyperlink ref="I71" r:id="rId70"/>
+    <hyperlink ref="I72" r:id="rId71"/>
+    <hyperlink ref="I73" r:id="rId72"/>
+    <hyperlink ref="I74" r:id="rId73"/>
+    <hyperlink ref="I75" r:id="rId74"/>
+    <hyperlink ref="I76" r:id="rId75"/>
+    <hyperlink ref="I77" r:id="rId76"/>
+    <hyperlink ref="I78" r:id="rId77"/>
+    <hyperlink ref="I79" r:id="rId78"/>
+    <hyperlink ref="I80" r:id="rId79"/>
+    <hyperlink ref="I81" r:id="rId80"/>
+    <hyperlink ref="I82" r:id="rId81"/>
+    <hyperlink ref="I83" r:id="rId82"/>
+    <hyperlink ref="I84" r:id="rId83"/>
+    <hyperlink ref="I85" r:id="rId84"/>
+    <hyperlink ref="I86" r:id="rId85"/>
+    <hyperlink ref="I87" r:id="rId86"/>
+    <hyperlink ref="I88" r:id="rId87"/>
+    <hyperlink ref="I89" r:id="rId88"/>
+    <hyperlink ref="I90" r:id="rId89"/>
+    <hyperlink ref="I91" r:id="rId90"/>
+    <hyperlink ref="I92" r:id="rId91"/>
+    <hyperlink ref="I93" r:id="rId92"/>
+    <hyperlink ref="I94" r:id="rId93"/>
+    <hyperlink ref="I95" r:id="rId94"/>
+    <hyperlink ref="I96" r:id="rId95"/>
+    <hyperlink ref="I97" r:id="rId96"/>
+    <hyperlink ref="I98" r:id="rId97"/>
+    <hyperlink ref="I99" r:id="rId98"/>
+    <hyperlink ref="I100" r:id="rId99"/>
+    <hyperlink ref="I101" r:id="rId100"/>
+    <hyperlink ref="I102" r:id="rId101"/>
+    <hyperlink ref="I103" r:id="rId102"/>
+    <hyperlink ref="I104" r:id="rId103"/>
+    <hyperlink ref="I105" r:id="rId104"/>
+    <hyperlink ref="I106" r:id="rId105"/>
+    <hyperlink ref="I107" r:id="rId106"/>
+    <hyperlink ref="I108" r:id="rId107"/>
+    <hyperlink ref="I109" r:id="rId108"/>
+    <hyperlink ref="I110" r:id="rId109"/>
+    <hyperlink ref="I111" r:id="rId110"/>
+    <hyperlink ref="I112" r:id="rId111"/>
+    <hyperlink ref="I113" r:id="rId112"/>
+    <hyperlink ref="I114" r:id="rId113"/>
+    <hyperlink ref="I115" r:id="rId114"/>
+    <hyperlink ref="I116" r:id="rId115"/>
+    <hyperlink ref="I117" r:id="rId116"/>
+    <hyperlink ref="I118" r:id="rId117"/>
+    <hyperlink ref="I119" r:id="rId118"/>
+    <hyperlink ref="I120" r:id="rId119"/>
+    <hyperlink ref="I121" r:id="rId120"/>
+    <hyperlink ref="I122" r:id="rId121"/>
+    <hyperlink ref="I123" r:id="rId122"/>
+    <hyperlink ref="I124" r:id="rId123"/>
+    <hyperlink ref="I125" r:id="rId124"/>
+    <hyperlink ref="I126" r:id="rId125"/>
+    <hyperlink ref="I127" r:id="rId126"/>
+    <hyperlink ref="I128" r:id="rId127"/>
+    <hyperlink ref="I129" r:id="rId128"/>
+    <hyperlink ref="I130" r:id="rId129"/>
+    <hyperlink ref="I131" r:id="rId130"/>
+    <hyperlink ref="I132" r:id="rId131"/>
+    <hyperlink ref="I133" r:id="rId132"/>
+    <hyperlink ref="I134" r:id="rId133"/>
+    <hyperlink ref="I135" r:id="rId134"/>
+    <hyperlink ref="I136" r:id="rId135"/>
+    <hyperlink ref="I137" r:id="rId136"/>
+    <hyperlink ref="I138" r:id="rId137"/>
+    <hyperlink ref="I139" r:id="rId138"/>
+    <hyperlink ref="I140" r:id="rId139"/>
+    <hyperlink ref="I141" r:id="rId140"/>
+    <hyperlink ref="I142" r:id="rId141"/>
+    <hyperlink ref="I143" r:id="rId142"/>
+    <hyperlink ref="I144" r:id="rId143"/>
+    <hyperlink ref="I145" r:id="rId144"/>
+    <hyperlink ref="I146" r:id="rId145"/>
+    <hyperlink ref="I147" r:id="rId146"/>
+    <hyperlink ref="I148" r:id="rId147"/>
+    <hyperlink ref="I149" r:id="rId148"/>
+    <hyperlink ref="I150" r:id="rId149"/>
+    <hyperlink ref="I151" r:id="rId150"/>
+    <hyperlink ref="I152" r:id="rId151"/>
+    <hyperlink ref="I153" r:id="rId152"/>
+    <hyperlink ref="I154" r:id="rId153"/>
+    <hyperlink ref="I155" r:id="rId154"/>
+    <hyperlink ref="I156" r:id="rId155"/>
+    <hyperlink ref="I157" r:id="rId156"/>
+    <hyperlink ref="I158" r:id="rId157"/>
+    <hyperlink ref="I159" r:id="rId158"/>
+    <hyperlink ref="I160" r:id="rId159"/>
+    <hyperlink ref="I161" r:id="rId160"/>
+    <hyperlink ref="I162" r:id="rId161"/>
+    <hyperlink ref="I163" r:id="rId162"/>
+    <hyperlink ref="I164" r:id="rId163"/>
+    <hyperlink ref="I165" r:id="rId164"/>
+    <hyperlink ref="I166" r:id="rId165"/>
+    <hyperlink ref="I167" r:id="rId166"/>
+    <hyperlink ref="I168" r:id="rId167"/>
+    <hyperlink ref="I169" r:id="rId168"/>
+    <hyperlink ref="I170" r:id="rId169"/>
+    <hyperlink ref="I171" r:id="rId170"/>
+    <hyperlink ref="I172" r:id="rId171"/>
+    <hyperlink ref="I173" r:id="rId172"/>
+    <hyperlink ref="I174" r:id="rId173"/>
+    <hyperlink ref="I175" r:id="rId174"/>
+    <hyperlink ref="I176" r:id="rId175"/>
+    <hyperlink ref="I177" r:id="rId176"/>
+    <hyperlink ref="I178" r:id="rId177"/>
+    <hyperlink ref="I179" r:id="rId178"/>
+    <hyperlink ref="I180" r:id="rId179"/>
+    <hyperlink ref="I181" r:id="rId180"/>
+    <hyperlink ref="I182" r:id="rId181"/>
+    <hyperlink ref="I183" r:id="rId182"/>
+    <hyperlink ref="I184" r:id="rId183"/>
+    <hyperlink ref="I185" r:id="rId184"/>
+    <hyperlink ref="I186" r:id="rId185"/>
+    <hyperlink ref="I187" r:id="rId186"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
